--- a/py/direction_sheet_new.xlsx
+++ b/py/direction_sheet_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9A612D-7702-4C7A-A70A-86C642F5F1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E11D40B-718B-40BE-8675-06C566D8089F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16710" yWindow="4365" windowWidth="12090" windowHeight="11835" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="print" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">print!$B$2:$V$79</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1345,7 +1332,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1648,6 +1635,425 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="25" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="26" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1663,6 +2069,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1672,15 +2081,11 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1691,465 +2096,23 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="25" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="26" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2623,15 +2586,15 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AI172"/>
+  <dimension ref="B1:AF172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20:AA20"/>
+      <selection activeCell="C2" sqref="C2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="24" customWidth="1"/>
+    <col min="1" max="1" width="5.875" style="24" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="24" customWidth="1"/>
     <col min="3" max="3" width="24.375" style="24" customWidth="1"/>
     <col min="4" max="4" width="21.125" style="24" customWidth="1"/>
@@ -2656,516 +2619,467 @@
     <col min="74" max="16384" width="2.375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" ht="64.5" customHeight="1" thickBot="1">
-      <c r="B1" s="193"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-      <c r="H1" s="249"/>
-      <c r="I1" s="249"/>
-      <c r="J1" s="249"/>
-      <c r="K1" s="249"/>
-      <c r="L1" s="249"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="249"/>
-      <c r="O1" s="249"/>
-      <c r="P1" s="249"/>
-      <c r="Q1" s="249"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="249"/>
-      <c r="T1" s="249"/>
-      <c r="U1" s="250"/>
-    </row>
-    <row r="2" spans="2:35" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B2" s="194"/>
-      <c r="C2" s="123" t="s">
+    <row r="1" spans="2:32" ht="64.5" customHeight="1" thickBot="1">
+      <c r="B1" s="209"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="213"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="213"/>
+      <c r="U1" s="214"/>
+    </row>
+    <row r="2" spans="2:32" ht="66.75" customHeight="1" thickBot="1">
+      <c r="B2" s="210"/>
+      <c r="C2" s="206" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="246"/>
-    </row>
-    <row r="3" spans="2:35" ht="28.5" customHeight="1">
-      <c r="B3" s="194"/>
-      <c r="C3" s="141" t="s">
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="207"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="159"/>
+    </row>
+    <row r="3" spans="2:32" ht="28.5" customHeight="1">
+      <c r="B3" s="210"/>
+      <c r="C3" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="244">
+      <c r="D3" s="158">
         <f>input!D18</f>
         <v>0</v>
       </c>
-      <c r="E3" s="141" t="s">
+      <c r="E3" s="106" t="s">
         <v>87</v>
       </c>
       <c r="F3" s="28">
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="G3" s="169"/>
-      <c r="H3" s="243" t="s">
+      <c r="G3" s="118"/>
+      <c r="H3" s="225" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="146" t="s">
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="226" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="146"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="131" t="s">
+      <c r="M3" s="226"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="195" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="199" t="s">
+      <c r="P3" s="197" t="s">
         <v>139</v>
       </c>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="258" t="s">
+      <c r="Q3" s="197"/>
+      <c r="R3" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="258" t="s">
+      <c r="S3" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="T3" s="256" t="s">
+      <c r="T3" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="U3" s="134" t="s">
+      <c r="U3" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="144"/>
-      <c r="AG3" s="144"/>
-      <c r="AH3" s="144"/>
-      <c r="AI3" s="144"/>
-    </row>
-    <row r="4" spans="2:35" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B4" s="194"/>
+    </row>
+    <row r="4" spans="2:32" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B4" s="210"/>
       <c r="C4" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="223">
+      <c r="D4" s="147">
         <f>input!D17</f>
         <v>0</v>
       </c>
       <c r="E4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="224">
+      <c r="F4" s="140">
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="G4" s="169"/>
-      <c r="H4" s="205" t="s">
+      <c r="G4" s="118"/>
+      <c r="H4" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="150" t="str">
+      <c r="I4" s="109" t="str">
         <f>IF(input!D12="6N01","●","")</f>
         <v/>
       </c>
-      <c r="J4" s="149" t="s">
+      <c r="J4" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="206" t="s">
+      <c r="K4" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="L4" s="151" t="s">
+      <c r="L4" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="152" t="s">
+      <c r="M4" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="N4" s="153" t="s">
+      <c r="N4" s="231" t="s">
         <v>120</v>
       </c>
-      <c r="O4" s="121"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="200"/>
-      <c r="S4" s="200"/>
-      <c r="T4" s="255"/>
-      <c r="U4" s="135"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="144"/>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144"/>
-      <c r="AI4" s="144"/>
-    </row>
-    <row r="5" spans="2:35" ht="28.5" customHeight="1">
-      <c r="B5" s="194"/>
-      <c r="C5" s="198" t="s">
+      <c r="O4" s="196"/>
+      <c r="P4" s="198"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="192"/>
+      <c r="S4" s="192"/>
+      <c r="T4" s="194"/>
+      <c r="U4" s="200"/>
+    </row>
+    <row r="5" spans="2:32" ht="28.5" customHeight="1">
+      <c r="B5" s="210"/>
+      <c r="C5" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="132">
+      <c r="D5" s="220">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="205">
+      <c r="E5" s="220"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="134">
         <v>6061</v>
       </c>
-      <c r="I5" s="150" t="str">
+      <c r="I5" s="109" t="str">
         <f>IF(input!D12="6061","●","")</f>
         <v/>
       </c>
-      <c r="J5" s="149"/>
-      <c r="K5" s="207">
+      <c r="J5" s="107"/>
+      <c r="K5" s="136">
         <f>input!D21</f>
         <v>0</v>
       </c>
-      <c r="L5" s="152">
+      <c r="L5" s="111">
         <f>input!D13</f>
         <v>0</v>
       </c>
-      <c r="M5" s="155">
+      <c r="M5" s="112">
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="126"/>
-      <c r="O5" s="138" t="s">
+      <c r="N5" s="232"/>
+      <c r="O5" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257"/>
-      <c r="S5" s="138" t="s">
+      <c r="P5" s="201"/>
+      <c r="Q5" s="201"/>
+      <c r="R5" s="201"/>
+      <c r="S5" s="183" t="s">
         <v>138</v>
       </c>
-      <c r="T5" s="198"/>
-      <c r="U5" s="139"/>
-      <c r="AB5" s="144"/>
-      <c r="AC5" s="169"/>
-      <c r="AD5" s="169"/>
-      <c r="AE5" s="169"/>
-      <c r="AF5" s="169"/>
-      <c r="AG5" s="144"/>
-      <c r="AH5" s="144"/>
-      <c r="AI5" s="144"/>
-    </row>
-    <row r="6" spans="2:35" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="194"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="205">
+      <c r="T5" s="184"/>
+      <c r="U5" s="187"/>
+      <c r="AC5" s="118"/>
+      <c r="AD5" s="118"/>
+      <c r="AE5" s="118"/>
+      <c r="AF5" s="118"/>
+    </row>
+    <row r="6" spans="2:32" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B6" s="210"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="134">
         <v>6063</v>
       </c>
-      <c r="I6" s="150" t="str">
+      <c r="I6" s="109" t="str">
         <f>IF(input!D12="6063","●","")</f>
         <v/>
       </c>
-      <c r="J6" s="149" t="s">
+      <c r="J6" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="206" t="s">
+      <c r="K6" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="L6" s="151" t="s">
+      <c r="L6" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="M6" s="156" t="s">
+      <c r="M6" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="127">
+      <c r="N6" s="233">
         <f>input!K11</f>
         <v>0</v>
       </c>
-      <c r="O6" s="128"/>
-      <c r="P6" s="247"/>
-      <c r="Q6" s="247"/>
-      <c r="R6" s="247"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="130"/>
-      <c r="AB6" s="169"/>
-      <c r="AC6" s="169"/>
-      <c r="AD6" s="169"/>
-      <c r="AI6" s="144"/>
-    </row>
-    <row r="7" spans="2:35" ht="28.5" customHeight="1">
-      <c r="B7" s="194"/>
-      <c r="C7" s="142" t="s">
+      <c r="O6" s="185"/>
+      <c r="P6" s="202"/>
+      <c r="Q6" s="202"/>
+      <c r="R6" s="202"/>
+      <c r="S6" s="185"/>
+      <c r="T6" s="186"/>
+      <c r="U6" s="188"/>
+      <c r="AB6" s="118"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="118"/>
+    </row>
+    <row r="7" spans="2:32" ht="28.5" customHeight="1">
+      <c r="B7" s="210"/>
+      <c r="C7" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="147">
+      <c r="D7" s="222">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="147"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="196" t="s">
+      <c r="E7" s="222"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="150" t="str">
+      <c r="I7" s="109" t="str">
         <f>IF(input!D12="6N01A","●","")</f>
         <v/>
       </c>
-      <c r="J7" s="149"/>
-      <c r="K7" s="209">
+      <c r="J7" s="107"/>
+      <c r="K7" s="137">
         <f>input!D31</f>
         <v>0</v>
       </c>
-      <c r="L7" s="156">
+      <c r="L7" s="113">
         <f>input!D10*1</f>
         <v>0</v>
       </c>
-      <c r="M7" s="149">
+      <c r="M7" s="107">
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="N7" s="127"/>
-      <c r="O7" s="136" t="s">
+      <c r="N7" s="233"/>
+      <c r="O7" s="215" t="s">
         <v>137</v>
       </c>
-      <c r="P7" s="201"/>
-      <c r="Q7" s="202" t="s">
+      <c r="P7" s="217"/>
+      <c r="Q7" s="177" t="s">
         <v>118</v>
       </c>
       <c r="R7" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="S7" s="261"/>
-      <c r="T7" s="203" t="s">
+      <c r="S7" s="163"/>
+      <c r="T7" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="U7" s="204"/>
-      <c r="AB7" s="144"/>
-      <c r="AC7" s="144"/>
-      <c r="AD7" s="144"/>
-      <c r="AI7" s="144"/>
-    </row>
-    <row r="8" spans="2:35" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B8" s="194"/>
-      <c r="C8" s="251"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="148"/>
+      <c r="U7" s="189"/>
+    </row>
+    <row r="8" spans="2:32" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B8" s="210"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="160" t="s">
+      <c r="I8" s="181" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="160"/>
-      <c r="K8" s="263" t="str">
+      <c r="J8" s="181"/>
+      <c r="K8" s="165" t="str">
         <f>input!D36&amp;"-"&amp;input!D37</f>
         <v>-</v>
       </c>
-      <c r="L8" s="208" t="s">
+      <c r="L8" s="182" t="s">
         <v>141</v>
       </c>
-      <c r="M8" s="160"/>
+      <c r="M8" s="181"/>
       <c r="N8" s="28"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="157"/>
-      <c r="Q8" s="158"/>
+      <c r="O8" s="216"/>
+      <c r="P8" s="218"/>
+      <c r="Q8" s="178"/>
       <c r="R8" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="S8" s="262"/>
-      <c r="T8" s="259"/>
-      <c r="U8" s="260"/>
-      <c r="AB8" s="144"/>
-      <c r="AC8" s="144"/>
-      <c r="AD8" s="144"/>
-      <c r="AI8" s="144"/>
-    </row>
-    <row r="9" spans="2:35" ht="28.5" customHeight="1">
-      <c r="B9" s="194"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="158" t="s">
+      <c r="S8" s="164"/>
+      <c r="T8" s="180"/>
+      <c r="U8" s="190"/>
+    </row>
+    <row r="9" spans="2:32" ht="28.5" customHeight="1">
+      <c r="B9" s="210"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="178" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="158"/>
-      <c r="S9" s="158"/>
-      <c r="T9" s="158"/>
-      <c r="U9" s="264"/>
-      <c r="AB9" s="144"/>
-      <c r="AC9" s="144"/>
-      <c r="AD9" s="144"/>
-      <c r="AI9" s="144"/>
-    </row>
-    <row r="10" spans="2:35" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B10" s="194"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="265"/>
-      <c r="I10" s="265"/>
-      <c r="J10" s="265"/>
-      <c r="K10" s="265"/>
-      <c r="L10" s="265"/>
-      <c r="M10" s="265"/>
-      <c r="N10" s="265"/>
-      <c r="O10" s="265"/>
-      <c r="P10" s="265"/>
-      <c r="Q10" s="265"/>
-      <c r="R10" s="265"/>
-      <c r="S10" s="265"/>
-      <c r="T10" s="265"/>
-      <c r="U10" s="266"/>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="144"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="144"/>
-      <c r="AF10" s="144"/>
-      <c r="AG10" s="144"/>
-      <c r="AH10" s="144"/>
-      <c r="AI10" s="144"/>
-    </row>
-    <row r="11" spans="2:35" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="194"/>
-      <c r="C11" s="198" t="s">
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="178"/>
+      <c r="M9" s="178"/>
+      <c r="N9" s="178"/>
+      <c r="O9" s="178"/>
+      <c r="P9" s="178"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="178"/>
+      <c r="T9" s="178"/>
+      <c r="U9" s="203"/>
+    </row>
+    <row r="10" spans="2:32" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B10" s="210"/>
+      <c r="C10" s="60"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="204"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="204"/>
+      <c r="U10" s="205"/>
+    </row>
+    <row r="11" spans="2:32" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B11" s="210"/>
+      <c r="C11" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="132" t="str">
+      <c r="D11" s="220" t="str">
         <f>IF(D13=0,"","DR"&amp;MID(D13,2,4))</f>
         <v/>
       </c>
-      <c r="E11" s="132"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="275" t="s">
+      <c r="E11" s="220"/>
+      <c r="F11" s="221"/>
+      <c r="H11" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="241"/>
-      <c r="J11" s="241"/>
-      <c r="K11" s="241"/>
-      <c r="L11" s="241"/>
-      <c r="M11" s="241"/>
-      <c r="N11" s="241"/>
-      <c r="O11" s="241" t="s">
+      <c r="I11" s="167"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="167"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="167"/>
+      <c r="O11" s="167" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="241"/>
-      <c r="Q11" s="241"/>
-      <c r="R11" s="241"/>
-      <c r="S11" s="241"/>
-      <c r="T11" s="241"/>
-      <c r="U11" s="242"/>
-    </row>
-    <row r="12" spans="2:35" ht="27.75" customHeight="1">
-      <c r="B12" s="194"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="268" t="s">
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="167"/>
+      <c r="S11" s="167"/>
+      <c r="T11" s="167"/>
+      <c r="U11" s="172"/>
+    </row>
+    <row r="12" spans="2:32" ht="27.75" customHeight="1">
+      <c r="B12" s="210"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="223"/>
+      <c r="H12" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="270" t="s">
+      <c r="I12" s="173" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="270" t="s">
+      <c r="J12" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="270" t="s">
+      <c r="K12" s="173" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="270" t="s">
+      <c r="L12" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="M12" s="270" t="s">
+      <c r="M12" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="N12" s="270" t="s">
+      <c r="N12" s="173" t="s">
         <v>126</v>
       </c>
-      <c r="O12" s="270" t="s">
+      <c r="O12" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="P12" s="270" t="s">
+      <c r="P12" s="173" t="s">
         <v>115</v>
       </c>
-      <c r="Q12" s="272">
+      <c r="Q12" s="168">
         <v>302</v>
       </c>
-      <c r="R12" s="272">
+      <c r="R12" s="168">
         <v>304</v>
       </c>
-      <c r="S12" s="272">
+      <c r="S12" s="168">
         <v>314</v>
       </c>
-      <c r="T12" s="272">
+      <c r="T12" s="168">
         <v>316</v>
       </c>
-      <c r="U12" s="274">
+      <c r="U12" s="170">
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="2:35" ht="14.25" customHeight="1">
-      <c r="B13" s="194"/>
-      <c r="C13" s="142" t="s">
+    <row r="13" spans="2:32" ht="14.25" customHeight="1">
+      <c r="B13" s="210"/>
+      <c r="C13" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="147">
+      <c r="D13" s="222">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="267"/>
-      <c r="I13" s="269"/>
-      <c r="J13" s="269"/>
-      <c r="K13" s="269"/>
-      <c r="L13" s="269"/>
-      <c r="M13" s="269"/>
-      <c r="N13" s="269"/>
-      <c r="O13" s="269"/>
-      <c r="P13" s="269"/>
-      <c r="Q13" s="271"/>
-      <c r="R13" s="271"/>
-      <c r="S13" s="271"/>
-      <c r="T13" s="271"/>
-      <c r="U13" s="273"/>
-    </row>
-    <row r="14" spans="2:35" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B14" s="194"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="144"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="223"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="174"/>
+      <c r="N13" s="174"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="169"/>
+      <c r="T13" s="169"/>
+      <c r="U13" s="171"/>
+    </row>
+    <row r="14" spans="2:32" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B14" s="210"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="230"/>
       <c r="H14" s="90">
         <v>1</v>
       </c>
@@ -3184,21 +3098,21 @@
       <c r="S14" s="27"/>
       <c r="T14" s="32"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="163"/>
-    </row>
-    <row r="15" spans="2:35" ht="37.5" customHeight="1" thickBot="1">
-      <c r="B15" s="194"/>
-      <c r="C15" s="164" t="s">
+      <c r="V14" s="114"/>
+    </row>
+    <row r="15" spans="2:32" ht="37.5" customHeight="1" thickBot="1">
+      <c r="B15" s="210"/>
+      <c r="C15" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="164" t="s">
+      <c r="D15" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="165" t="s">
+      <c r="E15" s="262" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="165"/>
-      <c r="G15" s="143"/>
+      <c r="F15" s="262"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="90">
         <v>2</v>
       </c>
@@ -3218,13 +3132,12 @@
       <c r="T15" s="32"/>
       <c r="U15" s="33"/>
     </row>
-    <row r="16" spans="2:35" ht="35.1" customHeight="1">
-      <c r="B16" s="194"/>
-      <c r="C16" s="252"/>
-      <c r="D16" s="211"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="144"/>
+    <row r="16" spans="2:32" ht="35.1" customHeight="1">
+      <c r="B16" s="210"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="260"/>
+      <c r="F16" s="261"/>
       <c r="H16" s="90">
         <v>3</v>
       </c>
@@ -3253,12 +3166,11 @@
       <c r="Z16" s="34"/>
     </row>
     <row r="17" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B17" s="194"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="144"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="258"/>
+      <c r="F17" s="259"/>
       <c r="H17" s="90">
         <v>4</v>
       </c>
@@ -3283,12 +3195,10 @@
       <c r="Z17" s="34"/>
     </row>
     <row r="18" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B18" s="194"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="144"/>
+      <c r="B18" s="210"/>
+      <c r="C18" s="116"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="242"/>
       <c r="H18" s="90">
         <v>5</v>
       </c>
@@ -3313,12 +3223,10 @@
       <c r="Z18" s="34"/>
     </row>
     <row r="19" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B19" s="194"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="144"/>
+      <c r="B19" s="210"/>
+      <c r="C19" s="106"/>
+      <c r="E19" s="241"/>
+      <c r="F19" s="242"/>
       <c r="H19" s="90">
         <v>6</v>
       </c>
@@ -3338,18 +3246,16 @@
       <c r="T19" s="32"/>
       <c r="U19" s="33"/>
       <c r="W19" s="34"/>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="115"/>
-      <c r="Z19" s="115"/>
-      <c r="AA19" s="115"/>
+      <c r="X19" s="236"/>
+      <c r="Y19" s="235"/>
+      <c r="Z19" s="235"/>
+      <c r="AA19" s="235"/>
     </row>
     <row r="20" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B20" s="194"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="144"/>
+      <c r="B20" s="210"/>
+      <c r="C20" s="116"/>
+      <c r="E20" s="241"/>
+      <c r="F20" s="242"/>
       <c r="H20" s="90">
         <v>7</v>
       </c>
@@ -3370,16 +3276,14 @@
       <c r="U20" s="33"/>
       <c r="X20" s="88"/>
       <c r="Y20" s="31"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="115"/>
+      <c r="Z20" s="237"/>
+      <c r="AA20" s="235"/>
     </row>
     <row r="21" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B21" s="194"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="212"/>
-      <c r="G21" s="144"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="106"/>
+      <c r="E21" s="241"/>
+      <c r="F21" s="242"/>
       <c r="H21" s="90">
         <v>8</v>
       </c>
@@ -3401,16 +3305,14 @@
       <c r="V21" s="35"/>
       <c r="X21" s="88"/>
       <c r="Y21" s="89"/>
-      <c r="Z21" s="114"/>
-      <c r="AA21" s="115"/>
+      <c r="Z21" s="234"/>
+      <c r="AA21" s="235"/>
     </row>
     <row r="22" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B22" s="194"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="144"/>
+      <c r="B22" s="210"/>
+      <c r="C22" s="116"/>
+      <c r="E22" s="241"/>
+      <c r="F22" s="242"/>
       <c r="H22" s="90">
         <v>9</v>
       </c>
@@ -3431,16 +3333,14 @@
       <c r="U22" s="33"/>
       <c r="V22" s="35"/>
       <c r="X22" s="31"/>
-      <c r="Z22" s="115"/>
-      <c r="AA22" s="115"/>
+      <c r="Z22" s="235"/>
+      <c r="AA22" s="235"/>
     </row>
     <row r="23" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B23" s="194"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="212"/>
-      <c r="G23" s="144"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="106"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="242"/>
       <c r="H23" s="90">
         <v>10</v>
       </c>
@@ -3462,12 +3362,10 @@
       <c r="V23" s="35"/>
     </row>
     <row r="24" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B24" s="194"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="212"/>
-      <c r="G24" s="144"/>
+      <c r="B24" s="210"/>
+      <c r="C24" s="116"/>
+      <c r="E24" s="241"/>
+      <c r="F24" s="242"/>
       <c r="H24" s="90">
         <v>11</v>
       </c>
@@ -3490,12 +3388,11 @@
       <c r="W24" s="35"/>
     </row>
     <row r="25" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B25" s="194"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="213"/>
-      <c r="G25" s="144"/>
+      <c r="B25" s="210"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="266"/>
+      <c r="F25" s="267"/>
       <c r="H25" s="90">
         <v>12</v>
       </c>
@@ -3518,12 +3415,10 @@
       <c r="W25" s="35"/>
     </row>
     <row r="26" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B26" s="194"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="144"/>
+      <c r="B26" s="210"/>
+      <c r="C26" s="116"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="242"/>
       <c r="H26" s="90">
         <v>13</v>
       </c>
@@ -3546,12 +3441,10 @@
       <c r="W26" s="35"/>
     </row>
     <row r="27" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B27" s="194"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="212"/>
-      <c r="G27" s="144"/>
+      <c r="B27" s="210"/>
+      <c r="C27" s="106"/>
+      <c r="E27" s="241"/>
+      <c r="F27" s="242"/>
       <c r="H27" s="90">
         <v>14</v>
       </c>
@@ -3574,12 +3467,10 @@
       <c r="W27" s="35"/>
     </row>
     <row r="28" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B28" s="194"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="212"/>
-      <c r="G28" s="144"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="116"/>
+      <c r="E28" s="241"/>
+      <c r="F28" s="242"/>
       <c r="H28" s="90">
         <v>15</v>
       </c>
@@ -3602,12 +3493,10 @@
       <c r="W28" s="35"/>
     </row>
     <row r="29" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B29" s="194"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="212"/>
-      <c r="G29" s="144"/>
+      <c r="B29" s="210"/>
+      <c r="C29" s="106"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="242"/>
       <c r="H29" s="90">
         <v>16</v>
       </c>
@@ -3630,12 +3519,11 @@
       <c r="W29" s="35"/>
     </row>
     <row r="30" spans="2:27" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B30" s="194"/>
-      <c r="C30" s="253"/>
+      <c r="B30" s="210"/>
+      <c r="C30" s="161"/>
       <c r="D30" s="101"/>
-      <c r="E30" s="214"/>
-      <c r="F30" s="215"/>
-      <c r="G30" s="144"/>
+      <c r="E30" s="263"/>
+      <c r="F30" s="264"/>
       <c r="H30" s="90">
         <v>17</v>
       </c>
@@ -3658,14 +3546,13 @@
       <c r="W30" s="35"/>
     </row>
     <row r="31" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B31" s="194"/>
-      <c r="C31" s="254" t="s">
+      <c r="B31" s="210"/>
+      <c r="C31" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="216"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="144"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="142"/>
       <c r="H31" s="90">
         <v>18</v>
       </c>
@@ -3688,16 +3575,15 @@
       <c r="W31" s="35"/>
     </row>
     <row r="32" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B32" s="194"/>
-      <c r="C32" s="142" t="s">
+      <c r="B32" s="210"/>
+      <c r="C32" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142" t="s">
+      <c r="D32" s="224"/>
+      <c r="E32" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="140"/>
-      <c r="G32" s="144"/>
+      <c r="F32" s="243"/>
       <c r="H32" s="90">
         <v>19</v>
       </c>
@@ -3720,21 +3606,20 @@
       <c r="W32" s="35"/>
     </row>
     <row r="33" spans="2:23" ht="35.1" customHeight="1">
-      <c r="B33" s="194"/>
-      <c r="C33" s="171" t="s">
+      <c r="B33" s="210"/>
+      <c r="C33" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="172" t="str">
+      <c r="D33" s="120" t="str">
         <f>input!I12</f>
         <v/>
       </c>
-      <c r="E33" s="171" t="s">
+      <c r="E33" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="218" t="s">
+      <c r="F33" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="144"/>
       <c r="H33" s="90">
         <v>20</v>
       </c>
@@ -3757,19 +3642,18 @@
       <c r="W33" s="35"/>
     </row>
     <row r="34" spans="2:23" ht="35.1" customHeight="1">
-      <c r="B34" s="194"/>
-      <c r="C34" s="171" t="s">
+      <c r="B34" s="210"/>
+      <c r="C34" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="173">
+      <c r="D34" s="121">
         <f>input!D20</f>
         <v>0</v>
       </c>
-      <c r="E34" s="171" t="s">
+      <c r="E34" s="119" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="102"/>
-      <c r="G34" s="144"/>
       <c r="H34" s="90">
         <v>21</v>
       </c>
@@ -3792,19 +3676,18 @@
       <c r="W34" s="38"/>
     </row>
     <row r="35" spans="2:23" ht="35.1" customHeight="1">
-      <c r="B35" s="194"/>
-      <c r="C35" s="171" t="s">
+      <c r="B35" s="210"/>
+      <c r="C35" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="174">
+      <c r="D35" s="122">
         <f>input!D24</f>
         <v>0</v>
       </c>
-      <c r="E35" s="171" t="s">
+      <c r="E35" s="119" t="s">
         <v>91</v>
       </c>
       <c r="F35" s="102"/>
-      <c r="G35" s="144"/>
       <c r="H35" s="90">
         <v>22</v>
       </c>
@@ -3825,19 +3708,18 @@
       <c r="U35" s="33"/>
     </row>
     <row r="36" spans="2:23" ht="35.1" customHeight="1">
-      <c r="B36" s="194"/>
-      <c r="C36" s="171" t="s">
+      <c r="B36" s="210"/>
+      <c r="C36" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="175">
+      <c r="D36" s="123">
         <f>input!D23</f>
         <v>0</v>
       </c>
-      <c r="E36" s="171" t="s">
+      <c r="E36" s="119" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="102"/>
-      <c r="G36" s="144"/>
       <c r="H36" s="90">
         <v>23</v>
       </c>
@@ -3858,19 +3740,18 @@
       <c r="U36" s="33"/>
     </row>
     <row r="37" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B37" s="194"/>
-      <c r="C37" s="171" t="s">
+      <c r="B37" s="210"/>
+      <c r="C37" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="176" t="str">
+      <c r="D37" s="124" t="str">
         <f>input!I13</f>
         <v>°-℃/m</v>
       </c>
-      <c r="E37" s="171" t="s">
+      <c r="E37" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="219"/>
-      <c r="G37" s="177"/>
+      <c r="F37" s="144"/>
       <c r="H37" s="90">
         <v>24</v>
       </c>
@@ -3891,19 +3772,18 @@
       <c r="U37" s="33"/>
     </row>
     <row r="38" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B38" s="194"/>
-      <c r="C38" s="171" t="s">
+      <c r="B38" s="210"/>
+      <c r="C38" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="178">
+      <c r="D38" s="125">
         <f>input!D22</f>
         <v>0</v>
       </c>
-      <c r="E38" s="171" t="s">
+      <c r="E38" s="119" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="102"/>
-      <c r="G38" s="177"/>
       <c r="H38" s="90">
         <v>25</v>
       </c>
@@ -3924,19 +3804,18 @@
       <c r="U38" s="33"/>
     </row>
     <row r="39" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B39" s="194"/>
-      <c r="C39" s="171" t="s">
+      <c r="B39" s="210"/>
+      <c r="C39" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="176">
+      <c r="D39" s="124">
         <f>input!D27</f>
         <v>0</v>
       </c>
-      <c r="E39" s="171" t="s">
+      <c r="E39" s="119" t="s">
         <v>15</v>
       </c>
       <c r="F39" s="102"/>
-      <c r="G39" s="177"/>
       <c r="H39" s="90">
         <v>26</v>
       </c>
@@ -3957,19 +3836,18 @@
       <c r="U39" s="33"/>
     </row>
     <row r="40" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B40" s="194"/>
-      <c r="C40" s="171" t="s">
+      <c r="B40" s="210"/>
+      <c r="C40" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="179">
+      <c r="D40" s="126">
         <f>input!D29</f>
         <v>0</v>
       </c>
-      <c r="E40" s="171" t="s">
+      <c r="E40" s="119" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="102"/>
-      <c r="G40" s="177"/>
       <c r="H40" s="90">
         <v>27</v>
       </c>
@@ -3990,21 +3868,20 @@
       <c r="U40" s="33"/>
     </row>
     <row r="41" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B41" s="194"/>
-      <c r="C41" s="171" t="s">
+      <c r="B41" s="210"/>
+      <c r="C41" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="180">
+      <c r="D41" s="127">
         <f>input!D28</f>
         <v>0</v>
       </c>
-      <c r="E41" s="171" t="s">
+      <c r="E41" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="218" t="s">
+      <c r="F41" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="177"/>
       <c r="H41" s="90">
         <v>28</v>
       </c>
@@ -4025,21 +3902,20 @@
       <c r="U41" s="33"/>
     </row>
     <row r="42" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B42" s="194"/>
-      <c r="C42" s="171" t="s">
+      <c r="B42" s="210"/>
+      <c r="C42" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="141" t="str">
+      <c r="D42" s="106" t="str">
         <f>IF(input!D30&lt;&gt;"",input!D30,"Air")</f>
         <v>Air</v>
       </c>
-      <c r="E42" s="171" t="s">
+      <c r="E42" s="119" t="s">
         <v>18</v>
       </c>
       <c r="F42" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="177"/>
       <c r="H42" s="90">
         <v>29</v>
       </c>
@@ -4060,22 +3936,21 @@
       <c r="U42" s="33"/>
     </row>
     <row r="43" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B43" s="194"/>
-      <c r="C43" s="220" t="s">
+      <c r="B43" s="210"/>
+      <c r="C43" s="145" t="s">
         <v>131</v>
       </c>
       <c r="D43" s="104">
         <f>input!I14</f>
         <v>50</v>
       </c>
-      <c r="E43" s="220" t="s">
+      <c r="E43" s="145" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="103">
         <f>input!D33</f>
         <v>0</v>
       </c>
-      <c r="G43" s="177"/>
       <c r="H43" s="90">
         <v>30</v>
       </c>
@@ -4096,14 +3971,13 @@
       <c r="U43" s="33"/>
     </row>
     <row r="44" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B44" s="194"/>
-      <c r="C44" s="221" t="s">
+      <c r="B44" s="210"/>
+      <c r="C44" s="265" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="221"/>
-      <c r="E44" s="222"/>
-      <c r="F44" s="217"/>
-      <c r="G44" s="177"/>
+      <c r="D44" s="265"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="142"/>
       <c r="H44" s="90">
         <v>31</v>
       </c>
@@ -4124,18 +3998,17 @@
       <c r="U44" s="33"/>
     </row>
     <row r="45" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B45" s="194"/>
-      <c r="C45" s="141" t="s">
+      <c r="B45" s="210"/>
+      <c r="C45" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="181" t="s">
+      <c r="D45" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="181" t="s">
+      <c r="E45" s="128" t="s">
         <v>26</v>
       </c>
       <c r="F45" s="28"/>
-      <c r="G45" s="177"/>
       <c r="H45" s="90">
         <v>32</v>
       </c>
@@ -4156,14 +4029,13 @@
       <c r="U45" s="33"/>
     </row>
     <row r="46" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B46" s="194"/>
-      <c r="C46" s="141" t="s">
+      <c r="B46" s="210"/>
+      <c r="C46" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="169"/>
-      <c r="E46" s="169"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
       <c r="F46" s="28"/>
-      <c r="G46" s="177"/>
       <c r="H46" s="90">
         <v>33</v>
       </c>
@@ -4184,14 +4056,13 @@
       <c r="U46" s="33"/>
     </row>
     <row r="47" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B47" s="194"/>
+      <c r="B47" s="210"/>
       <c r="C47" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="223"/>
-      <c r="E47" s="223"/>
-      <c r="F47" s="224"/>
-      <c r="G47" s="177"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="140"/>
       <c r="H47" s="90">
         <v>34</v>
       </c>
@@ -4212,14 +4083,13 @@
       <c r="U47" s="33"/>
     </row>
     <row r="48" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B48" s="194"/>
-      <c r="C48" s="254" t="s">
+      <c r="B48" s="210"/>
+      <c r="C48" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="222"/>
-      <c r="E48" s="222"/>
-      <c r="F48" s="225"/>
-      <c r="G48" s="177"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
+      <c r="F48" s="148"/>
       <c r="H48" s="90">
         <v>35</v>
       </c>
@@ -4240,16 +4110,15 @@
       <c r="U48" s="33"/>
     </row>
     <row r="49" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B49" s="194"/>
-      <c r="C49" s="182" t="s">
+      <c r="B49" s="210"/>
+      <c r="C49" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="183" t="s">
+      <c r="D49" s="246" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="183"/>
-      <c r="F49" s="226"/>
-      <c r="G49" s="144"/>
+      <c r="E49" s="246"/>
+      <c r="F49" s="247"/>
       <c r="H49" s="90">
         <v>36</v>
       </c>
@@ -4270,18 +4139,17 @@
       <c r="U49" s="33"/>
     </row>
     <row r="50" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B50" s="194"/>
-      <c r="C50" s="182"/>
-      <c r="D50" s="141" t="s">
+      <c r="B50" s="210"/>
+      <c r="C50" s="257"/>
+      <c r="D50" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="141" t="s">
+      <c r="E50" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="227" t="s">
+      <c r="F50" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="144"/>
       <c r="H50" s="90">
         <v>37</v>
       </c>
@@ -4302,14 +4170,13 @@
       <c r="U50" s="33"/>
     </row>
     <row r="51" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B51" s="194"/>
-      <c r="C51" s="141" t="s">
+      <c r="B51" s="210"/>
+      <c r="C51" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="169"/>
-      <c r="E51" s="169"/>
-      <c r="F51" s="228"/>
-      <c r="G51" s="144"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="139"/>
       <c r="H51" s="90">
         <v>38</v>
       </c>
@@ -4331,14 +4198,13 @@
       <c r="Y51" s="53"/>
     </row>
     <row r="52" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B52" s="194"/>
-      <c r="C52" s="141" t="s">
+      <c r="B52" s="210"/>
+      <c r="C52" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="169"/>
-      <c r="E52" s="169"/>
-      <c r="F52" s="228"/>
-      <c r="G52" s="144"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="139"/>
       <c r="H52" s="90">
         <v>39</v>
       </c>
@@ -4359,16 +4225,15 @@
       <c r="U52" s="33"/>
     </row>
     <row r="53" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B53" s="194"/>
-      <c r="C53" s="182" t="s">
+      <c r="B53" s="210"/>
+      <c r="C53" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="183" t="s">
+      <c r="D53" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="183"/>
-      <c r="F53" s="226"/>
-      <c r="G53" s="144"/>
+      <c r="E53" s="246"/>
+      <c r="F53" s="247"/>
       <c r="H53" s="90">
         <v>40</v>
       </c>
@@ -4389,18 +4254,17 @@
       <c r="U53" s="33"/>
     </row>
     <row r="54" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B54" s="194"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="141" t="s">
+      <c r="B54" s="210"/>
+      <c r="C54" s="257"/>
+      <c r="D54" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="141" t="s">
+      <c r="E54" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="F54" s="229" t="s">
+      <c r="F54" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="144"/>
       <c r="H54" s="90">
         <v>41</v>
       </c>
@@ -4421,14 +4285,13 @@
       <c r="U54" s="33"/>
     </row>
     <row r="55" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B55" s="194"/>
-      <c r="C55" s="141" t="s">
+      <c r="B55" s="210"/>
+      <c r="C55" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="169"/>
-      <c r="E55" s="169"/>
-      <c r="F55" s="230"/>
-      <c r="G55" s="144"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="151"/>
       <c r="H55" s="90">
         <v>42</v>
       </c>
@@ -4449,14 +4312,13 @@
       <c r="U55" s="33"/>
     </row>
     <row r="56" spans="2:25" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B56" s="194"/>
+      <c r="B56" s="210"/>
       <c r="C56" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="223"/>
-      <c r="E56" s="223"/>
-      <c r="F56" s="231"/>
-      <c r="G56" s="144"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="147"/>
+      <c r="F56" s="152"/>
       <c r="H56" s="90">
         <v>43</v>
       </c>
@@ -4477,14 +4339,13 @@
       <c r="U56" s="33"/>
     </row>
     <row r="57" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B57" s="194"/>
-      <c r="C57" s="198" t="s">
+      <c r="B57" s="210"/>
+      <c r="C57" s="184" t="s">
         <v>110</v>
       </c>
-      <c r="D57" s="198"/>
-      <c r="E57" s="232"/>
-      <c r="F57" s="233"/>
-      <c r="G57" s="144"/>
+      <c r="D57" s="184"/>
+      <c r="E57" s="244"/>
+      <c r="F57" s="245"/>
       <c r="H57" s="90">
         <v>44</v>
       </c>
@@ -4505,14 +4366,13 @@
       <c r="U57" s="33"/>
     </row>
     <row r="58" spans="2:25" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="194"/>
-      <c r="C58" s="129" t="s">
+      <c r="B58" s="210"/>
+      <c r="C58" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="129"/>
-      <c r="E58" s="234"/>
-      <c r="F58" s="235"/>
-      <c r="G58" s="144"/>
+      <c r="D58" s="186"/>
+      <c r="E58" s="239"/>
+      <c r="F58" s="240"/>
       <c r="H58" s="90">
         <v>45</v>
       </c>
@@ -4533,14 +4393,13 @@
       <c r="U58" s="33"/>
     </row>
     <row r="59" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B59" s="194"/>
-      <c r="C59" s="109" t="s">
+      <c r="B59" s="210"/>
+      <c r="C59" s="251" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="109"/>
-      <c r="E59" s="109"/>
-      <c r="F59" s="110"/>
-      <c r="G59" s="144"/>
+      <c r="D59" s="251"/>
+      <c r="E59" s="251"/>
+      <c r="F59" s="252"/>
       <c r="H59" s="90">
         <v>46</v>
       </c>
@@ -4561,12 +4420,11 @@
       <c r="U59" s="33"/>
     </row>
     <row r="60" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B60" s="194"/>
-      <c r="C60" s="184"/>
-      <c r="D60" s="184"/>
-      <c r="E60" s="184"/>
-      <c r="F60" s="111"/>
-      <c r="G60" s="144"/>
+      <c r="B60" s="210"/>
+      <c r="C60" s="253"/>
+      <c r="D60" s="253"/>
+      <c r="E60" s="253"/>
+      <c r="F60" s="254"/>
       <c r="H60" s="90">
         <v>47</v>
       </c>
@@ -4587,12 +4445,11 @@
       <c r="U60" s="33"/>
     </row>
     <row r="61" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B61" s="194"/>
-      <c r="C61" s="184"/>
-      <c r="D61" s="184"/>
-      <c r="E61" s="184"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="144"/>
+      <c r="B61" s="210"/>
+      <c r="C61" s="253"/>
+      <c r="D61" s="253"/>
+      <c r="E61" s="253"/>
+      <c r="F61" s="254"/>
       <c r="H61" s="90">
         <v>48</v>
       </c>
@@ -4613,12 +4470,11 @@
       <c r="U61" s="33"/>
     </row>
     <row r="62" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B62" s="194"/>
-      <c r="C62" s="184"/>
-      <c r="D62" s="184"/>
-      <c r="E62" s="184"/>
-      <c r="F62" s="111"/>
-      <c r="G62" s="144"/>
+      <c r="B62" s="210"/>
+      <c r="C62" s="253"/>
+      <c r="D62" s="253"/>
+      <c r="E62" s="253"/>
+      <c r="F62" s="254"/>
       <c r="H62" s="90">
         <v>49</v>
       </c>
@@ -4639,12 +4495,11 @@
       <c r="U62" s="33"/>
     </row>
     <row r="63" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B63" s="194"/>
-      <c r="C63" s="184"/>
-      <c r="D63" s="184"/>
-      <c r="E63" s="184"/>
-      <c r="F63" s="111"/>
-      <c r="G63" s="144"/>
+      <c r="B63" s="210"/>
+      <c r="C63" s="253"/>
+      <c r="D63" s="253"/>
+      <c r="E63" s="253"/>
+      <c r="F63" s="254"/>
       <c r="H63" s="90">
         <v>50</v>
       </c>
@@ -4665,12 +4520,12 @@
       <c r="U63" s="33"/>
     </row>
     <row r="64" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B64" s="194"/>
-      <c r="C64" s="184"/>
-      <c r="D64" s="184"/>
-      <c r="E64" s="184"/>
-      <c r="F64" s="111"/>
-      <c r="G64" s="143"/>
+      <c r="B64" s="210"/>
+      <c r="C64" s="253"/>
+      <c r="D64" s="253"/>
+      <c r="E64" s="253"/>
+      <c r="F64" s="254"/>
+      <c r="G64" s="31"/>
       <c r="H64" s="90">
         <v>51</v>
       </c>
@@ -4691,12 +4546,12 @@
       <c r="U64" s="33"/>
     </row>
     <row r="65" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B65" s="194"/>
-      <c r="C65" s="184"/>
-      <c r="D65" s="184"/>
-      <c r="E65" s="184"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="143"/>
+      <c r="B65" s="210"/>
+      <c r="C65" s="253"/>
+      <c r="D65" s="253"/>
+      <c r="E65" s="253"/>
+      <c r="F65" s="254"/>
+      <c r="G65" s="31"/>
       <c r="H65" s="90">
         <v>52</v>
       </c>
@@ -4717,12 +4572,12 @@
       <c r="U65" s="33"/>
     </row>
     <row r="66" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B66" s="194"/>
-      <c r="C66" s="184"/>
-      <c r="D66" s="184"/>
-      <c r="E66" s="184"/>
-      <c r="F66" s="111"/>
-      <c r="G66" s="143"/>
+      <c r="B66" s="210"/>
+      <c r="C66" s="253"/>
+      <c r="D66" s="253"/>
+      <c r="E66" s="253"/>
+      <c r="F66" s="254"/>
+      <c r="G66" s="31"/>
       <c r="H66" s="90">
         <v>53</v>
       </c>
@@ -4743,12 +4598,12 @@
       <c r="U66" s="33"/>
     </row>
     <row r="67" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B67" s="194"/>
-      <c r="C67" s="184"/>
-      <c r="D67" s="184"/>
-      <c r="E67" s="184"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="162"/>
+      <c r="B67" s="210"/>
+      <c r="C67" s="253"/>
+      <c r="D67" s="253"/>
+      <c r="E67" s="253"/>
+      <c r="F67" s="254"/>
+      <c r="G67" s="29"/>
       <c r="H67" s="90">
         <v>54</v>
       </c>
@@ -4769,12 +4624,12 @@
       <c r="U67" s="33"/>
     </row>
     <row r="68" spans="2:30" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B68" s="194"/>
-      <c r="C68" s="112"/>
-      <c r="D68" s="112"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="185"/>
+      <c r="B68" s="210"/>
+      <c r="C68" s="255"/>
+      <c r="D68" s="255"/>
+      <c r="E68" s="255"/>
+      <c r="F68" s="256"/>
+      <c r="G68" s="238"/>
       <c r="H68" s="90">
         <v>55</v>
       </c>
@@ -4795,20 +4650,20 @@
       <c r="U68" s="33"/>
     </row>
     <row r="69" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B69" s="194"/>
-      <c r="C69" s="236" t="s">
+      <c r="B69" s="210"/>
+      <c r="C69" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="236" t="s">
+      <c r="D69" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="237" t="s">
+      <c r="E69" s="154" t="s">
         <v>129</v>
       </c>
-      <c r="F69" s="106" t="s">
+      <c r="F69" s="248" t="s">
         <v>136</v>
       </c>
-      <c r="G69" s="185"/>
+      <c r="G69" s="238"/>
       <c r="H69" s="90">
         <v>56</v>
       </c>
@@ -4829,14 +4684,13 @@
       <c r="U69" s="33"/>
     </row>
     <row r="70" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B70" s="194"/>
-      <c r="C70" s="143">
+      <c r="B70" s="210"/>
+      <c r="C70" s="31">
         <v>1</v>
       </c>
-      <c r="D70" s="143"/>
-      <c r="E70" s="238"/>
-      <c r="F70" s="107"/>
-      <c r="G70" s="144"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="155"/>
+      <c r="F70" s="249"/>
       <c r="H70" s="90">
         <v>57</v>
       </c>
@@ -4857,14 +4711,13 @@
       <c r="U70" s="33"/>
     </row>
     <row r="71" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B71" s="194"/>
-      <c r="C71" s="186">
+      <c r="B71" s="210"/>
+      <c r="C71" s="79">
         <v>2</v>
       </c>
-      <c r="D71" s="187"/>
-      <c r="E71" s="238"/>
-      <c r="F71" s="107"/>
-      <c r="G71" s="144"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="155"/>
+      <c r="F71" s="249"/>
       <c r="H71" s="90">
         <v>58</v>
       </c>
@@ -4885,14 +4738,13 @@
       <c r="U71" s="33"/>
     </row>
     <row r="72" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B72" s="194"/>
-      <c r="C72" s="186">
+      <c r="B72" s="210"/>
+      <c r="C72" s="79">
         <v>3</v>
       </c>
-      <c r="D72" s="187"/>
-      <c r="E72" s="238"/>
-      <c r="F72" s="107"/>
-      <c r="G72" s="144"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="155"/>
+      <c r="F72" s="249"/>
       <c r="H72" s="90">
         <v>59</v>
       </c>
@@ -4913,14 +4765,13 @@
       <c r="U72" s="33"/>
     </row>
     <row r="73" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B73" s="194"/>
-      <c r="C73" s="186">
+      <c r="B73" s="210"/>
+      <c r="C73" s="79">
         <v>4</v>
       </c>
-      <c r="D73" s="187"/>
-      <c r="E73" s="238"/>
-      <c r="F73" s="107"/>
-      <c r="G73" s="144"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="155"/>
+      <c r="F73" s="249"/>
       <c r="H73" s="90">
         <v>60</v>
       </c>
@@ -4941,14 +4792,13 @@
       <c r="U73" s="33"/>
     </row>
     <row r="74" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B74" s="194"/>
-      <c r="C74" s="186">
+      <c r="B74" s="210"/>
+      <c r="C74" s="79">
         <v>5</v>
       </c>
-      <c r="D74" s="187"/>
-      <c r="E74" s="238"/>
-      <c r="F74" s="107"/>
-      <c r="G74" s="144"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="155"/>
+      <c r="F74" s="249"/>
       <c r="H74" s="90">
         <v>61</v>
       </c>
@@ -4969,14 +4819,13 @@
       <c r="U74" s="33"/>
     </row>
     <row r="75" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B75" s="194"/>
-      <c r="C75" s="186">
+      <c r="B75" s="210"/>
+      <c r="C75" s="79">
         <v>6</v>
       </c>
-      <c r="D75" s="187"/>
-      <c r="E75" s="238"/>
-      <c r="F75" s="107"/>
-      <c r="G75" s="144"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="155"/>
+      <c r="F75" s="249"/>
       <c r="H75" s="90">
         <v>62</v>
       </c>
@@ -4997,14 +4846,13 @@
       <c r="U75" s="33"/>
     </row>
     <row r="76" spans="2:30" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B76" s="194"/>
-      <c r="C76" s="186">
+      <c r="B76" s="210"/>
+      <c r="C76" s="79">
         <v>7</v>
       </c>
-      <c r="D76" s="187"/>
-      <c r="E76" s="238"/>
-      <c r="F76" s="107"/>
-      <c r="G76" s="144"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="155"/>
+      <c r="F76" s="249"/>
       <c r="H76" s="90">
         <v>63</v>
       </c>
@@ -5014,7 +4862,7 @@
       <c r="L76" s="97"/>
       <c r="M76" s="97"/>
       <c r="N76" s="97"/>
-      <c r="O76" s="197" t="s">
+      <c r="O76" s="133" t="s">
         <v>116</v>
       </c>
       <c r="P76" s="97"/>
@@ -5025,14 +4873,14 @@
       <c r="U76" s="100"/>
     </row>
     <row r="77" spans="2:30" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B77" s="194"/>
-      <c r="C77" s="186">
+      <c r="B77" s="210"/>
+      <c r="C77" s="79">
         <v>8</v>
       </c>
-      <c r="D77" s="187"/>
-      <c r="E77" s="238"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="188"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="155"/>
+      <c r="F77" s="249"/>
+      <c r="G77" s="129"/>
       <c r="H77" s="90">
         <v>64</v>
       </c>
@@ -5042,7 +4890,7 @@
       <c r="L77" s="97"/>
       <c r="M77" s="97"/>
       <c r="N77" s="97"/>
-      <c r="O77" s="197" t="s">
+      <c r="O77" s="133" t="s">
         <v>116</v>
       </c>
       <c r="P77" s="97"/>
@@ -5053,14 +4901,14 @@
       <c r="U77" s="100"/>
     </row>
     <row r="78" spans="2:30" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B78" s="194"/>
-      <c r="C78" s="186">
+      <c r="B78" s="210"/>
+      <c r="C78" s="79">
         <v>9</v>
       </c>
-      <c r="D78" s="188"/>
-      <c r="E78" s="239"/>
-      <c r="F78" s="107"/>
-      <c r="G78" s="188"/>
+      <c r="D78" s="129"/>
+      <c r="E78" s="156"/>
+      <c r="F78" s="249"/>
+      <c r="G78" s="129"/>
       <c r="H78" s="90">
         <v>65</v>
       </c>
@@ -5070,7 +4918,7 @@
       <c r="L78" s="97"/>
       <c r="M78" s="97"/>
       <c r="N78" s="97"/>
-      <c r="O78" s="197" t="s">
+      <c r="O78" s="133" t="s">
         <v>116</v>
       </c>
       <c r="P78" s="97"/>
@@ -5081,13 +4929,13 @@
       <c r="U78" s="100"/>
     </row>
     <row r="79" spans="2:30" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B79" s="195"/>
-      <c r="C79" s="191">
+      <c r="B79" s="211"/>
+      <c r="C79" s="130">
         <v>10</v>
       </c>
-      <c r="D79" s="192"/>
-      <c r="E79" s="240"/>
-      <c r="F79" s="108"/>
+      <c r="D79" s="131"/>
+      <c r="E79" s="157"/>
+      <c r="F79" s="250"/>
       <c r="G79" s="101"/>
       <c r="H79" s="90">
         <v>66</v>
@@ -5098,7 +4946,7 @@
       <c r="L79" s="97"/>
       <c r="M79" s="97"/>
       <c r="N79" s="97"/>
-      <c r="O79" s="197" t="s">
+      <c r="O79" s="133" t="s">
         <v>116</v>
       </c>
       <c r="P79" s="97"/>
@@ -6268,6 +6116,72 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D13:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="Z21:AA22"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="F69:F79"/>
+    <mergeCell ref="C59:F68"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H9:U10"/>
+    <mergeCell ref="C2:U2"/>
+    <mergeCell ref="B1:B79"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:R6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="S5:T6"/>
     <mergeCell ref="H11:N11"/>
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="S12:S13"/>
@@ -6284,72 +6198,6 @@
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L12:L13"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:R6"/>
-    <mergeCell ref="H9:U10"/>
-    <mergeCell ref="C2:U2"/>
-    <mergeCell ref="B1:B79"/>
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="Z21:AA22"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="F69:F79"/>
-    <mergeCell ref="C59:F68"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D13:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/py/direction_sheet_new.xlsx
+++ b/py/direction_sheet_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E11D40B-718B-40BE-8675-06C566D8089F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4761ED-2C8D-4862-92E5-C8BC2BABB9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16710" yWindow="4365" windowWidth="12090" windowHeight="11835" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="print" sheetId="1" r:id="rId1"/>
@@ -1332,7 +1332,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1404,9 +1404,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1623,306 +1620,156 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="25" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="25" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="26" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1961,158 +1808,344 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="25" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="25" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="25" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="24" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="26" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2203,8 +2236,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="190500" y="5310187"/>
-          <a:ext cx="7272000" cy="428625"/>
+          <a:off x="1047750" y="5953124"/>
+          <a:ext cx="7272000" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2588,8 +2621,8 @@
   </sheetPr>
   <dimension ref="B1:AF172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:U2"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="20.25"/>
@@ -2620,266 +2653,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="64.5" customHeight="1" thickBot="1">
-      <c r="B1" s="209"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="213"/>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="213"/>
-      <c r="T1" s="213"/>
-      <c r="U1" s="214"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="164"/>
     </row>
     <row r="2" spans="2:32" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B2" s="210"/>
-      <c r="C2" s="206" t="s">
+      <c r="B2" s="160"/>
+      <c r="C2" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="207"/>
-      <c r="T2" s="207"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="159"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="126"/>
     </row>
     <row r="3" spans="2:32" ht="28.5" customHeight="1">
-      <c r="B3" s="210"/>
-      <c r="C3" s="106" t="s">
+      <c r="B3" s="160"/>
+      <c r="C3" s="168" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="158">
+      <c r="D3" s="169">
         <f>input!D18</f>
         <v>0</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="168" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="170">
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="225" t="s">
+      <c r="G3" s="105"/>
+      <c r="H3" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="226" t="s">
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="226"/>
-      <c r="N3" s="226"/>
-      <c r="O3" s="195" t="s">
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="198" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="197" t="s">
+      <c r="P3" s="199" t="s">
         <v>139</v>
       </c>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="191" t="s">
+      <c r="Q3" s="199"/>
+      <c r="R3" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="191" t="s">
+      <c r="S3" s="200" t="s">
         <v>116</v>
       </c>
-      <c r="T3" s="193" t="s">
+      <c r="T3" s="201" t="s">
         <v>80</v>
       </c>
-      <c r="U3" s="199" t="s">
+      <c r="U3" s="202" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:32" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B4" s="210"/>
-      <c r="C4" s="104" t="s">
+      <c r="B4" s="160"/>
+      <c r="C4" s="171" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="147">
+      <c r="D4" s="172">
         <f>input!D17</f>
         <v>0</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="140">
+      <c r="F4" s="173">
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="134" t="s">
+      <c r="G4" s="105"/>
+      <c r="H4" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="109" t="str">
+      <c r="I4" s="188" t="str">
         <f>IF(input!D12="6N01","●","")</f>
         <v/>
       </c>
-      <c r="J4" s="107" t="s">
+      <c r="J4" s="189" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="135" t="s">
+      <c r="K4" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="194" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="111" t="s">
+      <c r="M4" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="N4" s="231" t="s">
+      <c r="N4" s="232" t="s">
         <v>120</v>
       </c>
-      <c r="O4" s="196"/>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="192"/>
-      <c r="S4" s="192"/>
-      <c r="T4" s="194"/>
-      <c r="U4" s="200"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="206"/>
+      <c r="U4" s="207"/>
     </row>
     <row r="5" spans="2:32" ht="28.5" customHeight="1">
-      <c r="B5" s="210"/>
-      <c r="C5" s="184" t="s">
+      <c r="B5" s="160"/>
+      <c r="C5" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="220">
+      <c r="D5" s="175">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="E5" s="220"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="134">
+      <c r="E5" s="175"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="187">
         <v>6061</v>
       </c>
-      <c r="I5" s="109" t="str">
+      <c r="I5" s="188" t="str">
         <f>IF(input!D12="6061","●","")</f>
         <v/>
       </c>
-      <c r="J5" s="107"/>
-      <c r="K5" s="136">
+      <c r="J5" s="189"/>
+      <c r="K5" s="191">
         <f>input!D21</f>
         <v>0</v>
       </c>
-      <c r="L5" s="111">
+      <c r="L5" s="195">
         <f>input!D13</f>
         <v>0</v>
       </c>
-      <c r="M5" s="112">
+      <c r="M5" s="197">
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="232"/>
-      <c r="O5" s="183" t="s">
+      <c r="N5" s="186"/>
+      <c r="O5" s="208" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="201"/>
-      <c r="R5" s="201"/>
-      <c r="S5" s="183" t="s">
+      <c r="P5" s="209"/>
+      <c r="Q5" s="209"/>
+      <c r="R5" s="209"/>
+      <c r="S5" s="208" t="s">
         <v>138</v>
       </c>
-      <c r="T5" s="184"/>
-      <c r="U5" s="187"/>
-      <c r="AC5" s="118"/>
-      <c r="AD5" s="118"/>
-      <c r="AE5" s="118"/>
-      <c r="AF5" s="118"/>
+      <c r="T5" s="174"/>
+      <c r="U5" s="210"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="105"/>
     </row>
     <row r="6" spans="2:32" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="210"/>
-      <c r="C6" s="219"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="134">
+      <c r="B6" s="160"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="187">
         <v>6063</v>
       </c>
-      <c r="I6" s="109" t="str">
+      <c r="I6" s="188" t="str">
         <f>IF(input!D12="6063","●","")</f>
         <v/>
       </c>
-      <c r="J6" s="107" t="s">
+      <c r="J6" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="135" t="s">
+      <c r="K6" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="L6" s="110" t="s">
+      <c r="L6" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="M6" s="113" t="s">
+      <c r="M6" s="196" t="s">
         <v>98</v>
       </c>
       <c r="N6" s="233">
         <f>input!K11</f>
         <v>0</v>
       </c>
-      <c r="O6" s="185"/>
-      <c r="P6" s="202"/>
-      <c r="Q6" s="202"/>
-      <c r="R6" s="202"/>
-      <c r="S6" s="185"/>
-      <c r="T6" s="186"/>
-      <c r="U6" s="188"/>
-      <c r="AB6" s="118"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="118"/>
+      <c r="O6" s="211"/>
+      <c r="P6" s="212"/>
+      <c r="Q6" s="212"/>
+      <c r="R6" s="212"/>
+      <c r="S6" s="211"/>
+      <c r="T6" s="213"/>
+      <c r="U6" s="214"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
     </row>
     <row r="7" spans="2:32" ht="28.5" customHeight="1">
-      <c r="B7" s="210"/>
-      <c r="C7" s="224" t="s">
+      <c r="B7" s="160"/>
+      <c r="C7" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="222">
+      <c r="D7" s="178">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="222"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="132" t="s">
+      <c r="E7" s="178"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="192" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="109" t="str">
+      <c r="I7" s="188" t="str">
         <f>IF(input!D12="6N01A","●","")</f>
         <v/>
       </c>
-      <c r="J7" s="107"/>
-      <c r="K7" s="137">
+      <c r="J7" s="189"/>
+      <c r="K7" s="193">
         <f>input!D31</f>
         <v>0</v>
       </c>
-      <c r="L7" s="113">
+      <c r="L7" s="196">
         <f>input!D10*1</f>
         <v>0</v>
       </c>
-      <c r="M7" s="107">
+      <c r="M7" s="189">
         <f>input!D15</f>
         <v>0</v>
       </c>
@@ -2887,3254 +2920,3293 @@
       <c r="O7" s="215" t="s">
         <v>137</v>
       </c>
-      <c r="P7" s="217"/>
-      <c r="Q7" s="177" t="s">
+      <c r="P7" s="216"/>
+      <c r="Q7" s="219" t="s">
         <v>118</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="R7" s="220" t="s">
         <v>122</v>
       </c>
-      <c r="S7" s="163"/>
-      <c r="T7" s="179" t="s">
+      <c r="S7" s="222" t="s">
         <v>81</v>
       </c>
-      <c r="U7" s="189"/>
+      <c r="T7" s="223"/>
+      <c r="U7" s="224"/>
     </row>
     <row r="8" spans="2:32" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B8" s="210"/>
-      <c r="C8" s="228"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="181" t="s">
+      <c r="B8" s="160"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="229" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="181"/>
-      <c r="K8" s="165" t="str">
+      <c r="J8" s="229"/>
+      <c r="K8" s="230" t="str">
         <f>input!D36&amp;"-"&amp;input!D37</f>
         <v>-</v>
       </c>
-      <c r="L8" s="182" t="s">
+      <c r="L8" s="231" t="s">
         <v>141</v>
       </c>
-      <c r="M8" s="181"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="216"/>
+      <c r="M8" s="229"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="217"/>
       <c r="P8" s="218"/>
-      <c r="Q8" s="178"/>
-      <c r="R8" s="24" t="s">
+      <c r="Q8" s="221"/>
+      <c r="R8" s="220" t="s">
         <v>140</v>
       </c>
-      <c r="S8" s="164"/>
-      <c r="T8" s="180"/>
-      <c r="U8" s="190"/>
+      <c r="S8" s="225"/>
+      <c r="T8" s="226"/>
+      <c r="U8" s="227"/>
     </row>
     <row r="9" spans="2:32" ht="28.5" customHeight="1">
-      <c r="B9" s="210"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="178" t="s">
+      <c r="B9" s="160"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="152" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="178"/>
-      <c r="S9" s="178"/>
-      <c r="T9" s="178"/>
-      <c r="U9" s="203"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="153"/>
     </row>
     <row r="10" spans="2:32" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B10" s="210"/>
-      <c r="C10" s="60"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="204"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="204"/>
-      <c r="P10" s="204"/>
-      <c r="Q10" s="204"/>
-      <c r="R10" s="204"/>
-      <c r="S10" s="204"/>
-      <c r="T10" s="204"/>
-      <c r="U10" s="205"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="59"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="154"/>
+      <c r="U10" s="155"/>
     </row>
     <row r="11" spans="2:32" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="210"/>
-      <c r="C11" s="184" t="s">
+      <c r="B11" s="160"/>
+      <c r="C11" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="220" t="str">
+      <c r="D11" s="175" t="str">
         <f>IF(D13=0,"","DR"&amp;MID(D13,2,4))</f>
         <v/>
       </c>
-      <c r="E11" s="220"/>
-      <c r="F11" s="221"/>
-      <c r="H11" s="166" t="s">
+      <c r="E11" s="175"/>
+      <c r="F11" s="176"/>
+      <c r="H11" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="167" t="s">
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="167"/>
-      <c r="R11" s="167"/>
-      <c r="S11" s="167"/>
-      <c r="T11" s="167"/>
-      <c r="U11" s="172"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="166"/>
+      <c r="R11" s="166"/>
+      <c r="S11" s="166"/>
+      <c r="T11" s="166"/>
+      <c r="U11" s="167"/>
     </row>
     <row r="12" spans="2:32" ht="27.75" customHeight="1">
-      <c r="B12" s="210"/>
-      <c r="C12" s="219"/>
-      <c r="D12" s="222"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="223"/>
-      <c r="H12" s="175" t="s">
+      <c r="B12" s="160"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="179"/>
+      <c r="H12" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="173" t="s">
+      <c r="I12" s="235" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="173" t="s">
+      <c r="J12" s="235" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="173" t="s">
+      <c r="K12" s="235" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="173" t="s">
+      <c r="L12" s="235" t="s">
         <v>127</v>
       </c>
-      <c r="M12" s="173" t="s">
+      <c r="M12" s="235" t="s">
         <v>134</v>
       </c>
-      <c r="N12" s="173" t="s">
+      <c r="N12" s="235" t="s">
         <v>126</v>
       </c>
-      <c r="O12" s="173" t="s">
+      <c r="O12" s="235" t="s">
         <v>114</v>
       </c>
-      <c r="P12" s="173" t="s">
+      <c r="P12" s="235" t="s">
         <v>115</v>
       </c>
-      <c r="Q12" s="168">
+      <c r="Q12" s="236">
         <v>302</v>
       </c>
-      <c r="R12" s="168">
+      <c r="R12" s="236">
         <v>304</v>
       </c>
-      <c r="S12" s="168">
+      <c r="S12" s="236">
         <v>314</v>
       </c>
-      <c r="T12" s="168">
+      <c r="T12" s="236">
         <v>316</v>
       </c>
-      <c r="U12" s="170">
+      <c r="U12" s="237">
         <v>318</v>
       </c>
     </row>
     <row r="13" spans="2:32" ht="14.25" customHeight="1">
-      <c r="B13" s="210"/>
-      <c r="C13" s="224" t="s">
+      <c r="B13" s="160"/>
+      <c r="C13" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="222">
+      <c r="D13" s="178">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="E13" s="222"/>
-      <c r="F13" s="223"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="174"/>
-      <c r="M13" s="174"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="174"/>
-      <c r="P13" s="174"/>
-      <c r="Q13" s="169"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="169"/>
-      <c r="T13" s="169"/>
-      <c r="U13" s="171"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="179"/>
+      <c r="H13" s="238"/>
+      <c r="I13" s="239"/>
+      <c r="J13" s="239"/>
+      <c r="K13" s="239"/>
+      <c r="L13" s="239"/>
+      <c r="M13" s="239"/>
+      <c r="N13" s="239"/>
+      <c r="O13" s="239"/>
+      <c r="P13" s="239"/>
+      <c r="Q13" s="240"/>
+      <c r="R13" s="240"/>
+      <c r="S13" s="240"/>
+      <c r="T13" s="240"/>
+      <c r="U13" s="241"/>
     </row>
     <row r="14" spans="2:32" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B14" s="210"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="229"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="230"/>
-      <c r="H14" s="90">
+      <c r="B14" s="160"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="183"/>
+      <c r="H14" s="89">
         <v>1</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27" t="s">
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="114"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="104"/>
     </row>
     <row r="15" spans="2:32" ht="37.5" customHeight="1" thickBot="1">
-      <c r="B15" s="210"/>
-      <c r="C15" s="115" t="s">
+      <c r="B15" s="160"/>
+      <c r="C15" s="242" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="242" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="262" t="s">
+      <c r="E15" s="243" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="262"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="90">
+      <c r="F15" s="243"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="89">
         <v>2</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27" t="s">
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="33"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="32"/>
     </row>
     <row r="16" spans="2:32" ht="35.1" customHeight="1">
-      <c r="B16" s="210"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="260"/>
-      <c r="F16" s="261"/>
-      <c r="H16" s="90">
+      <c r="B16" s="160"/>
+      <c r="C16" s="244"/>
+      <c r="D16" s="245"/>
+      <c r="E16" s="246"/>
+      <c r="F16" s="247"/>
+      <c r="H16" s="89">
         <v>3</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27" t="s">
+      <c r="I16" s="26"/>
+      <c r="J16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27" t="s">
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="P16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="33"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="32"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
     </row>
     <row r="17" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B17" s="210"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="258"/>
-      <c r="F17" s="259"/>
-      <c r="H17" s="90">
+      <c r="B17" s="160"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="233"/>
+      <c r="H17" s="89">
         <v>4</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27" t="s">
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="33"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="32"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
     </row>
     <row r="18" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B18" s="210"/>
-      <c r="C18" s="116"/>
-      <c r="E18" s="241"/>
-      <c r="F18" s="242"/>
-      <c r="H18" s="90">
+      <c r="B18" s="160"/>
+      <c r="C18" s="250"/>
+      <c r="D18" s="220"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="252"/>
+      <c r="H18" s="89">
         <v>5</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27" t="s">
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="33"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="32"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
     </row>
     <row r="19" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B19" s="210"/>
-      <c r="C19" s="106"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="242"/>
-      <c r="H19" s="90">
+      <c r="B19" s="160"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="220"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="252"/>
+      <c r="H19" s="89">
         <v>6</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="27" t="s">
+      <c r="I19" s="26"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="33"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="236"/>
-      <c r="Y19" s="235"/>
-      <c r="Z19" s="235"/>
-      <c r="AA19" s="235"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="32"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="134"/>
+      <c r="Z19" s="134"/>
+      <c r="AA19" s="134"/>
     </row>
     <row r="20" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B20" s="210"/>
-      <c r="C20" s="116"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="242"/>
-      <c r="H20" s="90">
+      <c r="B20" s="160"/>
+      <c r="C20" s="250"/>
+      <c r="D20" s="220"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="252"/>
+      <c r="H20" s="89">
         <v>7</v>
       </c>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="27" t="s">
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="33"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="237"/>
-      <c r="AA20" s="235"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="32"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="136"/>
+      <c r="AA20" s="134"/>
     </row>
     <row r="21" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B21" s="210"/>
-      <c r="C21" s="106"/>
-      <c r="E21" s="241"/>
-      <c r="F21" s="242"/>
-      <c r="H21" s="90">
+      <c r="B21" s="160"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="220"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="252"/>
+      <c r="H21" s="89">
         <v>8</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="27" t="s">
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="35"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="234"/>
-      <c r="AA21" s="235"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="34"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="133"/>
+      <c r="AA21" s="134"/>
     </row>
     <row r="22" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B22" s="210"/>
-      <c r="C22" s="116"/>
-      <c r="E22" s="241"/>
-      <c r="F22" s="242"/>
-      <c r="H22" s="90">
+      <c r="B22" s="160"/>
+      <c r="C22" s="250"/>
+      <c r="D22" s="220"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="252"/>
+      <c r="H22" s="89">
         <v>9</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="27" t="s">
+      <c r="I22" s="26"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="35"/>
-      <c r="X22" s="31"/>
-      <c r="Z22" s="235"/>
-      <c r="AA22" s="235"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="34"/>
+      <c r="X22" s="30"/>
+      <c r="Z22" s="134"/>
+      <c r="AA22" s="134"/>
     </row>
     <row r="23" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B23" s="210"/>
-      <c r="C23" s="106"/>
-      <c r="E23" s="241"/>
-      <c r="F23" s="242"/>
-      <c r="H23" s="90">
+      <c r="B23" s="160"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="220"/>
+      <c r="E23" s="251"/>
+      <c r="F23" s="252"/>
+      <c r="H23" s="89">
         <v>10</v>
       </c>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="27" t="s">
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="35"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="34"/>
     </row>
     <row r="24" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B24" s="210"/>
-      <c r="C24" s="116"/>
-      <c r="E24" s="241"/>
-      <c r="F24" s="242"/>
-      <c r="H24" s="90">
+      <c r="B24" s="160"/>
+      <c r="C24" s="250"/>
+      <c r="D24" s="220"/>
+      <c r="E24" s="251"/>
+      <c r="F24" s="252"/>
+      <c r="H24" s="89">
         <v>11</v>
       </c>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="27" t="s">
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
     </row>
     <row r="25" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B25" s="210"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="266"/>
-      <c r="F25" s="267"/>
-      <c r="H25" s="90">
+      <c r="B25" s="160"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="253"/>
+      <c r="E25" s="254"/>
+      <c r="F25" s="255"/>
+      <c r="H25" s="89">
         <v>12</v>
       </c>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="27" t="s">
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
     </row>
     <row r="26" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B26" s="210"/>
-      <c r="C26" s="116"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="242"/>
-      <c r="H26" s="90">
+      <c r="B26" s="160"/>
+      <c r="C26" s="250"/>
+      <c r="D26" s="220"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="252"/>
+      <c r="H26" s="89">
         <v>13</v>
       </c>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="27" t="s">
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
     </row>
     <row r="27" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B27" s="210"/>
-      <c r="C27" s="106"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="242"/>
-      <c r="H27" s="90">
+      <c r="B27" s="160"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="220"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="252"/>
+      <c r="H27" s="89">
         <v>14</v>
       </c>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="27" t="s">
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
     </row>
     <row r="28" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B28" s="210"/>
-      <c r="C28" s="116"/>
-      <c r="E28" s="241"/>
-      <c r="F28" s="242"/>
-      <c r="H28" s="90">
+      <c r="B28" s="160"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="220"/>
+      <c r="E28" s="251"/>
+      <c r="F28" s="252"/>
+      <c r="H28" s="89">
         <v>15</v>
       </c>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="27" t="s">
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
     </row>
     <row r="29" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B29" s="210"/>
-      <c r="C29" s="106"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="242"/>
-      <c r="H29" s="90">
+      <c r="B29" s="160"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="220"/>
+      <c r="E29" s="251"/>
+      <c r="F29" s="252"/>
+      <c r="H29" s="89">
         <v>16</v>
       </c>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="27" t="s">
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
     </row>
     <row r="30" spans="2:27" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B30" s="210"/>
-      <c r="C30" s="161"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="263"/>
-      <c r="F30" s="264"/>
-      <c r="H30" s="90">
+      <c r="B30" s="160"/>
+      <c r="C30" s="256"/>
+      <c r="D30" s="257"/>
+      <c r="E30" s="258"/>
+      <c r="F30" s="259"/>
+      <c r="H30" s="89">
         <v>17</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="27" t="s">
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
     </row>
     <row r="31" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B31" s="210"/>
-      <c r="C31" s="162" t="s">
+      <c r="B31" s="160"/>
+      <c r="C31" s="260" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="142"/>
-      <c r="H31" s="90">
+      <c r="D31" s="261"/>
+      <c r="E31" s="261"/>
+      <c r="F31" s="262"/>
+      <c r="H31" s="89">
         <v>18</v>
       </c>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="27" t="s">
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
     </row>
     <row r="32" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B32" s="210"/>
-      <c r="C32" s="224" t="s">
+      <c r="B32" s="160"/>
+      <c r="C32" s="180" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="224"/>
-      <c r="E32" s="224" t="s">
+      <c r="D32" s="180"/>
+      <c r="E32" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="243"/>
-      <c r="H32" s="90">
+      <c r="F32" s="263"/>
+      <c r="H32" s="89">
         <v>19</v>
       </c>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="27" t="s">
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
     </row>
     <row r="33" spans="2:23" ht="35.1" customHeight="1">
-      <c r="B33" s="210"/>
-      <c r="C33" s="119" t="s">
+      <c r="B33" s="160"/>
+      <c r="C33" s="264" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="120" t="str">
+      <c r="D33" s="265" t="str">
         <f>input!I12</f>
         <v/>
       </c>
-      <c r="E33" s="119" t="s">
+      <c r="E33" s="264" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="143" t="s">
+      <c r="F33" s="266" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="90">
+      <c r="H33" s="89">
         <v>20</v>
       </c>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="27" t="s">
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
     </row>
     <row r="34" spans="2:23" ht="35.1" customHeight="1">
-      <c r="B34" s="210"/>
-      <c r="C34" s="119" t="s">
+      <c r="B34" s="160"/>
+      <c r="C34" s="264" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="121">
+      <c r="D34" s="267">
         <f>input!D20</f>
         <v>0</v>
       </c>
-      <c r="E34" s="119" t="s">
+      <c r="E34" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="102"/>
-      <c r="H34" s="90">
+      <c r="F34" s="268"/>
+      <c r="H34" s="89">
         <v>21</v>
       </c>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="27" t="s">
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="96"/>
-      <c r="S34" s="96"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
     </row>
     <row r="35" spans="2:23" ht="35.1" customHeight="1">
-      <c r="B35" s="210"/>
-      <c r="C35" s="119" t="s">
+      <c r="B35" s="160"/>
+      <c r="C35" s="264" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="122">
+      <c r="D35" s="269">
         <f>input!D24</f>
         <v>0</v>
       </c>
-      <c r="E35" s="119" t="s">
+      <c r="E35" s="264" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="102"/>
-      <c r="H35" s="90">
+      <c r="F35" s="268"/>
+      <c r="H35" s="89">
         <v>22</v>
       </c>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="27" t="s">
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="96"/>
-      <c r="S35" s="96"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="33"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="32"/>
     </row>
     <row r="36" spans="2:23" ht="35.1" customHeight="1">
-      <c r="B36" s="210"/>
-      <c r="C36" s="119" t="s">
+      <c r="B36" s="160"/>
+      <c r="C36" s="264" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="123">
+      <c r="D36" s="270">
         <f>input!D23</f>
         <v>0</v>
       </c>
-      <c r="E36" s="119" t="s">
+      <c r="E36" s="264" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="102"/>
-      <c r="H36" s="90">
+      <c r="F36" s="268"/>
+      <c r="H36" s="89">
         <v>23</v>
       </c>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="27" t="s">
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="96"/>
-      <c r="S36" s="96"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="33"/>
-    </row>
-    <row r="37" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B37" s="210"/>
-      <c r="C37" s="119" t="s">
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="32"/>
+    </row>
+    <row r="37" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B37" s="160"/>
+      <c r="C37" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="124" t="str">
+      <c r="D37" s="271" t="str">
         <f>input!I13</f>
         <v>°-℃/m</v>
       </c>
-      <c r="E37" s="119" t="s">
+      <c r="E37" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="144"/>
-      <c r="H37" s="90">
+      <c r="F37" s="272"/>
+      <c r="H37" s="89">
         <v>24</v>
       </c>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="27" t="s">
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="96"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="33"/>
-    </row>
-    <row r="38" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B38" s="210"/>
-      <c r="C38" s="119" t="s">
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="32"/>
+    </row>
+    <row r="38" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B38" s="160"/>
+      <c r="C38" s="264" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="125">
+      <c r="D38" s="273">
         <f>input!D22</f>
         <v>0</v>
       </c>
-      <c r="E38" s="119" t="s">
+      <c r="E38" s="264" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="102"/>
-      <c r="H38" s="90">
+      <c r="F38" s="268"/>
+      <c r="H38" s="89">
         <v>25</v>
       </c>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="27" t="s">
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="96"/>
-      <c r="S38" s="96"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="33"/>
-    </row>
-    <row r="39" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B39" s="210"/>
-      <c r="C39" s="119" t="s">
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="95"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="32"/>
+    </row>
+    <row r="39" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B39" s="160"/>
+      <c r="C39" s="264" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="124">
+      <c r="D39" s="271">
         <f>input!D27</f>
         <v>0</v>
       </c>
-      <c r="E39" s="119" t="s">
+      <c r="E39" s="264" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="102"/>
-      <c r="H39" s="90">
+      <c r="F39" s="268"/>
+      <c r="H39" s="89">
         <v>26</v>
       </c>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="27" t="s">
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="33"/>
-    </row>
-    <row r="40" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B40" s="210"/>
-      <c r="C40" s="119" t="s">
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="95"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="32"/>
+    </row>
+    <row r="40" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B40" s="160"/>
+      <c r="C40" s="264" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="126">
+      <c r="D40" s="274">
         <f>input!D29</f>
         <v>0</v>
       </c>
-      <c r="E40" s="119" t="s">
+      <c r="E40" s="264" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="102"/>
-      <c r="H40" s="90">
+      <c r="F40" s="268"/>
+      <c r="H40" s="89">
         <v>27</v>
       </c>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="27" t="s">
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="96"/>
-      <c r="S40" s="96"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="33"/>
-    </row>
-    <row r="41" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B41" s="210"/>
-      <c r="C41" s="119" t="s">
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="95"/>
+      <c r="S40" s="95"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="32"/>
+    </row>
+    <row r="41" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B41" s="160"/>
+      <c r="C41" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="127">
+      <c r="D41" s="275">
         <f>input!D28</f>
         <v>0</v>
       </c>
-      <c r="E41" s="119" t="s">
+      <c r="E41" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="143" t="s">
+      <c r="F41" s="266" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="90">
+      <c r="H41" s="89">
         <v>28</v>
       </c>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="27" t="s">
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="33"/>
-    </row>
-    <row r="42" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B42" s="210"/>
-      <c r="C42" s="119" t="s">
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="32"/>
+    </row>
+    <row r="42" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B42" s="160"/>
+      <c r="C42" s="264" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="106" t="str">
+      <c r="D42" s="168" t="str">
         <f>IF(input!D30&lt;&gt;"",input!D30,"Air")</f>
         <v>Air</v>
       </c>
-      <c r="E42" s="119" t="s">
+      <c r="E42" s="264" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="105" t="s">
+      <c r="F42" s="276" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="90">
+      <c r="H42" s="89">
         <v>29</v>
       </c>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="27" t="s">
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
-      <c r="S42" s="96"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="33"/>
-    </row>
-    <row r="43" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B43" s="210"/>
-      <c r="C43" s="145" t="s">
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="32"/>
+    </row>
+    <row r="43" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B43" s="160"/>
+      <c r="C43" s="277" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="104">
+      <c r="D43" s="171">
         <f>input!I14</f>
         <v>50</v>
       </c>
-      <c r="E43" s="145" t="s">
+      <c r="E43" s="277" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="103">
+      <c r="F43" s="278">
         <f>input!D33</f>
         <v>0</v>
       </c>
-      <c r="H43" s="90">
+      <c r="H43" s="89">
         <v>30</v>
       </c>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="27" t="s">
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="96"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="33"/>
-    </row>
-    <row r="44" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B44" s="210"/>
-      <c r="C44" s="265" t="s">
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="32"/>
+    </row>
+    <row r="44" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B44" s="160"/>
+      <c r="C44" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="265"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="142"/>
-      <c r="H44" s="90">
+      <c r="D44" s="128"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="113"/>
+      <c r="H44" s="89">
         <v>31</v>
       </c>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="27" t="s">
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
-      <c r="S44" s="96"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="33"/>
-    </row>
-    <row r="45" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B45" s="210"/>
-      <c r="C45" s="106" t="s">
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="32"/>
+    </row>
+    <row r="45" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B45" s="160"/>
+      <c r="C45" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="128" t="s">
+      <c r="D45" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="128" t="s">
+      <c r="E45" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="28"/>
-      <c r="H45" s="90">
+      <c r="F45" s="27"/>
+      <c r="H45" s="89">
         <v>32</v>
       </c>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="27" t="s">
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="33"/>
-    </row>
-    <row r="46" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B46" s="210"/>
-      <c r="C46" s="106" t="s">
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="32"/>
+    </row>
+    <row r="46" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B46" s="160"/>
+      <c r="C46" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="28"/>
-      <c r="H46" s="90">
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="27"/>
+      <c r="H46" s="89">
         <v>33</v>
       </c>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="27" t="s">
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="96"/>
-      <c r="S46" s="96"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="33"/>
-    </row>
-    <row r="47" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B47" s="210"/>
-      <c r="C47" s="104" t="s">
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="95"/>
+      <c r="S46" s="95"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="32"/>
+    </row>
+    <row r="47" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B47" s="160"/>
+      <c r="C47" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="140"/>
-      <c r="H47" s="90">
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="112"/>
+      <c r="H47" s="89">
         <v>34</v>
       </c>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="27" t="s">
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="96"/>
-      <c r="S47" s="96"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="33"/>
-    </row>
-    <row r="48" spans="2:23" s="39" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B48" s="210"/>
-      <c r="C48" s="162" t="s">
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="32"/>
+    </row>
+    <row r="48" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B48" s="160"/>
+      <c r="C48" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="148"/>
-      <c r="H48" s="90">
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="116"/>
+      <c r="H48" s="89">
         <v>35</v>
       </c>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="27" t="s">
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95"/>
+      <c r="N48" s="95"/>
+      <c r="O48" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P48" s="96"/>
-      <c r="Q48" s="96"/>
-      <c r="R48" s="96"/>
-      <c r="S48" s="96"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="33"/>
+      <c r="P48" s="95"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="95"/>
+      <c r="S48" s="95"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="32"/>
     </row>
     <row r="49" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B49" s="210"/>
-      <c r="C49" s="257" t="s">
+      <c r="B49" s="160"/>
+      <c r="C49" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="246" t="s">
+      <c r="D49" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="246"/>
-      <c r="F49" s="247"/>
-      <c r="H49" s="90">
+      <c r="E49" s="130"/>
+      <c r="F49" s="131"/>
+      <c r="H49" s="89">
         <v>36</v>
       </c>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="27" t="s">
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="95"/>
+      <c r="M49" s="95"/>
+      <c r="N49" s="95"/>
+      <c r="O49" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P49" s="96"/>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="96"/>
-      <c r="S49" s="96"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="33"/>
+      <c r="P49" s="95"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="95"/>
+      <c r="S49" s="95"/>
+      <c r="T49" s="31"/>
+      <c r="U49" s="32"/>
     </row>
     <row r="50" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B50" s="210"/>
-      <c r="C50" s="257"/>
-      <c r="D50" s="106" t="s">
+      <c r="B50" s="160"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="106" t="s">
+      <c r="E50" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="150" t="s">
+      <c r="F50" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="90">
+      <c r="H50" s="89">
         <v>37</v>
       </c>
-      <c r="I50" s="96"/>
-      <c r="J50" s="96"/>
-      <c r="K50" s="96"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="27" t="s">
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="95"/>
+      <c r="M50" s="95"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P50" s="96"/>
-      <c r="Q50" s="96"/>
-      <c r="R50" s="96"/>
-      <c r="S50" s="96"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="33"/>
+      <c r="P50" s="95"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="95"/>
+      <c r="S50" s="95"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="32"/>
     </row>
     <row r="51" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B51" s="210"/>
-      <c r="C51" s="106" t="s">
+      <c r="B51" s="160"/>
+      <c r="C51" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="139"/>
-      <c r="H51" s="90">
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="111"/>
+      <c r="H51" s="89">
         <v>38</v>
       </c>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="27" t="s">
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="96"/>
-      <c r="S51" s="96"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="33"/>
-      <c r="Y51" s="53"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="95"/>
+      <c r="S51" s="95"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="32"/>
+      <c r="Y51" s="52"/>
     </row>
     <row r="52" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B52" s="210"/>
-      <c r="C52" s="106" t="s">
+      <c r="B52" s="160"/>
+      <c r="C52" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="139"/>
-      <c r="H52" s="90">
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="111"/>
+      <c r="H52" s="89">
         <v>39</v>
       </c>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="27" t="s">
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="95"/>
+      <c r="M52" s="95"/>
+      <c r="N52" s="95"/>
+      <c r="O52" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P52" s="96"/>
-      <c r="Q52" s="96"/>
-      <c r="R52" s="96"/>
-      <c r="S52" s="96"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="33"/>
+      <c r="P52" s="95"/>
+      <c r="Q52" s="95"/>
+      <c r="R52" s="95"/>
+      <c r="S52" s="95"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="32"/>
     </row>
     <row r="53" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B53" s="210"/>
-      <c r="C53" s="257" t="s">
+      <c r="B53" s="160"/>
+      <c r="C53" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="246" t="s">
+      <c r="D53" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="246"/>
-      <c r="F53" s="247"/>
-      <c r="H53" s="90">
+      <c r="E53" s="130"/>
+      <c r="F53" s="131"/>
+      <c r="H53" s="89">
         <v>40</v>
       </c>
-      <c r="I53" s="96"/>
-      <c r="J53" s="96"/>
-      <c r="K53" s="96"/>
-      <c r="L53" s="96"/>
-      <c r="M53" s="96"/>
-      <c r="N53" s="96"/>
-      <c r="O53" s="27" t="s">
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="95"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="95"/>
+      <c r="N53" s="95"/>
+      <c r="O53" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P53" s="96"/>
-      <c r="Q53" s="96"/>
-      <c r="R53" s="96"/>
-      <c r="S53" s="96"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="33"/>
+      <c r="P53" s="95"/>
+      <c r="Q53" s="95"/>
+      <c r="R53" s="95"/>
+      <c r="S53" s="95"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="32"/>
     </row>
     <row r="54" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B54" s="210"/>
-      <c r="C54" s="257"/>
-      <c r="D54" s="106" t="s">
+      <c r="B54" s="160"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="106" t="s">
+      <c r="E54" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="F54" s="149" t="s">
+      <c r="F54" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="H54" s="90">
+      <c r="H54" s="89">
         <v>41</v>
       </c>
-      <c r="I54" s="96"/>
-      <c r="J54" s="96"/>
-      <c r="K54" s="96"/>
-      <c r="L54" s="96"/>
-      <c r="M54" s="96"/>
-      <c r="N54" s="96"/>
-      <c r="O54" s="27" t="s">
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="95"/>
+      <c r="M54" s="95"/>
+      <c r="N54" s="95"/>
+      <c r="O54" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P54" s="96"/>
-      <c r="Q54" s="96"/>
-      <c r="R54" s="96"/>
-      <c r="S54" s="96"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="33"/>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="95"/>
+      <c r="R54" s="95"/>
+      <c r="S54" s="95"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="32"/>
     </row>
     <row r="55" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B55" s="210"/>
-      <c r="C55" s="106" t="s">
+      <c r="B55" s="160"/>
+      <c r="C55" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="118"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="151"/>
-      <c r="H55" s="90">
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="119"/>
+      <c r="H55" s="89">
         <v>42</v>
       </c>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="96"/>
-      <c r="N55" s="96"/>
-      <c r="O55" s="27" t="s">
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="95"/>
+      <c r="M55" s="95"/>
+      <c r="N55" s="95"/>
+      <c r="O55" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P55" s="96"/>
-      <c r="Q55" s="96"/>
-      <c r="R55" s="96"/>
-      <c r="S55" s="96"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="33"/>
+      <c r="P55" s="95"/>
+      <c r="Q55" s="95"/>
+      <c r="R55" s="95"/>
+      <c r="S55" s="95"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="32"/>
     </row>
     <row r="56" spans="2:25" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B56" s="210"/>
-      <c r="C56" s="104" t="s">
+      <c r="B56" s="160"/>
+      <c r="C56" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="147"/>
-      <c r="E56" s="147"/>
-      <c r="F56" s="152"/>
-      <c r="H56" s="90">
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="120"/>
+      <c r="H56" s="89">
         <v>43</v>
       </c>
-      <c r="I56" s="96"/>
-      <c r="J56" s="96"/>
-      <c r="K56" s="96"/>
-      <c r="L56" s="96"/>
-      <c r="M56" s="96"/>
-      <c r="N56" s="96"/>
-      <c r="O56" s="27" t="s">
+      <c r="I56" s="95"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="95"/>
+      <c r="L56" s="95"/>
+      <c r="M56" s="95"/>
+      <c r="N56" s="95"/>
+      <c r="O56" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P56" s="96"/>
-      <c r="Q56" s="96"/>
-      <c r="R56" s="96"/>
-      <c r="S56" s="96"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="33"/>
+      <c r="P56" s="95"/>
+      <c r="Q56" s="95"/>
+      <c r="R56" s="95"/>
+      <c r="S56" s="95"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="32"/>
     </row>
     <row r="57" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B57" s="210"/>
-      <c r="C57" s="184" t="s">
+      <c r="B57" s="160"/>
+      <c r="C57" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="D57" s="184"/>
-      <c r="E57" s="244"/>
-      <c r="F57" s="245"/>
-      <c r="H57" s="90">
+      <c r="D57" s="132"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="142"/>
+      <c r="H57" s="89">
         <v>44</v>
       </c>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="27" t="s">
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="95"/>
+      <c r="N57" s="95"/>
+      <c r="O57" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P57" s="96"/>
-      <c r="Q57" s="96"/>
-      <c r="R57" s="96"/>
-      <c r="S57" s="96"/>
-      <c r="T57" s="32"/>
-      <c r="U57" s="33"/>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="95"/>
+      <c r="R57" s="95"/>
+      <c r="S57" s="95"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="32"/>
     </row>
     <row r="58" spans="2:25" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="210"/>
-      <c r="C58" s="186" t="s">
+      <c r="B58" s="160"/>
+      <c r="C58" s="138" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="186"/>
-      <c r="E58" s="239"/>
-      <c r="F58" s="240"/>
-      <c r="H58" s="90">
+      <c r="D58" s="138"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="140"/>
+      <c r="H58" s="89">
         <v>45</v>
       </c>
-      <c r="I58" s="96"/>
-      <c r="J58" s="96"/>
-      <c r="K58" s="96"/>
-      <c r="L58" s="96"/>
-      <c r="M58" s="96"/>
-      <c r="N58" s="96"/>
-      <c r="O58" s="27" t="s">
+      <c r="I58" s="95"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="95"/>
+      <c r="L58" s="95"/>
+      <c r="M58" s="95"/>
+      <c r="N58" s="95"/>
+      <c r="O58" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P58" s="96"/>
-      <c r="Q58" s="96"/>
-      <c r="R58" s="96"/>
-      <c r="S58" s="96"/>
-      <c r="T58" s="32"/>
-      <c r="U58" s="33"/>
+      <c r="P58" s="95"/>
+      <c r="Q58" s="95"/>
+      <c r="R58" s="95"/>
+      <c r="S58" s="95"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="32"/>
     </row>
     <row r="59" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B59" s="210"/>
-      <c r="C59" s="251" t="s">
+      <c r="B59" s="160"/>
+      <c r="C59" s="146" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="251"/>
-      <c r="E59" s="251"/>
-      <c r="F59" s="252"/>
-      <c r="H59" s="90">
+      <c r="D59" s="146"/>
+      <c r="E59" s="146"/>
+      <c r="F59" s="147"/>
+      <c r="H59" s="89">
         <v>46</v>
       </c>
-      <c r="I59" s="96"/>
-      <c r="J59" s="96"/>
-      <c r="K59" s="96"/>
-      <c r="L59" s="96"/>
-      <c r="M59" s="96"/>
-      <c r="N59" s="96"/>
-      <c r="O59" s="27" t="s">
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="95"/>
+      <c r="N59" s="95"/>
+      <c r="O59" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P59" s="96"/>
-      <c r="Q59" s="96"/>
-      <c r="R59" s="96"/>
-      <c r="S59" s="96"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="33"/>
+      <c r="P59" s="95"/>
+      <c r="Q59" s="95"/>
+      <c r="R59" s="95"/>
+      <c r="S59" s="95"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="32"/>
     </row>
     <row r="60" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B60" s="210"/>
-      <c r="C60" s="253"/>
-      <c r="D60" s="253"/>
-      <c r="E60" s="253"/>
-      <c r="F60" s="254"/>
-      <c r="H60" s="90">
+      <c r="B60" s="160"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="149"/>
+      <c r="H60" s="89">
         <v>47</v>
       </c>
-      <c r="I60" s="96"/>
-      <c r="J60" s="96"/>
-      <c r="K60" s="96"/>
-      <c r="L60" s="96"/>
-      <c r="M60" s="96"/>
-      <c r="N60" s="96"/>
-      <c r="O60" s="27" t="s">
+      <c r="I60" s="95"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="95"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="95"/>
+      <c r="N60" s="95"/>
+      <c r="O60" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P60" s="96"/>
-      <c r="Q60" s="96"/>
-      <c r="R60" s="96"/>
-      <c r="S60" s="96"/>
-      <c r="T60" s="32"/>
-      <c r="U60" s="33"/>
+      <c r="P60" s="95"/>
+      <c r="Q60" s="95"/>
+      <c r="R60" s="95"/>
+      <c r="S60" s="95"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="32"/>
     </row>
     <row r="61" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B61" s="210"/>
-      <c r="C61" s="253"/>
-      <c r="D61" s="253"/>
-      <c r="E61" s="253"/>
-      <c r="F61" s="254"/>
-      <c r="H61" s="90">
+      <c r="B61" s="160"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="149"/>
+      <c r="H61" s="89">
         <v>48</v>
       </c>
-      <c r="I61" s="96"/>
-      <c r="J61" s="96"/>
-      <c r="K61" s="96"/>
-      <c r="L61" s="96"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="96"/>
-      <c r="O61" s="27" t="s">
+      <c r="I61" s="95"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="95"/>
+      <c r="L61" s="95"/>
+      <c r="M61" s="95"/>
+      <c r="N61" s="95"/>
+      <c r="O61" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P61" s="96"/>
-      <c r="Q61" s="96"/>
-      <c r="R61" s="96"/>
-      <c r="S61" s="96"/>
-      <c r="T61" s="32"/>
-      <c r="U61" s="33"/>
+      <c r="P61" s="95"/>
+      <c r="Q61" s="95"/>
+      <c r="R61" s="95"/>
+      <c r="S61" s="95"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="32"/>
     </row>
     <row r="62" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B62" s="210"/>
-      <c r="C62" s="253"/>
-      <c r="D62" s="253"/>
-      <c r="E62" s="253"/>
-      <c r="F62" s="254"/>
-      <c r="H62" s="90">
+      <c r="B62" s="160"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="149"/>
+      <c r="H62" s="89">
         <v>49</v>
       </c>
-      <c r="I62" s="96"/>
-      <c r="J62" s="96"/>
-      <c r="K62" s="96"/>
-      <c r="L62" s="96"/>
-      <c r="M62" s="96"/>
-      <c r="N62" s="96"/>
-      <c r="O62" s="27" t="s">
+      <c r="I62" s="95"/>
+      <c r="J62" s="95"/>
+      <c r="K62" s="95"/>
+      <c r="L62" s="95"/>
+      <c r="M62" s="95"/>
+      <c r="N62" s="95"/>
+      <c r="O62" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P62" s="96"/>
-      <c r="Q62" s="96"/>
-      <c r="R62" s="96"/>
-      <c r="S62" s="96"/>
-      <c r="T62" s="32"/>
-      <c r="U62" s="33"/>
+      <c r="P62" s="95"/>
+      <c r="Q62" s="95"/>
+      <c r="R62" s="95"/>
+      <c r="S62" s="95"/>
+      <c r="T62" s="31"/>
+      <c r="U62" s="32"/>
     </row>
     <row r="63" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B63" s="210"/>
-      <c r="C63" s="253"/>
-      <c r="D63" s="253"/>
-      <c r="E63" s="253"/>
-      <c r="F63" s="254"/>
-      <c r="H63" s="90">
+      <c r="B63" s="160"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="148"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="149"/>
+      <c r="H63" s="89">
         <v>50</v>
       </c>
-      <c r="I63" s="96"/>
-      <c r="J63" s="96"/>
-      <c r="K63" s="96"/>
-      <c r="L63" s="96"/>
-      <c r="M63" s="96"/>
-      <c r="N63" s="96"/>
-      <c r="O63" s="27" t="s">
+      <c r="I63" s="95"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="95"/>
+      <c r="L63" s="95"/>
+      <c r="M63" s="95"/>
+      <c r="N63" s="95"/>
+      <c r="O63" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P63" s="96"/>
-      <c r="Q63" s="96"/>
-      <c r="R63" s="96"/>
-      <c r="S63" s="96"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="33"/>
+      <c r="P63" s="95"/>
+      <c r="Q63" s="95"/>
+      <c r="R63" s="95"/>
+      <c r="S63" s="95"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="32"/>
     </row>
     <row r="64" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B64" s="210"/>
-      <c r="C64" s="253"/>
-      <c r="D64" s="253"/>
-      <c r="E64" s="253"/>
-      <c r="F64" s="254"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="90">
+      <c r="B64" s="160"/>
+      <c r="C64" s="148"/>
+      <c r="D64" s="148"/>
+      <c r="E64" s="148"/>
+      <c r="F64" s="149"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="89">
         <v>51</v>
       </c>
-      <c r="I64" s="96"/>
-      <c r="J64" s="96"/>
-      <c r="K64" s="96"/>
-      <c r="L64" s="96"/>
-      <c r="M64" s="96"/>
-      <c r="N64" s="96"/>
-      <c r="O64" s="27" t="s">
+      <c r="I64" s="95"/>
+      <c r="J64" s="95"/>
+      <c r="K64" s="95"/>
+      <c r="L64" s="95"/>
+      <c r="M64" s="95"/>
+      <c r="N64" s="95"/>
+      <c r="O64" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P64" s="96"/>
-      <c r="Q64" s="96"/>
-      <c r="R64" s="96"/>
-      <c r="S64" s="96"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="33"/>
+      <c r="P64" s="95"/>
+      <c r="Q64" s="95"/>
+      <c r="R64" s="95"/>
+      <c r="S64" s="95"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="32"/>
     </row>
     <row r="65" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B65" s="210"/>
-      <c r="C65" s="253"/>
-      <c r="D65" s="253"/>
-      <c r="E65" s="253"/>
-      <c r="F65" s="254"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="90">
+      <c r="B65" s="160"/>
+      <c r="C65" s="148"/>
+      <c r="D65" s="148"/>
+      <c r="E65" s="148"/>
+      <c r="F65" s="149"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="89">
         <v>52</v>
       </c>
-      <c r="I65" s="96"/>
-      <c r="J65" s="96"/>
-      <c r="K65" s="96"/>
-      <c r="L65" s="96"/>
-      <c r="M65" s="96"/>
-      <c r="N65" s="96"/>
-      <c r="O65" s="27" t="s">
+      <c r="I65" s="95"/>
+      <c r="J65" s="95"/>
+      <c r="K65" s="95"/>
+      <c r="L65" s="95"/>
+      <c r="M65" s="95"/>
+      <c r="N65" s="95"/>
+      <c r="O65" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P65" s="96"/>
-      <c r="Q65" s="96"/>
-      <c r="R65" s="96"/>
-      <c r="S65" s="96"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="33"/>
+      <c r="P65" s="95"/>
+      <c r="Q65" s="95"/>
+      <c r="R65" s="95"/>
+      <c r="S65" s="95"/>
+      <c r="T65" s="31"/>
+      <c r="U65" s="32"/>
     </row>
     <row r="66" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B66" s="210"/>
-      <c r="C66" s="253"/>
-      <c r="D66" s="253"/>
-      <c r="E66" s="253"/>
-      <c r="F66" s="254"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="90">
+      <c r="B66" s="160"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="148"/>
+      <c r="F66" s="149"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="89">
         <v>53</v>
       </c>
-      <c r="I66" s="96"/>
-      <c r="J66" s="96"/>
-      <c r="K66" s="96"/>
-      <c r="L66" s="96"/>
-      <c r="M66" s="96"/>
-      <c r="N66" s="96"/>
-      <c r="O66" s="27" t="s">
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="95"/>
+      <c r="L66" s="95"/>
+      <c r="M66" s="95"/>
+      <c r="N66" s="95"/>
+      <c r="O66" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P66" s="96"/>
-      <c r="Q66" s="96"/>
-      <c r="R66" s="96"/>
-      <c r="S66" s="96"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="33"/>
+      <c r="P66" s="95"/>
+      <c r="Q66" s="95"/>
+      <c r="R66" s="95"/>
+      <c r="S66" s="95"/>
+      <c r="T66" s="31"/>
+      <c r="U66" s="32"/>
     </row>
     <row r="67" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B67" s="210"/>
-      <c r="C67" s="253"/>
-      <c r="D67" s="253"/>
-      <c r="E67" s="253"/>
-      <c r="F67" s="254"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="90">
+      <c r="B67" s="160"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="148"/>
+      <c r="E67" s="148"/>
+      <c r="F67" s="149"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="89">
         <v>54</v>
       </c>
-      <c r="I67" s="96"/>
-      <c r="J67" s="96"/>
-      <c r="K67" s="96"/>
-      <c r="L67" s="96"/>
-      <c r="M67" s="96"/>
-      <c r="N67" s="96"/>
-      <c r="O67" s="27" t="s">
+      <c r="I67" s="95"/>
+      <c r="J67" s="95"/>
+      <c r="K67" s="95"/>
+      <c r="L67" s="95"/>
+      <c r="M67" s="95"/>
+      <c r="N67" s="95"/>
+      <c r="O67" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P67" s="96"/>
-      <c r="Q67" s="96"/>
-      <c r="R67" s="96"/>
-      <c r="S67" s="96"/>
-      <c r="T67" s="32"/>
-      <c r="U67" s="33"/>
+      <c r="P67" s="95"/>
+      <c r="Q67" s="95"/>
+      <c r="R67" s="95"/>
+      <c r="S67" s="95"/>
+      <c r="T67" s="31"/>
+      <c r="U67" s="32"/>
     </row>
     <row r="68" spans="2:30" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B68" s="210"/>
-      <c r="C68" s="255"/>
-      <c r="D68" s="255"/>
-      <c r="E68" s="255"/>
-      <c r="F68" s="256"/>
-      <c r="G68" s="238"/>
-      <c r="H68" s="90">
+      <c r="B68" s="160"/>
+      <c r="C68" s="150"/>
+      <c r="D68" s="150"/>
+      <c r="E68" s="150"/>
+      <c r="F68" s="151"/>
+      <c r="G68" s="137"/>
+      <c r="H68" s="89">
         <v>55</v>
       </c>
-      <c r="I68" s="96"/>
-      <c r="J68" s="96"/>
-      <c r="K68" s="96"/>
-      <c r="L68" s="96"/>
-      <c r="M68" s="96"/>
-      <c r="N68" s="96"/>
-      <c r="O68" s="27" t="s">
+      <c r="I68" s="95"/>
+      <c r="J68" s="95"/>
+      <c r="K68" s="95"/>
+      <c r="L68" s="95"/>
+      <c r="M68" s="95"/>
+      <c r="N68" s="95"/>
+      <c r="O68" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P68" s="96"/>
-      <c r="Q68" s="96"/>
-      <c r="R68" s="96"/>
-      <c r="S68" s="96"/>
-      <c r="T68" s="32"/>
-      <c r="U68" s="33"/>
+      <c r="P68" s="95"/>
+      <c r="Q68" s="95"/>
+      <c r="R68" s="95"/>
+      <c r="S68" s="95"/>
+      <c r="T68" s="31"/>
+      <c r="U68" s="32"/>
     </row>
     <row r="69" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B69" s="210"/>
-      <c r="C69" s="153" t="s">
+      <c r="B69" s="160"/>
+      <c r="C69" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="153" t="s">
+      <c r="D69" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="154" t="s">
+      <c r="E69" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="F69" s="248" t="s">
+      <c r="F69" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="G69" s="238"/>
-      <c r="H69" s="90">
+      <c r="G69" s="137"/>
+      <c r="H69" s="89">
         <v>56</v>
       </c>
-      <c r="I69" s="96"/>
-      <c r="J69" s="96"/>
-      <c r="K69" s="96"/>
-      <c r="L69" s="96"/>
-      <c r="M69" s="96"/>
-      <c r="N69" s="96"/>
-      <c r="O69" s="27" t="s">
+      <c r="I69" s="95"/>
+      <c r="J69" s="95"/>
+      <c r="K69" s="95"/>
+      <c r="L69" s="95"/>
+      <c r="M69" s="95"/>
+      <c r="N69" s="95"/>
+      <c r="O69" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P69" s="96"/>
-      <c r="Q69" s="96"/>
-      <c r="R69" s="96"/>
-      <c r="S69" s="96"/>
-      <c r="T69" s="32"/>
-      <c r="U69" s="33"/>
+      <c r="P69" s="95"/>
+      <c r="Q69" s="95"/>
+      <c r="R69" s="95"/>
+      <c r="S69" s="95"/>
+      <c r="T69" s="31"/>
+      <c r="U69" s="32"/>
     </row>
     <row r="70" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B70" s="210"/>
-      <c r="C70" s="31">
+      <c r="B70" s="160"/>
+      <c r="C70" s="30">
         <v>1</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="155"/>
-      <c r="F70" s="249"/>
-      <c r="H70" s="90">
+      <c r="D70" s="30"/>
+      <c r="E70" s="123"/>
+      <c r="F70" s="144"/>
+      <c r="H70" s="89">
         <v>57</v>
       </c>
-      <c r="I70" s="96"/>
-      <c r="J70" s="96"/>
-      <c r="K70" s="96"/>
-      <c r="L70" s="96"/>
-      <c r="M70" s="96"/>
-      <c r="N70" s="96"/>
-      <c r="O70" s="27" t="s">
+      <c r="I70" s="95"/>
+      <c r="J70" s="95"/>
+      <c r="K70" s="95"/>
+      <c r="L70" s="95"/>
+      <c r="M70" s="95"/>
+      <c r="N70" s="95"/>
+      <c r="O70" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P70" s="96"/>
-      <c r="Q70" s="96"/>
-      <c r="R70" s="96"/>
-      <c r="S70" s="96"/>
-      <c r="T70" s="32"/>
-      <c r="U70" s="33"/>
+      <c r="P70" s="95"/>
+      <c r="Q70" s="95"/>
+      <c r="R70" s="95"/>
+      <c r="S70" s="95"/>
+      <c r="T70" s="31"/>
+      <c r="U70" s="32"/>
     </row>
     <row r="71" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B71" s="210"/>
-      <c r="C71" s="79">
+      <c r="B71" s="160"/>
+      <c r="C71" s="78">
         <v>2</v>
       </c>
-      <c r="D71" s="38"/>
-      <c r="E71" s="155"/>
-      <c r="F71" s="249"/>
-      <c r="H71" s="90">
+      <c r="D71" s="37"/>
+      <c r="E71" s="123"/>
+      <c r="F71" s="144"/>
+      <c r="H71" s="89">
         <v>58</v>
       </c>
-      <c r="I71" s="96"/>
-      <c r="J71" s="96"/>
-      <c r="K71" s="96"/>
-      <c r="L71" s="96"/>
-      <c r="M71" s="96"/>
-      <c r="N71" s="96"/>
-      <c r="O71" s="27" t="s">
+      <c r="I71" s="95"/>
+      <c r="J71" s="95"/>
+      <c r="K71" s="95"/>
+      <c r="L71" s="95"/>
+      <c r="M71" s="95"/>
+      <c r="N71" s="95"/>
+      <c r="O71" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P71" s="96"/>
-      <c r="Q71" s="96"/>
-      <c r="R71" s="96"/>
-      <c r="S71" s="96"/>
-      <c r="T71" s="32"/>
-      <c r="U71" s="33"/>
+      <c r="P71" s="95"/>
+      <c r="Q71" s="95"/>
+      <c r="R71" s="95"/>
+      <c r="S71" s="95"/>
+      <c r="T71" s="31"/>
+      <c r="U71" s="32"/>
     </row>
     <row r="72" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B72" s="210"/>
-      <c r="C72" s="79">
+      <c r="B72" s="160"/>
+      <c r="C72" s="78">
         <v>3</v>
       </c>
-      <c r="D72" s="38"/>
-      <c r="E72" s="155"/>
-      <c r="F72" s="249"/>
-      <c r="H72" s="90">
+      <c r="D72" s="37"/>
+      <c r="E72" s="123"/>
+      <c r="F72" s="144"/>
+      <c r="H72" s="89">
         <v>59</v>
       </c>
-      <c r="I72" s="96"/>
-      <c r="J72" s="96"/>
-      <c r="K72" s="96"/>
-      <c r="L72" s="96"/>
-      <c r="M72" s="96"/>
-      <c r="N72" s="96"/>
-      <c r="O72" s="27" t="s">
+      <c r="I72" s="95"/>
+      <c r="J72" s="95"/>
+      <c r="K72" s="95"/>
+      <c r="L72" s="95"/>
+      <c r="M72" s="95"/>
+      <c r="N72" s="95"/>
+      <c r="O72" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P72" s="96"/>
-      <c r="Q72" s="96"/>
-      <c r="R72" s="96"/>
-      <c r="S72" s="96"/>
-      <c r="T72" s="32"/>
-      <c r="U72" s="33"/>
+      <c r="P72" s="95"/>
+      <c r="Q72" s="95"/>
+      <c r="R72" s="95"/>
+      <c r="S72" s="95"/>
+      <c r="T72" s="31"/>
+      <c r="U72" s="32"/>
     </row>
     <row r="73" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B73" s="210"/>
-      <c r="C73" s="79">
+      <c r="B73" s="160"/>
+      <c r="C73" s="78">
         <v>4</v>
       </c>
-      <c r="D73" s="38"/>
-      <c r="E73" s="155"/>
-      <c r="F73" s="249"/>
-      <c r="H73" s="90">
+      <c r="D73" s="37"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="144"/>
+      <c r="H73" s="89">
         <v>60</v>
       </c>
-      <c r="I73" s="96"/>
-      <c r="J73" s="96"/>
-      <c r="K73" s="96"/>
-      <c r="L73" s="96"/>
-      <c r="M73" s="96"/>
-      <c r="N73" s="96"/>
-      <c r="O73" s="27" t="s">
+      <c r="I73" s="95"/>
+      <c r="J73" s="95"/>
+      <c r="K73" s="95"/>
+      <c r="L73" s="95"/>
+      <c r="M73" s="95"/>
+      <c r="N73" s="95"/>
+      <c r="O73" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P73" s="96"/>
-      <c r="Q73" s="96"/>
-      <c r="R73" s="96"/>
-      <c r="S73" s="96"/>
-      <c r="T73" s="32"/>
-      <c r="U73" s="33"/>
+      <c r="P73" s="95"/>
+      <c r="Q73" s="95"/>
+      <c r="R73" s="95"/>
+      <c r="S73" s="95"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="32"/>
     </row>
     <row r="74" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B74" s="210"/>
-      <c r="C74" s="79">
+      <c r="B74" s="160"/>
+      <c r="C74" s="78">
         <v>5</v>
       </c>
-      <c r="D74" s="38"/>
-      <c r="E74" s="155"/>
-      <c r="F74" s="249"/>
-      <c r="H74" s="90">
+      <c r="D74" s="37"/>
+      <c r="E74" s="123"/>
+      <c r="F74" s="144"/>
+      <c r="H74" s="89">
         <v>61</v>
       </c>
-      <c r="I74" s="96"/>
-      <c r="J74" s="96"/>
-      <c r="K74" s="96"/>
-      <c r="L74" s="96"/>
-      <c r="M74" s="96"/>
-      <c r="N74" s="96"/>
-      <c r="O74" s="27" t="s">
+      <c r="I74" s="95"/>
+      <c r="J74" s="95"/>
+      <c r="K74" s="95"/>
+      <c r="L74" s="95"/>
+      <c r="M74" s="95"/>
+      <c r="N74" s="95"/>
+      <c r="O74" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P74" s="96"/>
-      <c r="Q74" s="96"/>
-      <c r="R74" s="96"/>
-      <c r="S74" s="96"/>
-      <c r="T74" s="32"/>
-      <c r="U74" s="33"/>
+      <c r="P74" s="95"/>
+      <c r="Q74" s="95"/>
+      <c r="R74" s="95"/>
+      <c r="S74" s="95"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="32"/>
     </row>
     <row r="75" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B75" s="210"/>
-      <c r="C75" s="79">
+      <c r="B75" s="160"/>
+      <c r="C75" s="78">
         <v>6</v>
       </c>
-      <c r="D75" s="38"/>
-      <c r="E75" s="155"/>
-      <c r="F75" s="249"/>
-      <c r="H75" s="90">
+      <c r="D75" s="37"/>
+      <c r="E75" s="123"/>
+      <c r="F75" s="144"/>
+      <c r="H75" s="89">
         <v>62</v>
       </c>
-      <c r="I75" s="96"/>
-      <c r="J75" s="96"/>
-      <c r="K75" s="96"/>
-      <c r="L75" s="96"/>
-      <c r="M75" s="96"/>
-      <c r="N75" s="96"/>
-      <c r="O75" s="27" t="s">
+      <c r="I75" s="95"/>
+      <c r="J75" s="95"/>
+      <c r="K75" s="95"/>
+      <c r="L75" s="95"/>
+      <c r="M75" s="95"/>
+      <c r="N75" s="95"/>
+      <c r="O75" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P75" s="96"/>
-      <c r="Q75" s="96"/>
-      <c r="R75" s="96"/>
-      <c r="S75" s="96"/>
-      <c r="T75" s="32"/>
-      <c r="U75" s="33"/>
+      <c r="P75" s="95"/>
+      <c r="Q75" s="95"/>
+      <c r="R75" s="95"/>
+      <c r="S75" s="95"/>
+      <c r="T75" s="31"/>
+      <c r="U75" s="32"/>
     </row>
     <row r="76" spans="2:30" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B76" s="210"/>
-      <c r="C76" s="79">
+      <c r="B76" s="160"/>
+      <c r="C76" s="78">
         <v>7</v>
       </c>
-      <c r="D76" s="38"/>
-      <c r="E76" s="155"/>
-      <c r="F76" s="249"/>
-      <c r="H76" s="90">
+      <c r="D76" s="37"/>
+      <c r="E76" s="123"/>
+      <c r="F76" s="144"/>
+      <c r="H76" s="89">
         <v>63</v>
       </c>
-      <c r="I76" s="97"/>
-      <c r="J76" s="97"/>
-      <c r="K76" s="97"/>
-      <c r="L76" s="97"/>
-      <c r="M76" s="97"/>
-      <c r="N76" s="97"/>
-      <c r="O76" s="133" t="s">
+      <c r="I76" s="96"/>
+      <c r="J76" s="96"/>
+      <c r="K76" s="96"/>
+      <c r="L76" s="96"/>
+      <c r="M76" s="96"/>
+      <c r="N76" s="96"/>
+      <c r="O76" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="P76" s="97"/>
-      <c r="Q76" s="97"/>
-      <c r="R76" s="97"/>
-      <c r="S76" s="97"/>
-      <c r="T76" s="99"/>
-      <c r="U76" s="100"/>
+      <c r="P76" s="96"/>
+      <c r="Q76" s="96"/>
+      <c r="R76" s="96"/>
+      <c r="S76" s="96"/>
+      <c r="T76" s="98"/>
+      <c r="U76" s="99"/>
     </row>
     <row r="77" spans="2:30" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B77" s="210"/>
-      <c r="C77" s="79">
+      <c r="B77" s="160"/>
+      <c r="C77" s="78">
         <v>8</v>
       </c>
-      <c r="D77" s="38"/>
-      <c r="E77" s="155"/>
-      <c r="F77" s="249"/>
-      <c r="G77" s="129"/>
-      <c r="H77" s="90">
+      <c r="D77" s="37"/>
+      <c r="E77" s="123"/>
+      <c r="F77" s="144"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="89">
         <v>64</v>
       </c>
-      <c r="I77" s="97"/>
-      <c r="J77" s="97"/>
-      <c r="K77" s="97"/>
-      <c r="L77" s="97"/>
-      <c r="M77" s="97"/>
-      <c r="N77" s="97"/>
-      <c r="O77" s="133" t="s">
+      <c r="I77" s="96"/>
+      <c r="J77" s="96"/>
+      <c r="K77" s="96"/>
+      <c r="L77" s="96"/>
+      <c r="M77" s="96"/>
+      <c r="N77" s="96"/>
+      <c r="O77" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="P77" s="97"/>
-      <c r="Q77" s="97"/>
-      <c r="R77" s="97"/>
-      <c r="S77" s="97"/>
-      <c r="T77" s="99"/>
-      <c r="U77" s="100"/>
+      <c r="P77" s="96"/>
+      <c r="Q77" s="96"/>
+      <c r="R77" s="96"/>
+      <c r="S77" s="96"/>
+      <c r="T77" s="98"/>
+      <c r="U77" s="99"/>
     </row>
     <row r="78" spans="2:30" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B78" s="210"/>
-      <c r="C78" s="79">
+      <c r="B78" s="160"/>
+      <c r="C78" s="78">
         <v>9</v>
       </c>
-      <c r="D78" s="129"/>
-      <c r="E78" s="156"/>
-      <c r="F78" s="249"/>
-      <c r="G78" s="129"/>
-      <c r="H78" s="90">
+      <c r="D78" s="107"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="144"/>
+      <c r="G78" s="107"/>
+      <c r="H78" s="89">
         <v>65</v>
       </c>
-      <c r="I78" s="97"/>
-      <c r="J78" s="97"/>
-      <c r="K78" s="97"/>
-      <c r="L78" s="97"/>
-      <c r="M78" s="97"/>
-      <c r="N78" s="97"/>
-      <c r="O78" s="133" t="s">
+      <c r="I78" s="96"/>
+      <c r="J78" s="96"/>
+      <c r="K78" s="96"/>
+      <c r="L78" s="96"/>
+      <c r="M78" s="96"/>
+      <c r="N78" s="96"/>
+      <c r="O78" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="P78" s="97"/>
-      <c r="Q78" s="97"/>
-      <c r="R78" s="97"/>
-      <c r="S78" s="97"/>
-      <c r="T78" s="99"/>
-      <c r="U78" s="100"/>
+      <c r="P78" s="96"/>
+      <c r="Q78" s="96"/>
+      <c r="R78" s="96"/>
+      <c r="S78" s="96"/>
+      <c r="T78" s="98"/>
+      <c r="U78" s="99"/>
     </row>
     <row r="79" spans="2:30" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B79" s="211"/>
-      <c r="C79" s="130">
+      <c r="B79" s="161"/>
+      <c r="C79" s="108">
         <v>10</v>
       </c>
-      <c r="D79" s="131"/>
-      <c r="E79" s="157"/>
-      <c r="F79" s="250"/>
-      <c r="G79" s="101"/>
-      <c r="H79" s="90">
+      <c r="D79" s="109"/>
+      <c r="E79" s="125"/>
+      <c r="F79" s="145"/>
+      <c r="G79" s="100"/>
+      <c r="H79" s="89">
         <v>66</v>
       </c>
-      <c r="I79" s="97"/>
-      <c r="J79" s="97"/>
-      <c r="K79" s="97"/>
-      <c r="L79" s="97"/>
-      <c r="M79" s="97"/>
-      <c r="N79" s="97"/>
-      <c r="O79" s="133" t="s">
+      <c r="I79" s="96"/>
+      <c r="J79" s="96"/>
+      <c r="K79" s="96"/>
+      <c r="L79" s="96"/>
+      <c r="M79" s="96"/>
+      <c r="N79" s="96"/>
+      <c r="O79" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="P79" s="97"/>
-      <c r="Q79" s="97"/>
-      <c r="R79" s="97"/>
-      <c r="S79" s="97"/>
-      <c r="T79" s="99"/>
-      <c r="U79" s="100"/>
+      <c r="P79" s="96"/>
+      <c r="Q79" s="96"/>
+      <c r="R79" s="96"/>
+      <c r="S79" s="96"/>
+      <c r="T79" s="98"/>
+      <c r="U79" s="99"/>
     </row>
     <row r="80" spans="2:30" ht="30" customHeight="1">
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="O80" s="41"/>
-      <c r="AC80" s="95"/>
-      <c r="AD80" s="95"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="O80" s="40"/>
+      <c r="AC80" s="94"/>
+      <c r="AD80" s="94"/>
     </row>
     <row r="81" spans="3:31" ht="30" customHeight="1">
       <c r="C81"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
-      <c r="O81" s="41"/>
-      <c r="AC81" s="95"/>
-      <c r="AD81" s="95"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="O81" s="40"/>
+      <c r="AC81" s="94"/>
+      <c r="AD81" s="94"/>
     </row>
     <row r="82" spans="3:31" ht="30" customHeight="1">
-      <c r="O82" s="41"/>
-      <c r="AC82" s="95"/>
-      <c r="AD82" s="95"/>
+      <c r="O82" s="40"/>
+      <c r="AC82" s="94"/>
+      <c r="AD82" s="94"/>
     </row>
     <row r="83" spans="3:31" ht="30" customHeight="1">
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="26"/>
-      <c r="AC83" s="95"/>
-      <c r="AD83" s="95"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="25"/>
+      <c r="AC83" s="94"/>
+      <c r="AD83" s="94"/>
     </row>
     <row r="84" spans="3:31" ht="20.25" customHeight="1">
-      <c r="O84" s="41"/>
-      <c r="AC84" s="95"/>
-      <c r="AD84" s="95"/>
+      <c r="O84" s="40"/>
+      <c r="AC84" s="94"/>
+      <c r="AD84" s="94"/>
     </row>
     <row r="85" spans="3:31">
-      <c r="O85" s="41"/>
-      <c r="AC85" s="95"/>
-      <c r="AD85" s="95"/>
+      <c r="O85" s="40"/>
+      <c r="AC85" s="94"/>
+      <c r="AD85" s="94"/>
     </row>
     <row r="86" spans="3:31" ht="45.75" customHeight="1">
-      <c r="D86" s="31"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="31"/>
-      <c r="L86" s="45"/>
-      <c r="M86" s="31"/>
-      <c r="N86" s="45"/>
-      <c r="O86" s="41"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="30"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="40"/>
     </row>
     <row r="87" spans="3:31" ht="25.5" customHeight="1">
-      <c r="D87" s="42"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="44"/>
-      <c r="K87" s="31"/>
-      <c r="L87" s="31"/>
-      <c r="O87" s="49"/>
+      <c r="D87" s="41"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="43"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="30"/>
+      <c r="O87" s="48"/>
     </row>
     <row r="88" spans="3:31" ht="25.5" customHeight="1">
-      <c r="D88" s="42"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="52"/>
+      <c r="D88" s="41"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="30"/>
+      <c r="N88" s="51"/>
     </row>
     <row r="89" spans="3:31" ht="45" customHeight="1">
-      <c r="C89" s="31"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="54"/>
-      <c r="J89" s="31"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="31"/>
-      <c r="M89" s="31"/>
-      <c r="N89" s="55"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="53"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="30"/>
+      <c r="N89" s="54"/>
     </row>
     <row r="90" spans="3:31" ht="30.75" customHeight="1">
-      <c r="G90" s="26"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="31"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="31"/>
-      <c r="M90" s="31"/>
-      <c r="N90" s="56"/>
-      <c r="T90" s="57"/>
-      <c r="U90" s="57"/>
-      <c r="W90" s="50"/>
-      <c r="X90" s="50"/>
-      <c r="Y90" s="50"/>
-      <c r="Z90" s="50"/>
-      <c r="AA90" s="50"/>
-      <c r="AB90" s="50"/>
-      <c r="AC90" s="51"/>
-      <c r="AD90" s="51"/>
-      <c r="AE90" s="51"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="53"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="30"/>
+      <c r="N90" s="55"/>
+      <c r="T90" s="56"/>
+      <c r="U90" s="56"/>
+      <c r="W90" s="49"/>
+      <c r="X90" s="49"/>
+      <c r="Y90" s="49"/>
+      <c r="Z90" s="49"/>
+      <c r="AA90" s="49"/>
+      <c r="AB90" s="49"/>
+      <c r="AC90" s="50"/>
+      <c r="AD90" s="50"/>
+      <c r="AE90" s="50"/>
     </row>
     <row r="91" spans="3:31" ht="24.95" customHeight="1">
-      <c r="H91" s="31"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="41"/>
-      <c r="T91" s="57"/>
-      <c r="U91" s="57"/>
-      <c r="W91" s="50"/>
-      <c r="X91" s="50"/>
-      <c r="Y91" s="50"/>
-      <c r="Z91" s="50"/>
-      <c r="AA91" s="50"/>
-      <c r="AB91" s="50"/>
-      <c r="AC91" s="53"/>
-      <c r="AD91" s="53"/>
-      <c r="AE91" s="53"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="53"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="30"/>
+      <c r="N91" s="40"/>
+      <c r="T91" s="56"/>
+      <c r="U91" s="56"/>
+      <c r="W91" s="49"/>
+      <c r="X91" s="49"/>
+      <c r="Y91" s="49"/>
+      <c r="Z91" s="49"/>
+      <c r="AA91" s="49"/>
+      <c r="AB91" s="49"/>
+      <c r="AC91" s="52"/>
+      <c r="AD91" s="52"/>
+      <c r="AE91" s="52"/>
     </row>
     <row r="92" spans="3:31" ht="24.95" customHeight="1"/>
     <row r="93" spans="3:31" ht="24.95" customHeight="1">
-      <c r="H93" s="59"/>
-      <c r="I93" s="59"/>
-      <c r="J93" s="59"/>
-      <c r="K93" s="59"/>
-      <c r="L93" s="59"/>
-      <c r="M93" s="59"/>
-      <c r="N93" s="59"/>
-      <c r="O93" s="59"/>
-      <c r="T93" s="58"/>
-      <c r="V93" s="57"/>
-      <c r="W93" s="58"/>
-      <c r="X93" s="58"/>
-      <c r="Y93" s="58"/>
-      <c r="Z93" s="34"/>
-      <c r="AA93" s="34"/>
-      <c r="AB93" s="34"/>
-      <c r="AC93" s="34"/>
-      <c r="AD93" s="34"/>
-      <c r="AE93" s="34"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="58"/>
+      <c r="M93" s="58"/>
+      <c r="N93" s="58"/>
+      <c r="O93" s="58"/>
+      <c r="T93" s="57"/>
+      <c r="V93" s="56"/>
+      <c r="W93" s="57"/>
+      <c r="X93" s="57"/>
+      <c r="Y93" s="57"/>
+      <c r="Z93" s="33"/>
+      <c r="AA93" s="33"/>
+      <c r="AB93" s="33"/>
+      <c r="AC93" s="33"/>
+      <c r="AD93" s="33"/>
+      <c r="AE93" s="33"/>
     </row>
     <row r="94" spans="3:31" ht="24.95" customHeight="1">
-      <c r="H94" s="59"/>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59"/>
-      <c r="K94" s="59"/>
-      <c r="L94" s="59"/>
-      <c r="M94" s="59"/>
-      <c r="N94" s="59"/>
-      <c r="O94" s="59"/>
-      <c r="T94" s="58"/>
-      <c r="V94" s="57"/>
-      <c r="W94" s="58"/>
-      <c r="X94" s="58"/>
-      <c r="Y94" s="58"/>
-      <c r="Z94" s="34"/>
-      <c r="AA94" s="34"/>
-      <c r="AB94" s="34"/>
-      <c r="AC94" s="34"/>
-      <c r="AD94" s="34"/>
-      <c r="AE94" s="34"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
+      <c r="N94" s="58"/>
+      <c r="O94" s="58"/>
+      <c r="T94" s="57"/>
+      <c r="V94" s="56"/>
+      <c r="W94" s="57"/>
+      <c r="X94" s="57"/>
+      <c r="Y94" s="57"/>
+      <c r="Z94" s="33"/>
+      <c r="AA94" s="33"/>
+      <c r="AB94" s="33"/>
+      <c r="AC94" s="33"/>
+      <c r="AD94" s="33"/>
+      <c r="AE94" s="33"/>
     </row>
     <row r="95" spans="3:31" ht="24.95" customHeight="1">
-      <c r="K95" s="31"/>
-      <c r="N95" s="31"/>
-      <c r="T95" s="58"/>
+      <c r="K95" s="30"/>
+      <c r="N95" s="30"/>
+      <c r="T95" s="57"/>
     </row>
     <row r="96" spans="3:31" ht="60" customHeight="1">
-      <c r="D96" s="31"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="59"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="31"/>
-      <c r="L96" s="31"/>
-      <c r="M96" s="31"/>
-      <c r="N96" s="31"/>
-      <c r="O96" s="31"/>
-      <c r="T96" s="58"/>
-      <c r="AB96" s="34"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="30"/>
+      <c r="N96" s="30"/>
+      <c r="O96" s="30"/>
+      <c r="T96" s="57"/>
+      <c r="AB96" s="33"/>
     </row>
     <row r="97" spans="3:31" ht="60" customHeight="1">
-      <c r="C97" s="60"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="O97" s="31"/>
-      <c r="T97" s="58"/>
-      <c r="U97" s="53"/>
+      <c r="C97" s="59"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="58"/>
+      <c r="O97" s="30"/>
+      <c r="T97" s="57"/>
+      <c r="U97" s="52"/>
     </row>
     <row r="98" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C98" s="40"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
-      <c r="O98" s="31"/>
-      <c r="T98" s="58"/>
-      <c r="U98" s="53"/>
-      <c r="W98" s="44"/>
-      <c r="X98" s="44"/>
-      <c r="Y98" s="44"/>
+      <c r="C98" s="39"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="60"/>
+      <c r="O98" s="30"/>
+      <c r="T98" s="57"/>
+      <c r="U98" s="52"/>
+      <c r="W98" s="43"/>
+      <c r="X98" s="43"/>
+      <c r="Y98" s="43"/>
     </row>
     <row r="99" spans="3:31" ht="30.6" customHeight="1">
-      <c r="C99" s="29"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="61"/>
-      <c r="T99" s="58"/>
-      <c r="U99" s="67"/>
-      <c r="W99" s="47"/>
-      <c r="X99" s="47"/>
-      <c r="Y99" s="47"/>
-      <c r="Z99" s="31"/>
-      <c r="AA99" s="31"/>
-      <c r="AB99" s="31"/>
-      <c r="AC99" s="31"/>
-      <c r="AD99" s="31"/>
-      <c r="AE99" s="31"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="60"/>
+      <c r="T99" s="57"/>
+      <c r="U99" s="66"/>
+      <c r="W99" s="46"/>
+      <c r="X99" s="46"/>
+      <c r="Y99" s="46"/>
+      <c r="Z99" s="30"/>
+      <c r="AA99" s="30"/>
+      <c r="AB99" s="30"/>
+      <c r="AC99" s="30"/>
+      <c r="AD99" s="30"/>
+      <c r="AE99" s="30"/>
     </row>
     <row r="100" spans="3:31" ht="24.95" customHeight="1">
-      <c r="D100" s="61"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="29"/>
-      <c r="T100" s="34"/>
-      <c r="U100" s="34"/>
-      <c r="V100" s="53"/>
-      <c r="W100" s="34"/>
-      <c r="X100" s="34"/>
-      <c r="Y100" s="62"/>
-      <c r="Z100" s="62"/>
-      <c r="AA100" s="62"/>
-      <c r="AB100" s="62"/>
-      <c r="AC100" s="62"/>
-      <c r="AD100" s="62"/>
-      <c r="AE100" s="62"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="28"/>
+      <c r="T100" s="33"/>
+      <c r="U100" s="33"/>
+      <c r="V100" s="52"/>
+      <c r="W100" s="33"/>
+      <c r="X100" s="33"/>
+      <c r="Y100" s="61"/>
+      <c r="Z100" s="61"/>
+      <c r="AA100" s="61"/>
+      <c r="AB100" s="61"/>
+      <c r="AC100" s="61"/>
+      <c r="AD100" s="61"/>
+      <c r="AE100" s="61"/>
     </row>
     <row r="101" spans="3:31" ht="24.95" customHeight="1">
-      <c r="D101" s="63"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="29"/>
-      <c r="O101" s="31"/>
-      <c r="T101" s="64"/>
-      <c r="U101" s="71"/>
-      <c r="V101" s="53"/>
-      <c r="W101" s="64"/>
-      <c r="X101" s="53"/>
-      <c r="Y101" s="65"/>
-      <c r="Z101" s="65"/>
-      <c r="AA101" s="65"/>
-      <c r="AB101" s="65"/>
-      <c r="AC101" s="66"/>
-      <c r="AD101" s="65"/>
-      <c r="AE101" s="65"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="28"/>
+      <c r="O101" s="30"/>
+      <c r="T101" s="63"/>
+      <c r="U101" s="70"/>
+      <c r="V101" s="52"/>
+      <c r="W101" s="63"/>
+      <c r="X101" s="52"/>
+      <c r="Y101" s="64"/>
+      <c r="Z101" s="64"/>
+      <c r="AA101" s="64"/>
+      <c r="AB101" s="64"/>
+      <c r="AC101" s="65"/>
+      <c r="AD101" s="64"/>
+      <c r="AE101" s="64"/>
     </row>
     <row r="102" spans="3:31" ht="24.95" customHeight="1">
-      <c r="D102" s="63"/>
-      <c r="E102" s="61"/>
-      <c r="G102" s="29"/>
-      <c r="O102" s="31"/>
-      <c r="T102" s="34"/>
-      <c r="U102" s="34"/>
-      <c r="V102" s="67"/>
-      <c r="W102" s="34"/>
-      <c r="X102" s="53"/>
-      <c r="Y102" s="65"/>
-      <c r="Z102" s="65"/>
-      <c r="AA102" s="65"/>
-      <c r="AB102" s="65"/>
-      <c r="AC102" s="68"/>
-      <c r="AD102" s="65"/>
-      <c r="AE102" s="65"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="60"/>
+      <c r="G102" s="28"/>
+      <c r="O102" s="30"/>
+      <c r="T102" s="33"/>
+      <c r="U102" s="33"/>
+      <c r="V102" s="66"/>
+      <c r="W102" s="33"/>
+      <c r="X102" s="52"/>
+      <c r="Y102" s="64"/>
+      <c r="Z102" s="64"/>
+      <c r="AA102" s="64"/>
+      <c r="AB102" s="64"/>
+      <c r="AC102" s="67"/>
+      <c r="AD102" s="64"/>
+      <c r="AE102" s="64"/>
     </row>
     <row r="103" spans="3:31" ht="24.95" customHeight="1">
-      <c r="E103" s="61"/>
-      <c r="G103" s="29"/>
-      <c r="O103" s="31"/>
-      <c r="T103" s="34"/>
-      <c r="U103" s="34"/>
-      <c r="V103" s="58"/>
-      <c r="W103" s="34"/>
-      <c r="X103" s="53"/>
-      <c r="Y103" s="53"/>
-      <c r="Z103" s="69"/>
-      <c r="AA103" s="69"/>
-      <c r="AB103" s="70"/>
-      <c r="AC103" s="53"/>
-      <c r="AD103" s="70"/>
-      <c r="AE103" s="70"/>
+      <c r="E103" s="60"/>
+      <c r="G103" s="28"/>
+      <c r="O103" s="30"/>
+      <c r="T103" s="33"/>
+      <c r="U103" s="33"/>
+      <c r="V103" s="57"/>
+      <c r="W103" s="33"/>
+      <c r="X103" s="52"/>
+      <c r="Y103" s="52"/>
+      <c r="Z103" s="68"/>
+      <c r="AA103" s="68"/>
+      <c r="AB103" s="69"/>
+      <c r="AC103" s="52"/>
+      <c r="AD103" s="69"/>
+      <c r="AE103" s="69"/>
     </row>
     <row r="104" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C104" s="29"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="63"/>
-      <c r="G104" s="29"/>
-      <c r="O104" s="31"/>
-      <c r="T104" s="34"/>
-      <c r="U104" s="34"/>
-      <c r="V104" s="64"/>
-      <c r="W104" s="34"/>
-      <c r="X104" s="53"/>
-      <c r="Y104" s="53"/>
-      <c r="Z104" s="69"/>
-      <c r="AA104" s="69"/>
-      <c r="AB104" s="70"/>
-      <c r="AC104" s="70"/>
-      <c r="AD104" s="72"/>
-      <c r="AE104" s="72"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="28"/>
+      <c r="O104" s="30"/>
+      <c r="T104" s="33"/>
+      <c r="U104" s="33"/>
+      <c r="V104" s="63"/>
+      <c r="W104" s="33"/>
+      <c r="X104" s="52"/>
+      <c r="Y104" s="52"/>
+      <c r="Z104" s="68"/>
+      <c r="AA104" s="68"/>
+      <c r="AB104" s="69"/>
+      <c r="AC104" s="69"/>
+      <c r="AD104" s="71"/>
+      <c r="AE104" s="71"/>
     </row>
     <row r="105" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C105" s="29"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="29"/>
-      <c r="O105" s="31"/>
-      <c r="T105" s="34"/>
-      <c r="U105" s="34"/>
-      <c r="V105" s="34"/>
-      <c r="W105" s="34"/>
-      <c r="X105" s="53"/>
-      <c r="Y105" s="53"/>
-      <c r="Z105" s="69"/>
-      <c r="AA105" s="69"/>
-      <c r="AB105" s="70"/>
-      <c r="AC105" s="70"/>
-      <c r="AD105" s="53"/>
-      <c r="AE105" s="53"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="28"/>
+      <c r="O105" s="30"/>
+      <c r="T105" s="33"/>
+      <c r="U105" s="33"/>
+      <c r="V105" s="33"/>
+      <c r="W105" s="33"/>
+      <c r="X105" s="52"/>
+      <c r="Y105" s="52"/>
+      <c r="Z105" s="68"/>
+      <c r="AA105" s="68"/>
+      <c r="AB105" s="69"/>
+      <c r="AC105" s="69"/>
+      <c r="AD105" s="52"/>
+      <c r="AE105" s="52"/>
     </row>
     <row r="106" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C106" s="29"/>
-      <c r="D106" s="63"/>
-      <c r="G106" s="29"/>
-      <c r="O106" s="31"/>
-      <c r="T106" s="34"/>
-      <c r="U106" s="34"/>
-      <c r="V106" s="34"/>
-      <c r="W106" s="34"/>
-      <c r="X106" s="53"/>
-      <c r="Y106" s="53"/>
-      <c r="Z106" s="69"/>
-      <c r="AA106" s="69"/>
-      <c r="AB106" s="70"/>
-      <c r="AC106" s="70"/>
-      <c r="AD106" s="70"/>
-      <c r="AE106" s="53"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="62"/>
+      <c r="G106" s="28"/>
+      <c r="O106" s="30"/>
+      <c r="T106" s="33"/>
+      <c r="U106" s="33"/>
+      <c r="V106" s="33"/>
+      <c r="W106" s="33"/>
+      <c r="X106" s="52"/>
+      <c r="Y106" s="52"/>
+      <c r="Z106" s="68"/>
+      <c r="AA106" s="68"/>
+      <c r="AB106" s="69"/>
+      <c r="AC106" s="69"/>
+      <c r="AD106" s="69"/>
+      <c r="AE106" s="52"/>
     </row>
     <row r="107" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C107" s="73"/>
-      <c r="D107" s="73"/>
-      <c r="E107" s="73"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="29"/>
-      <c r="O107" s="31"/>
-      <c r="T107" s="34"/>
-      <c r="U107" s="34"/>
-      <c r="V107" s="34"/>
-      <c r="W107" s="34"/>
-      <c r="X107" s="53"/>
-      <c r="Y107" s="53"/>
-      <c r="Z107" s="69"/>
-      <c r="AA107" s="69"/>
-      <c r="AB107" s="70"/>
-      <c r="AC107" s="70"/>
-      <c r="AD107" s="53"/>
-      <c r="AE107" s="53"/>
+      <c r="C107" s="72"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="28"/>
+      <c r="O107" s="30"/>
+      <c r="T107" s="33"/>
+      <c r="U107" s="33"/>
+      <c r="V107" s="33"/>
+      <c r="W107" s="33"/>
+      <c r="X107" s="52"/>
+      <c r="Y107" s="52"/>
+      <c r="Z107" s="68"/>
+      <c r="AA107" s="68"/>
+      <c r="AB107" s="69"/>
+      <c r="AC107" s="69"/>
+      <c r="AD107" s="52"/>
+      <c r="AE107" s="52"/>
     </row>
     <row r="108" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="29"/>
-      <c r="O108" s="31"/>
-      <c r="T108" s="34"/>
-      <c r="U108" s="34"/>
-      <c r="V108" s="34"/>
-      <c r="W108" s="34"/>
-      <c r="X108" s="53"/>
-      <c r="Y108" s="53"/>
-      <c r="Z108" s="69"/>
-      <c r="AA108" s="69"/>
-      <c r="AB108" s="70"/>
-      <c r="AC108" s="70"/>
-      <c r="AD108" s="53"/>
-      <c r="AE108" s="53"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="73"/>
+      <c r="E108" s="73"/>
+      <c r="F108" s="73"/>
+      <c r="G108" s="28"/>
+      <c r="O108" s="30"/>
+      <c r="T108" s="33"/>
+      <c r="U108" s="33"/>
+      <c r="V108" s="33"/>
+      <c r="W108" s="33"/>
+      <c r="X108" s="52"/>
+      <c r="Y108" s="52"/>
+      <c r="Z108" s="68"/>
+      <c r="AA108" s="68"/>
+      <c r="AB108" s="69"/>
+      <c r="AC108" s="69"/>
+      <c r="AD108" s="52"/>
+      <c r="AE108" s="52"/>
     </row>
     <row r="109" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="75"/>
-      <c r="G109" s="29"/>
-      <c r="O109" s="31"/>
-      <c r="T109" s="64"/>
-      <c r="U109" s="71"/>
-      <c r="V109" s="34"/>
-      <c r="W109" s="71"/>
-      <c r="X109" s="53"/>
-      <c r="Y109" s="65"/>
-      <c r="Z109" s="65"/>
-      <c r="AA109" s="65"/>
-      <c r="AB109" s="53"/>
-      <c r="AC109" s="53"/>
-      <c r="AD109" s="53"/>
-      <c r="AE109" s="53"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="73"/>
+      <c r="F109" s="74"/>
+      <c r="G109" s="28"/>
+      <c r="O109" s="30"/>
+      <c r="T109" s="63"/>
+      <c r="U109" s="70"/>
+      <c r="V109" s="33"/>
+      <c r="W109" s="70"/>
+      <c r="X109" s="52"/>
+      <c r="Y109" s="64"/>
+      <c r="Z109" s="64"/>
+      <c r="AA109" s="64"/>
+      <c r="AB109" s="52"/>
+      <c r="AC109" s="52"/>
+      <c r="AD109" s="52"/>
+      <c r="AE109" s="52"/>
     </row>
     <row r="110" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C110" s="76"/>
-      <c r="E110" s="77"/>
-      <c r="G110" s="29"/>
-      <c r="O110" s="31"/>
-      <c r="T110" s="58"/>
-      <c r="U110" s="67"/>
-      <c r="V110" s="34"/>
-      <c r="W110" s="47"/>
-      <c r="X110" s="47"/>
-      <c r="Y110" s="47"/>
-      <c r="Z110" s="31"/>
-      <c r="AA110" s="31"/>
-      <c r="AB110" s="31"/>
-      <c r="AC110" s="31"/>
-      <c r="AD110" s="31"/>
-      <c r="AE110" s="31"/>
+      <c r="C110" s="75"/>
+      <c r="E110" s="76"/>
+      <c r="G110" s="28"/>
+      <c r="O110" s="30"/>
+      <c r="T110" s="57"/>
+      <c r="U110" s="66"/>
+      <c r="V110" s="33"/>
+      <c r="W110" s="46"/>
+      <c r="X110" s="46"/>
+      <c r="Y110" s="46"/>
+      <c r="Z110" s="30"/>
+      <c r="AA110" s="30"/>
+      <c r="AB110" s="30"/>
+      <c r="AC110" s="30"/>
+      <c r="AD110" s="30"/>
+      <c r="AE110" s="30"/>
     </row>
     <row r="111" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C111" s="76"/>
-      <c r="D111" s="78"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="78"/>
-      <c r="G111" s="29"/>
-      <c r="O111" s="31"/>
-      <c r="T111" s="31"/>
-      <c r="U111" s="31"/>
-      <c r="V111" s="34"/>
+      <c r="C111" s="75"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="28"/>
+      <c r="O111" s="30"/>
+      <c r="T111" s="30"/>
+      <c r="U111" s="30"/>
+      <c r="V111" s="33"/>
     </row>
     <row r="112" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C112" s="76"/>
-      <c r="D112" s="78"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="78"/>
-      <c r="G112" s="29"/>
-      <c r="O112" s="31"/>
-      <c r="T112" s="31"/>
-      <c r="U112" s="31"/>
-      <c r="V112" s="71"/>
-      <c r="W112" s="31"/>
-      <c r="X112" s="31"/>
-      <c r="Y112" s="31"/>
-      <c r="Z112" s="31"/>
-      <c r="AA112" s="64"/>
-      <c r="AB112" s="64"/>
-      <c r="AC112" s="64"/>
-      <c r="AD112" s="64"/>
-      <c r="AE112" s="64"/>
+      <c r="C112" s="75"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="28"/>
+      <c r="O112" s="30"/>
+      <c r="T112" s="30"/>
+      <c r="U112" s="30"/>
+      <c r="V112" s="70"/>
+      <c r="W112" s="30"/>
+      <c r="X112" s="30"/>
+      <c r="Y112" s="30"/>
+      <c r="Z112" s="30"/>
+      <c r="AA112" s="63"/>
+      <c r="AB112" s="63"/>
+      <c r="AC112" s="63"/>
+      <c r="AD112" s="63"/>
+      <c r="AE112" s="63"/>
     </row>
     <row r="113" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C113" s="76"/>
-      <c r="D113" s="78"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="78"/>
-      <c r="G113" s="29"/>
-      <c r="O113" s="31"/>
-      <c r="T113" s="79"/>
-      <c r="U113" s="38"/>
-      <c r="V113" s="67"/>
-      <c r="W113" s="31"/>
-      <c r="X113" s="31"/>
-      <c r="Y113" s="31"/>
-      <c r="Z113" s="31"/>
-      <c r="AC113" s="31"/>
-      <c r="AD113" s="53"/>
-      <c r="AE113" s="53"/>
+      <c r="C113" s="75"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="28"/>
+      <c r="O113" s="30"/>
+      <c r="T113" s="78"/>
+      <c r="U113" s="37"/>
+      <c r="V113" s="66"/>
+      <c r="W113" s="30"/>
+      <c r="X113" s="30"/>
+      <c r="Y113" s="30"/>
+      <c r="Z113" s="30"/>
+      <c r="AC113" s="30"/>
+      <c r="AD113" s="52"/>
+      <c r="AE113" s="52"/>
     </row>
     <row r="114" spans="3:31" ht="24.95" customHeight="1">
-      <c r="D114" s="78"/>
-      <c r="E114" s="77"/>
-      <c r="F114" s="78"/>
-      <c r="G114" s="29"/>
-      <c r="O114" s="31"/>
-      <c r="T114" s="79"/>
-      <c r="U114" s="38"/>
-      <c r="W114" s="31"/>
-      <c r="X114" s="31"/>
-      <c r="Y114" s="31"/>
-      <c r="Z114" s="31"/>
-      <c r="AC114" s="31"/>
-      <c r="AD114" s="53"/>
-      <c r="AE114" s="53"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="28"/>
+      <c r="O114" s="30"/>
+      <c r="T114" s="78"/>
+      <c r="U114" s="37"/>
+      <c r="W114" s="30"/>
+      <c r="X114" s="30"/>
+      <c r="Y114" s="30"/>
+      <c r="Z114" s="30"/>
+      <c r="AC114" s="30"/>
+      <c r="AD114" s="52"/>
+      <c r="AE114" s="52"/>
     </row>
     <row r="115" spans="3:31" ht="24.95" customHeight="1">
-      <c r="D115" s="78"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="78"/>
-      <c r="G115" s="29"/>
-      <c r="O115" s="31"/>
-      <c r="T115" s="79"/>
-      <c r="U115" s="38"/>
-      <c r="V115" s="31"/>
-      <c r="W115" s="31"/>
-      <c r="X115" s="31"/>
-      <c r="Y115" s="31"/>
-      <c r="Z115" s="31"/>
-      <c r="AC115" s="31"/>
-      <c r="AD115" s="53"/>
-      <c r="AE115" s="53"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="77"/>
+      <c r="G115" s="28"/>
+      <c r="O115" s="30"/>
+      <c r="T115" s="78"/>
+      <c r="U115" s="37"/>
+      <c r="V115" s="30"/>
+      <c r="W115" s="30"/>
+      <c r="X115" s="30"/>
+      <c r="Y115" s="30"/>
+      <c r="Z115" s="30"/>
+      <c r="AC115" s="30"/>
+      <c r="AD115" s="52"/>
+      <c r="AE115" s="52"/>
     </row>
     <row r="116" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C116" s="74"/>
-      <c r="D116" s="74"/>
-      <c r="E116" s="74"/>
-      <c r="F116" s="75"/>
-      <c r="G116" s="29"/>
-      <c r="O116" s="31"/>
-      <c r="T116" s="79"/>
-      <c r="U116" s="38"/>
-      <c r="W116" s="31"/>
-      <c r="X116" s="31"/>
-      <c r="Y116" s="31"/>
-      <c r="Z116" s="31"/>
-      <c r="AC116" s="31"/>
-      <c r="AD116" s="53"/>
-      <c r="AE116" s="53"/>
+      <c r="C116" s="73"/>
+      <c r="D116" s="73"/>
+      <c r="E116" s="73"/>
+      <c r="F116" s="74"/>
+      <c r="G116" s="28"/>
+      <c r="O116" s="30"/>
+      <c r="T116" s="78"/>
+      <c r="U116" s="37"/>
+      <c r="W116" s="30"/>
+      <c r="X116" s="30"/>
+      <c r="Y116" s="30"/>
+      <c r="Z116" s="30"/>
+      <c r="AC116" s="30"/>
+      <c r="AD116" s="52"/>
+      <c r="AE116" s="52"/>
     </row>
     <row r="117" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C117" s="75"/>
-      <c r="D117" s="75"/>
-      <c r="E117" s="75"/>
-      <c r="F117" s="75"/>
-      <c r="G117" s="29"/>
-      <c r="O117" s="31"/>
-      <c r="T117" s="79"/>
-      <c r="U117" s="38"/>
-      <c r="W117" s="31"/>
-      <c r="X117" s="31"/>
-      <c r="Y117" s="31"/>
-      <c r="Z117" s="31"/>
-      <c r="AC117" s="31"/>
-      <c r="AD117" s="53"/>
-      <c r="AE117" s="53"/>
+      <c r="C117" s="74"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="28"/>
+      <c r="O117" s="30"/>
+      <c r="T117" s="78"/>
+      <c r="U117" s="37"/>
+      <c r="W117" s="30"/>
+      <c r="X117" s="30"/>
+      <c r="Y117" s="30"/>
+      <c r="Z117" s="30"/>
+      <c r="AC117" s="30"/>
+      <c r="AD117" s="52"/>
+      <c r="AE117" s="52"/>
     </row>
     <row r="118" spans="3:31" ht="24.95" customHeight="1">
-      <c r="G118" s="29"/>
-      <c r="O118" s="31"/>
-      <c r="T118" s="79"/>
-      <c r="U118" s="38"/>
-      <c r="W118" s="31"/>
-      <c r="X118" s="31"/>
-      <c r="Y118" s="31"/>
-      <c r="Z118" s="31"/>
-      <c r="AC118" s="31"/>
-      <c r="AD118" s="53"/>
-      <c r="AE118" s="53"/>
+      <c r="G118" s="28"/>
+      <c r="O118" s="30"/>
+      <c r="T118" s="78"/>
+      <c r="U118" s="37"/>
+      <c r="W118" s="30"/>
+      <c r="X118" s="30"/>
+      <c r="Y118" s="30"/>
+      <c r="Z118" s="30"/>
+      <c r="AC118" s="30"/>
+      <c r="AD118" s="52"/>
+      <c r="AE118" s="52"/>
     </row>
     <row r="119" spans="3:31" ht="24.95" customHeight="1">
-      <c r="G119" s="29"/>
-      <c r="O119" s="31"/>
-      <c r="T119" s="79"/>
-      <c r="U119" s="38"/>
-      <c r="W119" s="31"/>
-      <c r="X119" s="31"/>
-      <c r="Y119" s="31"/>
-      <c r="Z119" s="29"/>
-      <c r="AC119" s="31"/>
-      <c r="AD119" s="53"/>
-      <c r="AE119" s="53"/>
+      <c r="G119" s="28"/>
+      <c r="O119" s="30"/>
+      <c r="T119" s="78"/>
+      <c r="U119" s="37"/>
+      <c r="W119" s="30"/>
+      <c r="X119" s="30"/>
+      <c r="Y119" s="30"/>
+      <c r="Z119" s="28"/>
+      <c r="AC119" s="30"/>
+      <c r="AD119" s="52"/>
+      <c r="AE119" s="52"/>
     </row>
     <row r="120" spans="3:31" ht="24.95" customHeight="1">
-      <c r="G120" s="29"/>
-      <c r="O120" s="31"/>
-      <c r="T120" s="79"/>
-      <c r="U120" s="38"/>
-      <c r="W120" s="31"/>
-      <c r="AD120" s="53"/>
-      <c r="AE120" s="53"/>
+      <c r="G120" s="28"/>
+      <c r="O120" s="30"/>
+      <c r="T120" s="78"/>
+      <c r="U120" s="37"/>
+      <c r="W120" s="30"/>
+      <c r="AD120" s="52"/>
+      <c r="AE120" s="52"/>
     </row>
     <row r="121" spans="3:31" ht="24.95" customHeight="1">
-      <c r="G121" s="29"/>
-      <c r="O121" s="31"/>
-      <c r="T121" s="79"/>
-      <c r="U121" s="38"/>
-      <c r="W121" s="31"/>
-      <c r="X121" s="31"/>
-      <c r="Y121" s="31"/>
-      <c r="Z121" s="31"/>
-      <c r="AC121" s="31"/>
-      <c r="AD121" s="53"/>
-      <c r="AE121" s="53"/>
+      <c r="G121" s="28"/>
+      <c r="O121" s="30"/>
+      <c r="T121" s="78"/>
+      <c r="U121" s="37"/>
+      <c r="W121" s="30"/>
+      <c r="X121" s="30"/>
+      <c r="Y121" s="30"/>
+      <c r="Z121" s="30"/>
+      <c r="AC121" s="30"/>
+      <c r="AD121" s="52"/>
+      <c r="AE121" s="52"/>
     </row>
     <row r="122" spans="3:31" ht="24.95" customHeight="1">
-      <c r="G122" s="29"/>
-      <c r="O122" s="31"/>
-      <c r="T122" s="79"/>
-      <c r="U122" s="38"/>
-      <c r="W122" s="31"/>
-      <c r="X122" s="31"/>
-      <c r="Y122" s="31"/>
-      <c r="Z122" s="29"/>
-      <c r="AC122" s="31"/>
-      <c r="AD122" s="53"/>
-      <c r="AE122" s="53"/>
+      <c r="G122" s="28"/>
+      <c r="O122" s="30"/>
+      <c r="T122" s="78"/>
+      <c r="U122" s="37"/>
+      <c r="W122" s="30"/>
+      <c r="X122" s="30"/>
+      <c r="Y122" s="30"/>
+      <c r="Z122" s="28"/>
+      <c r="AC122" s="30"/>
+      <c r="AD122" s="52"/>
+      <c r="AE122" s="52"/>
     </row>
     <row r="123" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C123" s="31"/>
-      <c r="D123" s="31"/>
-      <c r="E123" s="31"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="29"/>
-      <c r="O123" s="31"/>
-      <c r="T123" s="79"/>
-      <c r="U123" s="38"/>
-      <c r="W123" s="31"/>
-      <c r="AD123" s="53"/>
-      <c r="AE123" s="53"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="O123" s="30"/>
+      <c r="T123" s="78"/>
+      <c r="U123" s="37"/>
+      <c r="W123" s="30"/>
+      <c r="AD123" s="52"/>
+      <c r="AE123" s="52"/>
     </row>
     <row r="124" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C124" s="31"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="45"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="29"/>
-      <c r="O124" s="31"/>
-      <c r="T124" s="79"/>
-      <c r="U124" s="38"/>
-      <c r="W124" s="31"/>
-      <c r="AD124" s="53"/>
-      <c r="AE124" s="53"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="44"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
+      <c r="O124" s="30"/>
+      <c r="T124" s="78"/>
+      <c r="U124" s="37"/>
+      <c r="W124" s="30"/>
+      <c r="AD124" s="52"/>
+      <c r="AE124" s="52"/>
     </row>
     <row r="125" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C125" s="73"/>
-      <c r="D125" s="73"/>
-      <c r="E125" s="73"/>
-      <c r="F125" s="73"/>
-      <c r="G125" s="29"/>
-      <c r="O125" s="31"/>
-      <c r="T125" s="79"/>
-      <c r="U125" s="38"/>
-      <c r="W125" s="31"/>
-      <c r="AD125" s="53"/>
-      <c r="AE125" s="53"/>
+      <c r="C125" s="72"/>
+      <c r="D125" s="72"/>
+      <c r="E125" s="72"/>
+      <c r="F125" s="72"/>
+      <c r="G125" s="28"/>
+      <c r="O125" s="30"/>
+      <c r="T125" s="78"/>
+      <c r="U125" s="37"/>
+      <c r="W125" s="30"/>
+      <c r="AD125" s="52"/>
+      <c r="AE125" s="52"/>
     </row>
     <row r="126" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C126" s="74"/>
-      <c r="D126" s="74"/>
-      <c r="E126" s="74"/>
-      <c r="F126" s="74"/>
-      <c r="G126" s="29"/>
-      <c r="O126" s="31"/>
-      <c r="T126" s="79"/>
-      <c r="U126" s="38"/>
-      <c r="W126" s="31"/>
-      <c r="AD126" s="53"/>
-      <c r="AE126" s="53"/>
+      <c r="C126" s="73"/>
+      <c r="D126" s="73"/>
+      <c r="E126" s="73"/>
+      <c r="F126" s="73"/>
+      <c r="G126" s="28"/>
+      <c r="O126" s="30"/>
+      <c r="T126" s="78"/>
+      <c r="U126" s="37"/>
+      <c r="W126" s="30"/>
+      <c r="AD126" s="52"/>
+      <c r="AE126" s="52"/>
     </row>
     <row r="127" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C127" s="74"/>
-      <c r="D127" s="75"/>
-      <c r="E127" s="74"/>
-      <c r="F127" s="75"/>
-      <c r="G127" s="29"/>
-      <c r="O127" s="31"/>
-      <c r="T127" s="79"/>
-      <c r="U127" s="37"/>
-      <c r="W127" s="31"/>
-      <c r="AD127" s="53"/>
-      <c r="AE127" s="53"/>
+      <c r="C127" s="73"/>
+      <c r="D127" s="74"/>
+      <c r="E127" s="73"/>
+      <c r="F127" s="74"/>
+      <c r="G127" s="28"/>
+      <c r="O127" s="30"/>
+      <c r="T127" s="78"/>
+      <c r="U127" s="36"/>
+      <c r="W127" s="30"/>
+      <c r="AD127" s="52"/>
+      <c r="AE127" s="52"/>
     </row>
     <row r="128" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C128" s="76"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="75"/>
-      <c r="G128" s="29"/>
-      <c r="O128" s="31"/>
-      <c r="T128" s="79"/>
-      <c r="W128" s="31"/>
-      <c r="AD128" s="53"/>
-      <c r="AE128" s="53"/>
+      <c r="C128" s="75"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="74"/>
+      <c r="G128" s="28"/>
+      <c r="O128" s="30"/>
+      <c r="T128" s="78"/>
+      <c r="W128" s="30"/>
+      <c r="AD128" s="52"/>
+      <c r="AE128" s="52"/>
     </row>
     <row r="129" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C129" s="76"/>
-      <c r="E129" s="76"/>
-      <c r="F129" s="75"/>
-      <c r="G129" s="29"/>
-      <c r="O129" s="31"/>
-      <c r="T129" s="79"/>
-      <c r="U129" s="31"/>
-      <c r="W129" s="31"/>
-      <c r="AD129" s="53"/>
-      <c r="AE129" s="53"/>
+      <c r="C129" s="75"/>
+      <c r="E129" s="75"/>
+      <c r="F129" s="74"/>
+      <c r="G129" s="28"/>
+      <c r="O129" s="30"/>
+      <c r="T129" s="78"/>
+      <c r="U129" s="30"/>
+      <c r="W129" s="30"/>
+      <c r="AD129" s="52"/>
+      <c r="AE129" s="52"/>
     </row>
     <row r="130" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C130" s="76"/>
-      <c r="E130" s="75"/>
-      <c r="F130" s="75"/>
-      <c r="G130" s="29"/>
-      <c r="O130" s="31"/>
-      <c r="T130" s="79"/>
-      <c r="U130" s="31"/>
-      <c r="W130" s="31"/>
-      <c r="AD130" s="53"/>
-      <c r="AE130" s="53"/>
+      <c r="C130" s="75"/>
+      <c r="E130" s="74"/>
+      <c r="F130" s="74"/>
+      <c r="G130" s="28"/>
+      <c r="O130" s="30"/>
+      <c r="T130" s="78"/>
+      <c r="U130" s="30"/>
+      <c r="W130" s="30"/>
+      <c r="AD130" s="52"/>
+      <c r="AE130" s="52"/>
     </row>
     <row r="131" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C131" s="76"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="75"/>
-      <c r="F131" s="75"/>
-      <c r="G131" s="29"/>
-      <c r="O131" s="31"/>
-      <c r="T131" s="79"/>
-      <c r="U131" s="80"/>
-      <c r="W131" s="31"/>
-      <c r="AD131" s="53"/>
-      <c r="AE131" s="53"/>
+      <c r="C131" s="75"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="74"/>
+      <c r="F131" s="74"/>
+      <c r="G131" s="28"/>
+      <c r="O131" s="30"/>
+      <c r="T131" s="78"/>
+      <c r="U131" s="79"/>
+      <c r="W131" s="30"/>
+      <c r="AD131" s="52"/>
+      <c r="AE131" s="52"/>
     </row>
     <row r="132" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C132" s="76"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="75"/>
-      <c r="F132" s="75"/>
-      <c r="G132" s="29"/>
-      <c r="O132" s="31"/>
-      <c r="T132" s="79"/>
-      <c r="U132" s="80"/>
-      <c r="W132" s="31"/>
-      <c r="AD132" s="53"/>
-      <c r="AE132" s="53"/>
+      <c r="C132" s="75"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="74"/>
+      <c r="F132" s="74"/>
+      <c r="G132" s="28"/>
+      <c r="O132" s="30"/>
+      <c r="T132" s="78"/>
+      <c r="U132" s="79"/>
+      <c r="W132" s="30"/>
+      <c r="AD132" s="52"/>
+      <c r="AE132" s="52"/>
     </row>
     <row r="133" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C133" s="76"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="75"/>
-      <c r="F133" s="75"/>
-      <c r="G133" s="29"/>
-      <c r="O133" s="31"/>
-      <c r="T133" s="79"/>
-      <c r="U133" s="53"/>
-      <c r="W133" s="31"/>
-      <c r="AD133" s="53"/>
-      <c r="AE133" s="53"/>
+      <c r="C133" s="75"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="74"/>
+      <c r="F133" s="74"/>
+      <c r="G133" s="28"/>
+      <c r="O133" s="30"/>
+      <c r="T133" s="78"/>
+      <c r="U133" s="52"/>
+      <c r="W133" s="30"/>
+      <c r="AD133" s="52"/>
+      <c r="AE133" s="52"/>
     </row>
     <row r="134" spans="3:31" ht="24.95" customHeight="1">
-      <c r="G134" s="29"/>
-      <c r="O134" s="31"/>
-      <c r="T134" s="81"/>
-      <c r="U134" s="81"/>
-      <c r="W134" s="31"/>
-      <c r="AD134" s="53"/>
-      <c r="AE134" s="53"/>
+      <c r="G134" s="28"/>
+      <c r="O134" s="30"/>
+      <c r="T134" s="80"/>
+      <c r="U134" s="80"/>
+      <c r="W134" s="30"/>
+      <c r="AD134" s="52"/>
+      <c r="AE134" s="52"/>
     </row>
     <row r="135" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C135" s="74"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="31"/>
-      <c r="F135" s="31"/>
-      <c r="G135" s="29"/>
-      <c r="O135" s="31"/>
-      <c r="T135" s="81"/>
-      <c r="U135" s="81"/>
-      <c r="W135" s="31"/>
-      <c r="AD135" s="53"/>
-      <c r="AE135" s="53"/>
+      <c r="C135" s="73"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="28"/>
+      <c r="O135" s="30"/>
+      <c r="T135" s="80"/>
+      <c r="U135" s="80"/>
+      <c r="W135" s="30"/>
+      <c r="AD135" s="52"/>
+      <c r="AE135" s="52"/>
     </row>
     <row r="136" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C136" s="39"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="39"/>
-      <c r="G136" s="29"/>
-      <c r="O136" s="31"/>
-      <c r="T136" s="81"/>
-      <c r="U136" s="81"/>
-      <c r="V136" s="39"/>
-      <c r="W136" s="31"/>
-      <c r="AD136" s="53"/>
-      <c r="AE136" s="53"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="38"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="38"/>
+      <c r="G136" s="28"/>
+      <c r="O136" s="30"/>
+      <c r="T136" s="80"/>
+      <c r="U136" s="80"/>
+      <c r="V136" s="38"/>
+      <c r="W136" s="30"/>
+      <c r="AD136" s="52"/>
+      <c r="AE136" s="52"/>
     </row>
     <row r="137" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
-      <c r="F137" s="39"/>
-      <c r="G137" s="29"/>
-      <c r="O137" s="31"/>
-      <c r="T137" s="81"/>
-      <c r="U137" s="81"/>
-      <c r="V137" s="39"/>
-      <c r="W137" s="31"/>
-      <c r="AD137" s="53"/>
-      <c r="AE137" s="53"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
+      <c r="G137" s="28"/>
+      <c r="O137" s="30"/>
+      <c r="T137" s="80"/>
+      <c r="U137" s="80"/>
+      <c r="V137" s="38"/>
+      <c r="W137" s="30"/>
+      <c r="AD137" s="52"/>
+      <c r="AE137" s="52"/>
     </row>
     <row r="138" spans="3:31" ht="24.95" customHeight="1">
-      <c r="E138" s="75"/>
-      <c r="F138" s="75"/>
-      <c r="G138" s="29"/>
-      <c r="O138" s="31"/>
-      <c r="T138" s="81"/>
-      <c r="U138" s="81"/>
-      <c r="W138" s="31"/>
-      <c r="AD138" s="53"/>
-      <c r="AE138" s="53"/>
+      <c r="E138" s="74"/>
+      <c r="F138" s="74"/>
+      <c r="G138" s="28"/>
+      <c r="O138" s="30"/>
+      <c r="T138" s="80"/>
+      <c r="U138" s="80"/>
+      <c r="W138" s="30"/>
+      <c r="AD138" s="52"/>
+      <c r="AE138" s="52"/>
     </row>
     <row r="139" spans="3:31" ht="24.95" customHeight="1">
-      <c r="D139" s="75"/>
-      <c r="E139" s="75"/>
-      <c r="F139" s="75"/>
-      <c r="G139" s="29"/>
-      <c r="I139" s="40"/>
-      <c r="L139" s="45"/>
-      <c r="M139" s="45"/>
-      <c r="N139" s="40"/>
-      <c r="T139" s="81"/>
-      <c r="U139" s="81"/>
-      <c r="W139" s="31"/>
-      <c r="AD139" s="53"/>
-      <c r="AE139" s="53"/>
+      <c r="D139" s="74"/>
+      <c r="E139" s="74"/>
+      <c r="F139" s="74"/>
+      <c r="G139" s="28"/>
+      <c r="I139" s="39"/>
+      <c r="L139" s="44"/>
+      <c r="M139" s="44"/>
+      <c r="N139" s="39"/>
+      <c r="T139" s="80"/>
+      <c r="U139" s="80"/>
+      <c r="W139" s="30"/>
+      <c r="AD139" s="52"/>
+      <c r="AE139" s="52"/>
     </row>
     <row r="140" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C140" s="74"/>
-      <c r="D140" s="75"/>
-      <c r="E140" s="75"/>
-      <c r="F140" s="75"/>
-      <c r="G140" s="29"/>
-      <c r="I140" s="40"/>
-      <c r="L140" s="31"/>
-      <c r="N140" s="40"/>
-      <c r="T140" s="81"/>
-      <c r="U140" s="81"/>
-      <c r="W140" s="31"/>
-      <c r="AD140" s="53"/>
-      <c r="AE140" s="53"/>
+      <c r="C140" s="73"/>
+      <c r="D140" s="74"/>
+      <c r="E140" s="74"/>
+      <c r="F140" s="74"/>
+      <c r="G140" s="28"/>
+      <c r="I140" s="39"/>
+      <c r="L140" s="30"/>
+      <c r="N140" s="39"/>
+      <c r="T140" s="80"/>
+      <c r="U140" s="80"/>
+      <c r="W140" s="30"/>
+      <c r="AD140" s="52"/>
+      <c r="AE140" s="52"/>
     </row>
     <row r="141" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C141" s="37"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="29"/>
-      <c r="I141" s="40"/>
-      <c r="L141" s="45"/>
-      <c r="M141" s="45"/>
-      <c r="N141" s="40"/>
-      <c r="T141" s="81"/>
-      <c r="U141" s="81"/>
-      <c r="W141" s="31"/>
-      <c r="AD141" s="53"/>
-      <c r="AE141" s="53"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="36"/>
+      <c r="E141" s="36"/>
+      <c r="F141" s="36"/>
+      <c r="G141" s="28"/>
+      <c r="I141" s="39"/>
+      <c r="L141" s="44"/>
+      <c r="M141" s="44"/>
+      <c r="N141" s="39"/>
+      <c r="T141" s="80"/>
+      <c r="U141" s="80"/>
+      <c r="W141" s="30"/>
+      <c r="AD141" s="52"/>
+      <c r="AE141" s="52"/>
     </row>
     <row r="142" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C142" s="40"/>
-      <c r="D142" s="40"/>
-      <c r="E142" s="40"/>
-      <c r="F142" s="40"/>
-      <c r="G142" s="40"/>
-      <c r="I142" s="40"/>
-      <c r="L142" s="31"/>
-      <c r="N142" s="40"/>
-      <c r="T142" s="81"/>
-      <c r="U142" s="81"/>
-      <c r="W142" s="31"/>
-      <c r="AD142" s="53"/>
-      <c r="AE142" s="53"/>
+      <c r="C142" s="39"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="39"/>
+      <c r="F142" s="39"/>
+      <c r="G142" s="39"/>
+      <c r="I142" s="39"/>
+      <c r="L142" s="30"/>
+      <c r="N142" s="39"/>
+      <c r="T142" s="80"/>
+      <c r="U142" s="80"/>
+      <c r="W142" s="30"/>
+      <c r="AD142" s="52"/>
+      <c r="AE142" s="52"/>
     </row>
     <row r="143" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C143" s="40"/>
-      <c r="D143" s="40"/>
-      <c r="E143" s="40"/>
-      <c r="F143" s="40"/>
-      <c r="G143" s="40"/>
-      <c r="N143" s="47"/>
-      <c r="O143" s="31"/>
-      <c r="V143" s="31"/>
-      <c r="W143" s="31"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="39"/>
+      <c r="F143" s="39"/>
+      <c r="G143" s="39"/>
+      <c r="N143" s="46"/>
+      <c r="O143" s="30"/>
+      <c r="V143" s="30"/>
+      <c r="W143" s="30"/>
     </row>
     <row r="144" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C144" s="40"/>
-      <c r="D144" s="40"/>
-      <c r="E144" s="40"/>
-      <c r="F144" s="40"/>
-      <c r="G144" s="40"/>
-      <c r="H144" s="84"/>
-      <c r="L144" s="37"/>
-      <c r="M144" s="37"/>
-      <c r="N144" s="37"/>
-      <c r="O144" s="37"/>
-      <c r="T144" s="70"/>
-      <c r="U144" s="70"/>
-      <c r="V144" s="31"/>
-      <c r="W144" s="53"/>
-      <c r="X144" s="53"/>
-      <c r="Y144" s="53"/>
-      <c r="Z144" s="53"/>
-      <c r="AA144" s="53"/>
-      <c r="AB144" s="53"/>
-      <c r="AC144" s="53"/>
-      <c r="AD144" s="53"/>
-      <c r="AE144" s="53"/>
+      <c r="C144" s="39"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="39"/>
+      <c r="F144" s="39"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="83"/>
+      <c r="L144" s="36"/>
+      <c r="M144" s="36"/>
+      <c r="N144" s="36"/>
+      <c r="O144" s="36"/>
+      <c r="T144" s="69"/>
+      <c r="U144" s="69"/>
+      <c r="V144" s="30"/>
+      <c r="W144" s="52"/>
+      <c r="X144" s="52"/>
+      <c r="Y144" s="52"/>
+      <c r="Z144" s="52"/>
+      <c r="AA144" s="52"/>
+      <c r="AB144" s="52"/>
+      <c r="AC144" s="52"/>
+      <c r="AD144" s="52"/>
+      <c r="AE144" s="52"/>
     </row>
     <row r="145" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C145" s="40"/>
-      <c r="D145" s="40"/>
-      <c r="E145" s="40"/>
-      <c r="F145" s="40"/>
-      <c r="G145" s="40"/>
-      <c r="L145" s="44"/>
-      <c r="M145" s="44"/>
-      <c r="N145" s="47"/>
-      <c r="O145" s="44"/>
-      <c r="T145" s="85"/>
-      <c r="U145" s="86"/>
-      <c r="W145" s="82"/>
-      <c r="X145" s="53"/>
-      <c r="Y145" s="83"/>
-      <c r="Z145" s="83"/>
-      <c r="AA145" s="83"/>
-      <c r="AB145" s="83"/>
-      <c r="AC145" s="83"/>
-      <c r="AD145" s="83"/>
-      <c r="AE145" s="83"/>
+      <c r="C145" s="39"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="39"/>
+      <c r="F145" s="39"/>
+      <c r="G145" s="39"/>
+      <c r="L145" s="43"/>
+      <c r="M145" s="43"/>
+      <c r="N145" s="46"/>
+      <c r="O145" s="43"/>
+      <c r="T145" s="84"/>
+      <c r="U145" s="85"/>
+      <c r="W145" s="81"/>
+      <c r="X145" s="52"/>
+      <c r="Y145" s="82"/>
+      <c r="Z145" s="82"/>
+      <c r="AA145" s="82"/>
+      <c r="AB145" s="82"/>
+      <c r="AC145" s="82"/>
+      <c r="AD145" s="82"/>
+      <c r="AE145" s="82"/>
     </row>
     <row r="146" spans="3:31">
-      <c r="C146" s="40"/>
-      <c r="D146" s="40"/>
-      <c r="E146" s="40"/>
-      <c r="F146" s="40"/>
-      <c r="G146" s="31"/>
-      <c r="L146" s="44"/>
-      <c r="M146" s="44"/>
-      <c r="N146" s="47"/>
-      <c r="O146" s="44"/>
-      <c r="T146" s="86"/>
-      <c r="U146" s="86"/>
-      <c r="W146" s="82"/>
-      <c r="X146" s="53"/>
-      <c r="Y146" s="83"/>
-      <c r="Z146" s="83"/>
-      <c r="AA146" s="83"/>
-      <c r="AB146" s="83"/>
-      <c r="AC146" s="83"/>
-      <c r="AD146" s="83"/>
-      <c r="AE146" s="83"/>
+      <c r="C146" s="39"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="39"/>
+      <c r="F146" s="39"/>
+      <c r="G146" s="30"/>
+      <c r="L146" s="43"/>
+      <c r="M146" s="43"/>
+      <c r="N146" s="46"/>
+      <c r="O146" s="43"/>
+      <c r="T146" s="85"/>
+      <c r="U146" s="85"/>
+      <c r="W146" s="81"/>
+      <c r="X146" s="52"/>
+      <c r="Y146" s="82"/>
+      <c r="Z146" s="82"/>
+      <c r="AA146" s="82"/>
+      <c r="AB146" s="82"/>
+      <c r="AC146" s="82"/>
+      <c r="AD146" s="82"/>
+      <c r="AE146" s="82"/>
     </row>
     <row r="147" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C147" s="40"/>
-      <c r="D147" s="40"/>
-      <c r="E147" s="40"/>
-      <c r="F147" s="40"/>
-      <c r="G147" s="84"/>
-      <c r="L147" s="44"/>
-      <c r="M147" s="44"/>
-      <c r="N147" s="47"/>
-      <c r="O147" s="44"/>
-      <c r="T147" s="86"/>
-      <c r="U147" s="86"/>
-      <c r="V147" s="53"/>
-      <c r="W147" s="82"/>
-      <c r="X147" s="53"/>
-      <c r="Y147" s="83"/>
-      <c r="Z147" s="83"/>
-      <c r="AA147" s="83"/>
-      <c r="AB147" s="83"/>
-      <c r="AC147" s="83"/>
-      <c r="AD147" s="83"/>
-      <c r="AE147" s="83"/>
+      <c r="C147" s="39"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="39"/>
+      <c r="F147" s="39"/>
+      <c r="G147" s="83"/>
+      <c r="L147" s="43"/>
+      <c r="M147" s="43"/>
+      <c r="N147" s="46"/>
+      <c r="O147" s="43"/>
+      <c r="T147" s="85"/>
+      <c r="U147" s="85"/>
+      <c r="V147" s="52"/>
+      <c r="W147" s="81"/>
+      <c r="X147" s="52"/>
+      <c r="Y147" s="82"/>
+      <c r="Z147" s="82"/>
+      <c r="AA147" s="82"/>
+      <c r="AB147" s="82"/>
+      <c r="AC147" s="82"/>
+      <c r="AD147" s="82"/>
+      <c r="AE147" s="82"/>
     </row>
     <row r="148" spans="3:31" ht="24.95" customHeight="1">
-      <c r="D148" s="74"/>
-      <c r="E148" s="31"/>
-      <c r="L148" s="44"/>
-      <c r="M148" s="44"/>
-      <c r="N148" s="47"/>
-      <c r="O148" s="44"/>
-      <c r="V148" s="86"/>
+      <c r="D148" s="73"/>
+      <c r="E148" s="30"/>
+      <c r="L148" s="43"/>
+      <c r="M148" s="43"/>
+      <c r="N148" s="46"/>
+      <c r="O148" s="43"/>
+      <c r="V148" s="85"/>
     </row>
     <row r="149" spans="3:31" ht="24.95" customHeight="1">
-      <c r="E149" s="31"/>
-      <c r="L149" s="44"/>
-      <c r="M149" s="44"/>
-      <c r="N149" s="47"/>
-      <c r="O149" s="44"/>
-      <c r="V149" s="86"/>
+      <c r="E149" s="30"/>
+      <c r="L149" s="43"/>
+      <c r="M149" s="43"/>
+      <c r="N149" s="46"/>
+      <c r="O149" s="43"/>
+      <c r="V149" s="85"/>
     </row>
     <row r="150" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C150" s="73"/>
-      <c r="D150" s="73"/>
-      <c r="E150" s="73"/>
-      <c r="F150" s="73"/>
-      <c r="L150" s="44"/>
-      <c r="M150" s="44"/>
-      <c r="N150" s="47"/>
-      <c r="O150" s="44"/>
-      <c r="V150" s="86"/>
+      <c r="C150" s="72"/>
+      <c r="D150" s="72"/>
+      <c r="E150" s="72"/>
+      <c r="F150" s="72"/>
+      <c r="L150" s="43"/>
+      <c r="M150" s="43"/>
+      <c r="N150" s="46"/>
+      <c r="O150" s="43"/>
+      <c r="V150" s="85"/>
     </row>
     <row r="151" spans="3:31" ht="24.95" customHeight="1">
-      <c r="L151" s="44"/>
-      <c r="M151" s="44"/>
-      <c r="N151" s="47"/>
-      <c r="O151" s="44"/>
+      <c r="L151" s="43"/>
+      <c r="M151" s="43"/>
+      <c r="N151" s="46"/>
+      <c r="O151" s="43"/>
     </row>
     <row r="152" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C152" s="75"/>
-      <c r="D152" s="75"/>
-      <c r="E152" s="75"/>
-      <c r="F152" s="75"/>
-      <c r="N152" s="47"/>
-      <c r="O152" s="44"/>
+      <c r="C152" s="74"/>
+      <c r="D152" s="74"/>
+      <c r="E152" s="74"/>
+      <c r="F152" s="74"/>
+      <c r="N152" s="46"/>
+      <c r="O152" s="43"/>
     </row>
     <row r="153" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C153" s="73"/>
-      <c r="D153" s="73"/>
-      <c r="E153" s="73"/>
-      <c r="F153" s="73"/>
-      <c r="M153" s="44"/>
-      <c r="N153" s="47"/>
-      <c r="O153" s="47"/>
+      <c r="C153" s="72"/>
+      <c r="D153" s="72"/>
+      <c r="E153" s="72"/>
+      <c r="F153" s="72"/>
+      <c r="M153" s="43"/>
+      <c r="N153" s="46"/>
+      <c r="O153" s="46"/>
     </row>
     <row r="154" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C154" s="75"/>
-      <c r="D154" s="75"/>
-      <c r="E154" s="75"/>
-      <c r="F154" s="75"/>
-      <c r="L154" s="44"/>
-      <c r="M154" s="44"/>
-      <c r="N154" s="47"/>
-      <c r="O154" s="47"/>
+      <c r="C154" s="74"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="74"/>
+      <c r="F154" s="74"/>
+      <c r="L154" s="43"/>
+      <c r="M154" s="43"/>
+      <c r="N154" s="46"/>
+      <c r="O154" s="46"/>
     </row>
     <row r="155" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C155" s="75"/>
-      <c r="D155" s="75"/>
-      <c r="E155" s="75"/>
-      <c r="F155" s="75"/>
+      <c r="C155" s="74"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="74"/>
+      <c r="F155" s="74"/>
     </row>
     <row r="156" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C156" s="75"/>
-      <c r="D156" s="75"/>
-      <c r="E156" s="75"/>
-      <c r="F156" s="75"/>
+      <c r="C156" s="74"/>
+      <c r="D156" s="74"/>
+      <c r="E156" s="74"/>
+      <c r="F156" s="74"/>
     </row>
     <row r="157" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C157" s="75"/>
-      <c r="D157" s="75"/>
-      <c r="E157" s="75"/>
-      <c r="F157" s="75"/>
+      <c r="C157" s="74"/>
+      <c r="D157" s="74"/>
+      <c r="E157" s="74"/>
+      <c r="F157" s="74"/>
     </row>
     <row r="158" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C158" s="75"/>
-      <c r="D158" s="75"/>
-      <c r="E158" s="75"/>
-      <c r="F158" s="75"/>
-      <c r="Q158" s="31"/>
-      <c r="R158" s="31"/>
-      <c r="S158" s="31"/>
-      <c r="T158" s="31"/>
+      <c r="C158" s="74"/>
+      <c r="D158" s="74"/>
+      <c r="E158" s="74"/>
+      <c r="F158" s="74"/>
+      <c r="Q158" s="30"/>
+      <c r="R158" s="30"/>
+      <c r="S158" s="30"/>
+      <c r="T158" s="30"/>
     </row>
     <row r="159" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C159" s="75"/>
-      <c r="D159" s="75"/>
-      <c r="E159" s="75"/>
-      <c r="F159" s="75"/>
+      <c r="C159" s="74"/>
+      <c r="D159" s="74"/>
+      <c r="E159" s="74"/>
+      <c r="F159" s="74"/>
     </row>
     <row r="160" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C160" s="75"/>
-      <c r="D160" s="75"/>
-      <c r="E160" s="75"/>
-      <c r="F160" s="75"/>
+      <c r="C160" s="74"/>
+      <c r="D160" s="74"/>
+      <c r="E160" s="74"/>
+      <c r="F160" s="74"/>
     </row>
     <row r="161" spans="3:15" ht="24.95" customHeight="1">
-      <c r="C161" s="37"/>
-      <c r="D161" s="37"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="36"/>
     </row>
     <row r="162" spans="3:15" ht="24.95" customHeight="1">
-      <c r="H162" s="87"/>
-      <c r="I162" s="87"/>
-      <c r="J162" s="87"/>
-      <c r="K162" s="87"/>
-      <c r="L162" s="87"/>
-      <c r="M162" s="87"/>
-      <c r="N162" s="87"/>
-      <c r="O162" s="87"/>
+      <c r="H162" s="86"/>
+      <c r="I162" s="86"/>
+      <c r="J162" s="86"/>
+      <c r="K162" s="86"/>
+      <c r="L162" s="86"/>
+      <c r="M162" s="86"/>
+      <c r="N162" s="86"/>
+      <c r="O162" s="86"/>
     </row>
     <row r="163" spans="3:15" ht="24.95" customHeight="1">
-      <c r="C163" s="31"/>
-      <c r="D163" s="31"/>
-      <c r="E163" s="31"/>
-      <c r="F163" s="31"/>
-      <c r="H163" s="29"/>
-      <c r="I163" s="29"/>
-      <c r="J163" s="29"/>
-      <c r="K163" s="29"/>
-      <c r="L163" s="29"/>
-      <c r="M163" s="29"/>
-      <c r="N163" s="41"/>
-      <c r="O163" s="31"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="30"/>
+      <c r="H163" s="28"/>
+      <c r="I163" s="28"/>
+      <c r="J163" s="28"/>
+      <c r="K163" s="28"/>
+      <c r="L163" s="28"/>
+      <c r="M163" s="28"/>
+      <c r="N163" s="40"/>
+      <c r="O163" s="30"/>
     </row>
     <row r="164" spans="3:15" ht="24.95" customHeight="1">
-      <c r="C164" s="31"/>
-      <c r="D164" s="31"/>
-      <c r="E164" s="31"/>
-      <c r="F164" s="31"/>
-      <c r="J164" s="41"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="30"/>
+      <c r="J164" s="40"/>
     </row>
     <row r="165" spans="3:15" ht="24.95" customHeight="1">
-      <c r="C165" s="31"/>
-      <c r="D165" s="31"/>
-      <c r="E165" s="31"/>
-      <c r="F165" s="31"/>
-      <c r="G165" s="87"/>
-      <c r="J165" s="41"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="30"/>
+      <c r="G165" s="86"/>
+      <c r="J165" s="40"/>
     </row>
     <row r="166" spans="3:15" ht="24.95" customHeight="1">
-      <c r="C166" s="31"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="31"/>
-      <c r="F166" s="31"/>
-      <c r="J166" s="41"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="30"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="30"/>
+      <c r="J166" s="40"/>
     </row>
     <row r="167" spans="3:15" ht="24.95" customHeight="1">
-      <c r="C167" s="31"/>
-      <c r="D167" s="31"/>
-      <c r="E167" s="31"/>
-      <c r="F167" s="31"/>
-      <c r="G167" s="29"/>
-      <c r="J167" s="41"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="30"/>
+      <c r="G167" s="28"/>
+      <c r="J167" s="40"/>
     </row>
     <row r="168" spans="3:15" ht="24.95" customHeight="1">
-      <c r="G168" s="29"/>
+      <c r="G168" s="28"/>
     </row>
     <row r="169" spans="3:15" ht="24.95" customHeight="1">
-      <c r="G169" s="29"/>
+      <c r="G169" s="28"/>
     </row>
     <row r="170" spans="3:15" ht="24.95" customHeight="1">
-      <c r="G170" s="29"/>
+      <c r="G170" s="28"/>
     </row>
     <row r="171" spans="3:15" ht="24.75" customHeight="1">
-      <c r="C171" s="74"/>
-      <c r="D171" s="74"/>
-      <c r="E171" s="31"/>
-      <c r="F171" s="74"/>
-      <c r="G171" s="29"/>
+      <c r="C171" s="73"/>
+      <c r="D171" s="73"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="73"/>
+      <c r="G171" s="28"/>
     </row>
     <row r="172" spans="3:15" ht="21.75" customHeight="1">
-      <c r="E172" s="29"/>
+      <c r="E172" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D13:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="S7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:R6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="H9:U10"/>
+    <mergeCell ref="C2:U2"/>
+    <mergeCell ref="B1:B79"/>
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="Z21:AA22"/>
     <mergeCell ref="X19:AA19"/>
@@ -6151,53 +6223,25 @@
     <mergeCell ref="F69:F79"/>
     <mergeCell ref="C59:F68"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H9:U10"/>
-    <mergeCell ref="C2:U2"/>
-    <mergeCell ref="B1:B79"/>
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:R6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D13:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6233,41 +6277,41 @@
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="93" customWidth="1"/>
+    <col min="7" max="7" width="10" style="92" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="F1" s="91"/>
-      <c r="G1" s="92">
+      <c r="F1" s="90"/>
+      <c r="G1" s="91">
         <v>12.34</v>
       </c>
-      <c r="H1" s="91">
+      <c r="H1" s="90">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="F2" s="91"/>
-      <c r="G2" s="92">
+      <c r="F2" s="90"/>
+      <c r="G2" s="91">
         <v>7.28</v>
       </c>
-      <c r="H2" s="91">
+      <c r="H2" s="90">
         <v>90</v>
       </c>
-      <c r="J2" s="93"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="91">
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="90">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="18" customHeight="1" thickBot="1">
-      <c r="F4" s="91"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="91">
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="90">
         <v>90</v>
       </c>
     </row>
@@ -6284,9 +6328,9 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="91">
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="90">
         <v>90</v>
       </c>
     </row>
@@ -6297,9 +6341,9 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="91">
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="90">
         <v>90</v>
       </c>
     </row>
@@ -6310,9 +6354,9 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="91">
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="90">
         <v>90</v>
       </c>
     </row>
@@ -6323,9 +6367,9 @@
       <c r="C8" s="9"/>
       <c r="D8" s="21"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="91">
+      <c r="F8" s="90"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="90">
         <v>90</v>
       </c>
     </row>
@@ -6336,9 +6380,9 @@
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="91">
+      <c r="F9" s="90"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="90">
         <v>90</v>
       </c>
     </row>
@@ -6351,9 +6395,9 @@
       <c r="E10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="91"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="91">
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="90">
         <v>90</v>
       </c>
     </row>
@@ -6366,9 +6410,9 @@
       <c r="E11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="91">
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="90">
         <v>90</v>
       </c>
       <c r="I11" s="12" t="str">
@@ -6389,9 +6433,9 @@
       <c r="E12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="91">
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="90">
         <v>90</v>
       </c>
       <c r="I12" s="13" t="str">
@@ -6411,11 +6455,11 @@
       <c r="E13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92">
+      <c r="F13" s="90"/>
+      <c r="G13" s="91">
         <v>4.66</v>
       </c>
-      <c r="H13" s="91">
+      <c r="H13" s="90">
         <v>90</v>
       </c>
       <c r="I13" s="12" t="str">
@@ -6428,13 +6472,13 @@
         <v>44</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="98"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="92">
+      <c r="F14" s="90"/>
+      <c r="G14" s="91">
         <v>4.4400000000000004</v>
       </c>
-      <c r="H14" s="91">
+      <c r="H14" s="90">
         <v>70</v>
       </c>
       <c r="I14" s="12">
@@ -6449,9 +6493,9 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="91">
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6462,9 +6506,9 @@
       <c r="C16" s="9"/>
       <c r="D16" s="14"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="91">
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6475,9 +6519,9 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="91">
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6488,9 +6532,9 @@
       <c r="C18" s="9"/>
       <c r="D18" s="21"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="91">
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6503,9 +6547,9 @@
       <c r="E19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="91"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="91">
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6518,9 +6562,9 @@
       <c r="E20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="91">
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6533,9 +6577,9 @@
       <c r="E21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="91"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="91">
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6548,9 +6592,9 @@
       <c r="E22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="91"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="91">
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6563,9 +6607,9 @@
       <c r="E23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="91"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="91">
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6578,9 +6622,9 @@
       <c r="E24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="91"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="91">
+      <c r="F24" s="90"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6593,9 +6637,9 @@
       <c r="E25" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="91"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="91">
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6608,9 +6652,9 @@
       <c r="E26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="91"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="91">
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6623,9 +6667,9 @@
       <c r="E27" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="91"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="91">
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6638,9 +6682,9 @@
       <c r="E28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="91"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="91">
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6649,13 +6693,13 @@
         <v>67</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="94"/>
+      <c r="D29" s="93"/>
       <c r="E29" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="91"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="91">
+      <c r="F29" s="90"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6666,9 +6710,9 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="91">
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6681,11 +6725,11 @@
       <c r="E31" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="91"/>
-      <c r="G31" s="92">
+      <c r="F31" s="90"/>
+      <c r="G31" s="91">
         <v>2.95</v>
       </c>
-      <c r="H31" s="91">
+      <c r="H31" s="90">
         <v>70</v>
       </c>
     </row>
@@ -6696,11 +6740,11 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="92">
+      <c r="F32" s="90"/>
+      <c r="G32" s="91">
         <v>2.64</v>
       </c>
-      <c r="H32" s="91">
+      <c r="H32" s="90">
         <v>50</v>
       </c>
     </row>
@@ -6711,9 +6755,9 @@
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="91">
+      <c r="F33" s="90"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="90">
         <v>50</v>
       </c>
     </row>
@@ -6724,9 +6768,9 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="91">
+      <c r="F34" s="90"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="90">
         <v>50</v>
       </c>
     </row>
@@ -6739,9 +6783,9 @@
       <c r="E35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="91"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="91">
+      <c r="F35" s="90"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="90">
         <v>50</v>
       </c>
     </row>
@@ -6752,9 +6796,9 @@
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="91">
+      <c r="F36" s="90"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="90">
         <v>50</v>
       </c>
     </row>
@@ -6765,92 +6809,92 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="91">
+      <c r="F37" s="90"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="90">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="F38" s="91"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="91">
+      <c r="F38" s="90"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="90">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="F39" s="91"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="91">
+      <c r="F39" s="90"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="90">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="F40" s="91"/>
-      <c r="G40" s="92">
+      <c r="F40" s="90"/>
+      <c r="G40" s="91">
         <v>1.5</v>
       </c>
-      <c r="H40" s="91">
+      <c r="H40" s="90">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="F41" s="91"/>
-      <c r="G41" s="92">
+      <c r="F41" s="90"/>
+      <c r="G41" s="91">
         <v>1.4</v>
       </c>
-      <c r="H41" s="91">
+      <c r="H41" s="90">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="F42" s="91"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="91">
+      <c r="F42" s="90"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="90">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="F43" s="91"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="91">
+      <c r="F43" s="90"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="90">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="F44" s="91"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="91">
+      <c r="F44" s="90"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="90">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="F45" s="91"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="91">
+      <c r="F45" s="90"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="90">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="F46" s="91"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="91">
+      <c r="F46" s="90"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="90">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="F47" s="91"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="91">
+      <c r="F47" s="90"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="90">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="F48" s="91"/>
-      <c r="G48" s="92">
+      <c r="F48" s="90"/>
+      <c r="G48" s="91">
         <v>0.44</v>
       </c>
-      <c r="H48" s="91">
+      <c r="H48" s="90">
         <v>40</v>
       </c>
     </row>

--- a/py/direction_sheet_new.xlsx
+++ b/py/direction_sheet_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4761ED-2C8D-4862-92E5-C8BC2BABB9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4635774-80A5-4CD6-8F30-4C9B4E04CBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1332,7 +1332,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1411,9 +1411,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1620,12 +1617,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1633,9 +1624,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1648,35 +1636,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1696,22 +1663,352 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="25" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="25" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="25" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="24" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="26" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1727,20 +2024,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1769,383 +2060,71 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="25" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="25" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="25" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="9" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="29" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="24" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="26" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="26" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="166" fontId="29" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2621,8 +2600,8 @@
   </sheetPr>
   <dimension ref="B1:AF172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="20.25"/>
@@ -2653,533 +2632,533 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="64.5" customHeight="1" thickBot="1">
-      <c r="B1" s="159"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="164"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="213"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="213"/>
+      <c r="U1" s="214"/>
     </row>
     <row r="2" spans="2:32" ht="66.75" customHeight="1" thickBot="1">
-      <c r="B2" s="160"/>
-      <c r="C2" s="156" t="s">
+      <c r="B2" s="210"/>
+      <c r="C2" s="206" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="126"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="207"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="115"/>
     </row>
     <row r="3" spans="2:32" ht="28.5" customHeight="1">
-      <c r="B3" s="160"/>
-      <c r="C3" s="168" t="s">
+      <c r="B3" s="210"/>
+      <c r="C3" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="169">
+      <c r="D3" s="117">
         <f>input!D18</f>
         <v>0</v>
       </c>
-      <c r="E3" s="168" t="s">
+      <c r="E3" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="170">
+      <c r="F3" s="118">
         <f>input!D8</f>
         <v>0</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="184" t="s">
+      <c r="G3" s="102"/>
+      <c r="H3" s="225" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="185" t="s">
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="226" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="198" t="s">
+      <c r="M3" s="226"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="199" t="s">
+      <c r="P3" s="194" t="s">
         <v>139</v>
       </c>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="200" t="s">
+      <c r="Q3" s="194"/>
+      <c r="R3" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="200" t="s">
+      <c r="S3" s="186" t="s">
         <v>116</v>
       </c>
-      <c r="T3" s="201" t="s">
+      <c r="T3" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="U3" s="202" t="s">
+      <c r="U3" s="196" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:32" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B4" s="160"/>
-      <c r="C4" s="171" t="s">
+      <c r="B4" s="210"/>
+      <c r="C4" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="172">
+      <c r="D4" s="120">
         <f>input!D17</f>
         <v>0</v>
       </c>
-      <c r="E4" s="171" t="s">
+      <c r="E4" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="173">
+      <c r="F4" s="121">
         <f>input!D9</f>
         <v>0</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="187" t="s">
+      <c r="G4" s="102"/>
+      <c r="H4" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="188" t="str">
+      <c r="I4" s="125" t="str">
         <f>IF(input!D12="6N01","●","")</f>
         <v/>
       </c>
-      <c r="J4" s="189" t="s">
+      <c r="J4" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="190" t="s">
+      <c r="K4" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="L4" s="194" t="s">
+      <c r="L4" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="195" t="s">
+      <c r="M4" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="N4" s="232" t="s">
+      <c r="N4" s="231" t="s">
         <v>120</v>
       </c>
-      <c r="O4" s="203"/>
-      <c r="P4" s="204"/>
-      <c r="Q4" s="204"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="205"/>
-      <c r="T4" s="206"/>
-      <c r="U4" s="207"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="187"/>
+      <c r="S4" s="187"/>
+      <c r="T4" s="189"/>
+      <c r="U4" s="197"/>
     </row>
     <row r="5" spans="2:32" ht="28.5" customHeight="1">
-      <c r="B5" s="160"/>
+      <c r="B5" s="210"/>
       <c r="C5" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="175">
+      <c r="D5" s="220">
         <f>input!D6</f>
         <v>0</v>
       </c>
-      <c r="E5" s="175"/>
-      <c r="F5" s="176"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="221"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="187">
+      <c r="H5" s="122">
         <v>6061</v>
       </c>
-      <c r="I5" s="188" t="str">
+      <c r="I5" s="125" t="str">
         <f>IF(input!D12="6061","●","")</f>
         <v/>
       </c>
-      <c r="J5" s="189"/>
-      <c r="K5" s="191">
+      <c r="J5" s="123"/>
+      <c r="K5" s="126">
         <f>input!D21</f>
         <v>0</v>
       </c>
-      <c r="L5" s="195">
+      <c r="L5" s="130">
         <f>input!D13</f>
         <v>0</v>
       </c>
-      <c r="M5" s="197">
+      <c r="M5" s="132">
         <f>ROUND(input!D14,2)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="186"/>
-      <c r="O5" s="208" t="s">
+      <c r="N5" s="227"/>
+      <c r="O5" s="173" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="209"/>
-      <c r="Q5" s="209"/>
-      <c r="R5" s="209"/>
-      <c r="S5" s="208" t="s">
+      <c r="P5" s="198"/>
+      <c r="Q5" s="198"/>
+      <c r="R5" s="198"/>
+      <c r="S5" s="173" t="s">
         <v>138</v>
       </c>
       <c r="T5" s="174"/>
-      <c r="U5" s="210"/>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
-      <c r="AF5" s="105"/>
+      <c r="U5" s="200"/>
+      <c r="AC5" s="102"/>
+      <c r="AD5" s="102"/>
+      <c r="AE5" s="102"/>
+      <c r="AF5" s="102"/>
     </row>
     <row r="6" spans="2:32" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B6" s="160"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="187">
+      <c r="B6" s="210"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="122">
         <v>6063</v>
       </c>
-      <c r="I6" s="188" t="str">
+      <c r="I6" s="125" t="str">
         <f>IF(input!D12="6063","●","")</f>
         <v/>
       </c>
-      <c r="J6" s="189" t="s">
+      <c r="J6" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="190" t="s">
+      <c r="K6" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="L6" s="194" t="s">
+      <c r="L6" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="M6" s="196" t="s">
+      <c r="M6" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="233">
+      <c r="N6" s="232">
         <f>input!K11</f>
         <v>0</v>
       </c>
-      <c r="O6" s="211"/>
-      <c r="P6" s="212"/>
-      <c r="Q6" s="212"/>
-      <c r="R6" s="212"/>
-      <c r="S6" s="211"/>
-      <c r="T6" s="213"/>
-      <c r="U6" s="214"/>
-      <c r="AB6" s="105"/>
-      <c r="AC6" s="105"/>
-      <c r="AD6" s="105"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="199"/>
+      <c r="Q6" s="199"/>
+      <c r="R6" s="199"/>
+      <c r="S6" s="175"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="201"/>
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
     </row>
     <row r="7" spans="2:32" ht="28.5" customHeight="1">
-      <c r="B7" s="160"/>
-      <c r="C7" s="180" t="s">
+      <c r="B7" s="210"/>
+      <c r="C7" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="178">
+      <c r="D7" s="222">
         <f>input!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="178"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="192" t="s">
+      <c r="E7" s="222"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="188" t="str">
+      <c r="I7" s="125" t="str">
         <f>IF(input!D12="6N01A","●","")</f>
         <v/>
       </c>
-      <c r="J7" s="189"/>
-      <c r="K7" s="193">
+      <c r="J7" s="123"/>
+      <c r="K7" s="128">
         <f>input!D31</f>
         <v>0</v>
       </c>
-      <c r="L7" s="196">
+      <c r="L7" s="131">
         <f>input!D10*1</f>
         <v>0</v>
       </c>
-      <c r="M7" s="189">
+      <c r="M7" s="123">
         <f>input!D15</f>
         <v>0</v>
       </c>
-      <c r="N7" s="233"/>
+      <c r="N7" s="232"/>
       <c r="O7" s="215" t="s">
         <v>137</v>
       </c>
-      <c r="P7" s="216"/>
-      <c r="Q7" s="219" t="s">
+      <c r="P7" s="217"/>
+      <c r="Q7" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="R7" s="220" t="s">
+      <c r="R7" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="S7" s="222" t="s">
+      <c r="S7" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="T7" s="223"/>
-      <c r="U7" s="224"/>
+      <c r="T7" s="181"/>
+      <c r="U7" s="184"/>
     </row>
     <row r="8" spans="2:32" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B8" s="160"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="228"/>
-      <c r="I8" s="229" t="s">
+      <c r="B8" s="210"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="171" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="229"/>
-      <c r="K8" s="230" t="str">
+      <c r="J8" s="171"/>
+      <c r="K8" s="136" t="str">
         <f>input!D36&amp;"-"&amp;input!D37</f>
         <v>-</v>
       </c>
-      <c r="L8" s="231" t="s">
+      <c r="L8" s="172" t="s">
         <v>141</v>
       </c>
-      <c r="M8" s="229"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="217"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="216"/>
       <c r="P8" s="218"/>
-      <c r="Q8" s="221"/>
-      <c r="R8" s="220" t="s">
+      <c r="Q8" s="191"/>
+      <c r="R8" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="S8" s="225"/>
-      <c r="T8" s="226"/>
-      <c r="U8" s="227"/>
+      <c r="S8" s="182"/>
+      <c r="T8" s="183"/>
+      <c r="U8" s="185"/>
     </row>
     <row r="9" spans="2:32" ht="28.5" customHeight="1">
-      <c r="B9" s="160"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="152" t="s">
+      <c r="B9" s="210"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="271" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="153"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="202"/>
+      <c r="Q9" s="202"/>
+      <c r="R9" s="202"/>
+      <c r="S9" s="202"/>
+      <c r="T9" s="202"/>
+      <c r="U9" s="203"/>
     </row>
     <row r="10" spans="2:32" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B10" s="160"/>
-      <c r="C10" s="59"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="154"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="154"/>
-      <c r="U10" s="155"/>
+      <c r="B10" s="210"/>
+      <c r="C10" s="58"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="204"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="204"/>
+      <c r="U10" s="205"/>
     </row>
     <row r="11" spans="2:32" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B11" s="160"/>
+      <c r="B11" s="210"/>
       <c r="C11" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="175" t="str">
+      <c r="D11" s="220" t="str">
         <f>IF(D13=0,"","DR"&amp;MID(D13,2,4))</f>
         <v/>
       </c>
-      <c r="E11" s="175"/>
-      <c r="F11" s="176"/>
-      <c r="H11" s="165" t="s">
+      <c r="E11" s="220"/>
+      <c r="F11" s="221"/>
+      <c r="H11" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="166" t="s">
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+      <c r="O11" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="166"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="166"/>
-      <c r="T11" s="166"/>
-      <c r="U11" s="167"/>
+      <c r="P11" s="165"/>
+      <c r="Q11" s="165"/>
+      <c r="R11" s="165"/>
+      <c r="S11" s="165"/>
+      <c r="T11" s="165"/>
+      <c r="U11" s="166"/>
     </row>
     <row r="12" spans="2:32" ht="27.75" customHeight="1">
-      <c r="B12" s="160"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="179"/>
-      <c r="H12" s="234" t="s">
+      <c r="B12" s="210"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="223"/>
+      <c r="H12" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="235" t="s">
+      <c r="I12" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="235" t="s">
+      <c r="J12" s="167" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="235" t="s">
+      <c r="K12" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="235" t="s">
+      <c r="L12" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="M12" s="235" t="s">
+      <c r="M12" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="N12" s="235" t="s">
+      <c r="N12" s="167" t="s">
         <v>126</v>
       </c>
-      <c r="O12" s="235" t="s">
+      <c r="O12" s="167" t="s">
         <v>114</v>
       </c>
-      <c r="P12" s="235" t="s">
+      <c r="P12" s="167" t="s">
         <v>115</v>
       </c>
-      <c r="Q12" s="236">
+      <c r="Q12" s="169">
         <v>302</v>
       </c>
-      <c r="R12" s="236">
+      <c r="R12" s="169">
         <v>304</v>
       </c>
-      <c r="S12" s="236">
+      <c r="S12" s="169">
         <v>314</v>
       </c>
-      <c r="T12" s="236">
+      <c r="T12" s="169">
         <v>316</v>
       </c>
-      <c r="U12" s="237">
+      <c r="U12" s="163">
         <v>318</v>
       </c>
     </row>
     <row r="13" spans="2:32" ht="14.25" customHeight="1">
-      <c r="B13" s="160"/>
-      <c r="C13" s="180" t="s">
+      <c r="B13" s="210"/>
+      <c r="C13" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="178">
+      <c r="D13" s="222">
         <f>input!D32</f>
         <v>0</v>
       </c>
-      <c r="E13" s="178"/>
-      <c r="F13" s="179"/>
-      <c r="H13" s="238"/>
-      <c r="I13" s="239"/>
-      <c r="J13" s="239"/>
-      <c r="K13" s="239"/>
-      <c r="L13" s="239"/>
-      <c r="M13" s="239"/>
-      <c r="N13" s="239"/>
-      <c r="O13" s="239"/>
-      <c r="P13" s="239"/>
-      <c r="Q13" s="240"/>
-      <c r="R13" s="240"/>
-      <c r="S13" s="240"/>
-      <c r="T13" s="240"/>
-      <c r="U13" s="241"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="223"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="168"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="170"/>
+      <c r="R13" s="170"/>
+      <c r="S13" s="170"/>
+      <c r="T13" s="170"/>
+      <c r="U13" s="164"/>
     </row>
     <row r="14" spans="2:32" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B14" s="160"/>
-      <c r="C14" s="213"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="183"/>
-      <c r="H14" s="89">
+      <c r="B14" s="210"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="230"/>
+      <c r="H14" s="88">
         <v>1</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="26" t="s">
         <v>116</v>
       </c>
       <c r="P14" s="26"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
       <c r="S14" s="26"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="104"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="101"/>
     </row>
     <row r="15" spans="2:32" ht="37.5" customHeight="1" thickBot="1">
-      <c r="B15" s="160"/>
-      <c r="C15" s="242" t="s">
+      <c r="B15" s="210"/>
+      <c r="C15" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="242" t="s">
+      <c r="D15" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="243" t="s">
+      <c r="E15" s="253" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="243"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="89">
+      <c r="F15" s="253"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="88">
         <v>2</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="26" t="s">
         <v>116</v>
       </c>
       <c r="P15" s="26"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
       <c r="S15" s="26"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="32"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="31"/>
     </row>
     <row r="16" spans="2:32" ht="35.1" customHeight="1">
-      <c r="B16" s="160"/>
-      <c r="C16" s="244"/>
-      <c r="D16" s="245"/>
-      <c r="E16" s="246"/>
-      <c r="F16" s="247"/>
-      <c r="H16" s="89">
+      <c r="B16" s="210"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="252"/>
+      <c r="H16" s="88">
         <v>3</v>
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="26" t="s">
@@ -3188,3010 +3167,3012 @@
       <c r="P16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
       <c r="S16" s="26"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="32"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="31"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
     </row>
     <row r="17" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B17" s="160"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="248"/>
-      <c r="E17" s="249"/>
-      <c r="F17" s="233"/>
-      <c r="H17" s="89">
+      <c r="B17" s="210"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="250"/>
+      <c r="F17" s="232"/>
+      <c r="H17" s="88">
         <v>4</v>
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26" t="s">
         <v>116</v>
       </c>
       <c r="P17" s="26"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
       <c r="S17" s="26"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="32"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="31"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
     </row>
     <row r="18" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B18" s="160"/>
-      <c r="C18" s="250"/>
-      <c r="D18" s="220"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="252"/>
-      <c r="H18" s="89">
+      <c r="B18" s="210"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="238"/>
+      <c r="F18" s="239"/>
+      <c r="H18" s="88">
         <v>5</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
       <c r="O18" s="26" t="s">
         <v>116</v>
       </c>
       <c r="P18" s="26"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
       <c r="S18" s="26"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="32"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="31"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
     </row>
     <row r="19" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B19" s="160"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="220"/>
-      <c r="E19" s="251"/>
-      <c r="F19" s="252"/>
-      <c r="H19" s="89">
+      <c r="B19" s="210"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="238"/>
+      <c r="F19" s="239"/>
+      <c r="H19" s="88">
         <v>6</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
       <c r="M19" s="26"/>
-      <c r="N19" s="95"/>
+      <c r="N19" s="94"/>
       <c r="O19" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
       <c r="S19" s="26"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="32"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="134"/>
-      <c r="Z19" s="134"/>
-      <c r="AA19" s="134"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="31"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="235"/>
+      <c r="Y19" s="234"/>
+      <c r="Z19" s="234"/>
+      <c r="AA19" s="234"/>
     </row>
     <row r="20" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B20" s="160"/>
-      <c r="C20" s="250"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="252"/>
-      <c r="H20" s="89">
+      <c r="B20" s="210"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="238"/>
+      <c r="F20" s="239"/>
+      <c r="H20" s="88">
         <v>7</v>
       </c>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
       <c r="O20" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="32"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="136"/>
-      <c r="AA20" s="134"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="31"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="236"/>
+      <c r="AA20" s="234"/>
     </row>
     <row r="21" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B21" s="160"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="220"/>
-      <c r="E21" s="251"/>
-      <c r="F21" s="252"/>
-      <c r="H21" s="89">
+      <c r="B21" s="210"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="238"/>
+      <c r="F21" s="239"/>
+      <c r="H21" s="88">
         <v>8</v>
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
       <c r="M21" s="26"/>
-      <c r="N21" s="95"/>
+      <c r="N21" s="94"/>
       <c r="O21" s="26" t="s">
         <v>116</v>
       </c>
       <c r="P21" s="26"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
       <c r="S21" s="26"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="34"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="133"/>
-      <c r="AA21" s="134"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="33"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="233"/>
+      <c r="AA21" s="234"/>
     </row>
     <row r="22" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B22" s="160"/>
-      <c r="C22" s="250"/>
-      <c r="D22" s="220"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="252"/>
-      <c r="H22" s="89">
+      <c r="B22" s="210"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="238"/>
+      <c r="F22" s="239"/>
+      <c r="H22" s="88">
         <v>9</v>
       </c>
       <c r="I22" s="26"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
       <c r="M22" s="26"/>
-      <c r="N22" s="95"/>
+      <c r="N22" s="94"/>
       <c r="O22" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
       <c r="S22" s="26"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="34"/>
-      <c r="X22" s="30"/>
-      <c r="Z22" s="134"/>
-      <c r="AA22" s="134"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="33"/>
+      <c r="X22" s="29"/>
+      <c r="Z22" s="234"/>
+      <c r="AA22" s="234"/>
     </row>
     <row r="23" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B23" s="160"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="220"/>
-      <c r="E23" s="251"/>
-      <c r="F23" s="252"/>
-      <c r="H23" s="89">
+      <c r="B23" s="210"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="238"/>
+      <c r="F23" s="239"/>
+      <c r="H23" s="88">
         <v>10</v>
       </c>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
       <c r="O23" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="34"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="33"/>
     </row>
     <row r="24" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B24" s="160"/>
-      <c r="C24" s="250"/>
-      <c r="D24" s="220"/>
-      <c r="E24" s="251"/>
-      <c r="F24" s="252"/>
-      <c r="H24" s="89">
+      <c r="B24" s="210"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="238"/>
+      <c r="F24" s="239"/>
+      <c r="H24" s="88">
         <v>11</v>
       </c>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
       <c r="O24" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
     </row>
     <row r="25" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B25" s="160"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="254"/>
-      <c r="F25" s="255"/>
-      <c r="H25" s="89">
+      <c r="B25" s="210"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="257"/>
+      <c r="H25" s="88">
         <v>12</v>
       </c>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
       <c r="O25" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
     </row>
     <row r="26" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B26" s="160"/>
-      <c r="C26" s="250"/>
-      <c r="D26" s="220"/>
-      <c r="E26" s="251"/>
-      <c r="F26" s="252"/>
-      <c r="H26" s="89">
+      <c r="B26" s="210"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="238"/>
+      <c r="F26" s="239"/>
+      <c r="H26" s="88">
         <v>13</v>
       </c>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
       <c r="O26" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
     </row>
     <row r="27" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B27" s="160"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="220"/>
-      <c r="E27" s="251"/>
-      <c r="F27" s="252"/>
-      <c r="H27" s="89">
+      <c r="B27" s="210"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="238"/>
+      <c r="F27" s="239"/>
+      <c r="H27" s="88">
         <v>14</v>
       </c>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
       <c r="O27" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
     </row>
     <row r="28" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B28" s="160"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="220"/>
-      <c r="E28" s="251"/>
-      <c r="F28" s="252"/>
-      <c r="H28" s="89">
+      <c r="B28" s="210"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="239"/>
+      <c r="H28" s="88">
         <v>15</v>
       </c>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
       <c r="O28" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
     </row>
     <row r="29" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B29" s="160"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="220"/>
-      <c r="E29" s="251"/>
-      <c r="F29" s="252"/>
-      <c r="H29" s="89">
+      <c r="B29" s="210"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="238"/>
+      <c r="F29" s="239"/>
+      <c r="H29" s="88">
         <v>16</v>
       </c>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
       <c r="O29" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
     </row>
     <row r="30" spans="2:27" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B30" s="160"/>
-      <c r="C30" s="256"/>
-      <c r="D30" s="257"/>
-      <c r="E30" s="258"/>
-      <c r="F30" s="259"/>
-      <c r="H30" s="89">
+      <c r="B30" s="210"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="255"/>
+      <c r="H30" s="88">
         <v>17</v>
       </c>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
       <c r="O30" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
     </row>
     <row r="31" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B31" s="160"/>
-      <c r="C31" s="260" t="s">
+      <c r="B31" s="210"/>
+      <c r="C31" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="261"/>
-      <c r="E31" s="261"/>
-      <c r="F31" s="262"/>
-      <c r="H31" s="89">
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="149"/>
+      <c r="H31" s="88">
         <v>18</v>
       </c>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
       <c r="O31" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
     </row>
     <row r="32" spans="2:27" ht="35.1" customHeight="1">
-      <c r="B32" s="160"/>
-      <c r="C32" s="180" t="s">
+      <c r="B32" s="210"/>
+      <c r="C32" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="180"/>
-      <c r="E32" s="180" t="s">
+      <c r="D32" s="224"/>
+      <c r="E32" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="263"/>
-      <c r="H32" s="89">
+      <c r="F32" s="240"/>
+      <c r="H32" s="88">
         <v>19</v>
       </c>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
       <c r="O32" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
     </row>
     <row r="33" spans="2:23" ht="35.1" customHeight="1">
-      <c r="B33" s="160"/>
-      <c r="C33" s="264" t="s">
+      <c r="B33" s="210"/>
+      <c r="C33" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="265" t="str">
+      <c r="D33" s="152" t="str">
         <f>input!I12</f>
         <v/>
       </c>
-      <c r="E33" s="264" t="s">
+      <c r="E33" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="266" t="s">
+      <c r="F33" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="89">
+      <c r="H33" s="88">
         <v>20</v>
       </c>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
       <c r="O33" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
     </row>
     <row r="34" spans="2:23" ht="35.1" customHeight="1">
-      <c r="B34" s="160"/>
-      <c r="C34" s="264" t="s">
+      <c r="B34" s="210"/>
+      <c r="C34" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="267">
+      <c r="D34" s="154">
         <f>input!D20</f>
         <v>0</v>
       </c>
-      <c r="E34" s="264" t="s">
+      <c r="E34" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="268"/>
-      <c r="H34" s="89">
+      <c r="F34" s="150"/>
+      <c r="H34" s="88">
         <v>21</v>
       </c>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
       <c r="O34" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
     </row>
     <row r="35" spans="2:23" ht="35.1" customHeight="1">
-      <c r="B35" s="160"/>
-      <c r="C35" s="264" t="s">
+      <c r="B35" s="210"/>
+      <c r="C35" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="269">
+      <c r="D35" s="155">
         <f>input!D24</f>
         <v>0</v>
       </c>
-      <c r="E35" s="264" t="s">
+      <c r="E35" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="268"/>
-      <c r="H35" s="89">
+      <c r="F35" s="150"/>
+      <c r="H35" s="88">
         <v>22</v>
       </c>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
       <c r="O35" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="32"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="31"/>
     </row>
     <row r="36" spans="2:23" ht="35.1" customHeight="1">
-      <c r="B36" s="160"/>
-      <c r="C36" s="264" t="s">
+      <c r="B36" s="210"/>
+      <c r="C36" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="270">
+      <c r="D36" s="156">
         <f>input!D23</f>
         <v>0</v>
       </c>
-      <c r="E36" s="264" t="s">
+      <c r="E36" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="268"/>
-      <c r="H36" s="89">
+      <c r="F36" s="150"/>
+      <c r="H36" s="88">
         <v>23</v>
       </c>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
       <c r="O36" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="32"/>
-    </row>
-    <row r="37" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B37" s="160"/>
-      <c r="C37" s="264" t="s">
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="31"/>
+    </row>
+    <row r="37" spans="2:23" s="37" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B37" s="210"/>
+      <c r="C37" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="271" t="str">
+      <c r="D37" s="157" t="str">
         <f>input!I13</f>
         <v>°-℃/m</v>
       </c>
-      <c r="E37" s="264" t="s">
+      <c r="E37" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="272"/>
-      <c r="H37" s="89">
+      <c r="F37" s="158"/>
+      <c r="H37" s="88">
         <v>24</v>
       </c>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
       <c r="O37" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="32"/>
-    </row>
-    <row r="38" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B38" s="160"/>
-      <c r="C38" s="264" t="s">
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="31"/>
+    </row>
+    <row r="38" spans="2:23" s="37" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B38" s="210"/>
+      <c r="C38" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="273">
+      <c r="D38" s="159">
         <f>input!D22</f>
         <v>0</v>
       </c>
-      <c r="E38" s="264" t="s">
+      <c r="E38" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="268"/>
-      <c r="H38" s="89">
+      <c r="F38" s="150"/>
+      <c r="H38" s="88">
         <v>25</v>
       </c>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
       <c r="O38" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="95"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="32"/>
-    </row>
-    <row r="39" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B39" s="160"/>
-      <c r="C39" s="264" t="s">
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="94"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="31"/>
+    </row>
+    <row r="39" spans="2:23" s="37" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B39" s="210"/>
+      <c r="C39" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="271">
+      <c r="D39" s="157">
         <f>input!D27</f>
         <v>0</v>
       </c>
-      <c r="E39" s="264" t="s">
+      <c r="E39" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="268"/>
-      <c r="H39" s="89">
+      <c r="F39" s="150"/>
+      <c r="H39" s="88">
         <v>26</v>
       </c>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="94"/>
       <c r="O39" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="32"/>
-    </row>
-    <row r="40" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B40" s="160"/>
-      <c r="C40" s="264" t="s">
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="31"/>
+    </row>
+    <row r="40" spans="2:23" s="37" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B40" s="210"/>
+      <c r="C40" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="274">
+      <c r="D40" s="160">
         <f>input!D29</f>
         <v>0</v>
       </c>
-      <c r="E40" s="264" t="s">
+      <c r="E40" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="268"/>
-      <c r="H40" s="89">
+      <c r="F40" s="150"/>
+      <c r="H40" s="88">
         <v>27</v>
       </c>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
       <c r="O40" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="32"/>
-    </row>
-    <row r="41" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B41" s="160"/>
-      <c r="C41" s="264" t="s">
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="31"/>
+    </row>
+    <row r="41" spans="2:23" s="37" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B41" s="210"/>
+      <c r="C41" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="275">
+      <c r="D41" s="161">
         <f>input!D28</f>
         <v>0</v>
       </c>
-      <c r="E41" s="264" t="s">
+      <c r="E41" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="266" t="s">
+      <c r="F41" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="89">
+      <c r="H41" s="88">
         <v>28</v>
       </c>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
       <c r="O41" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="95"/>
-      <c r="S41" s="95"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="32"/>
-    </row>
-    <row r="42" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B42" s="160"/>
-      <c r="C42" s="264" t="s">
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="31"/>
+    </row>
+    <row r="42" spans="2:23" s="37" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B42" s="210"/>
+      <c r="C42" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="168" t="str">
+      <c r="D42" s="116" t="str">
         <f>IF(input!D30&lt;&gt;"",input!D30,"Air")</f>
         <v>Air</v>
       </c>
-      <c r="E42" s="264" t="s">
+      <c r="E42" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="276" t="s">
+      <c r="F42" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="89">
+      <c r="H42" s="88">
         <v>29</v>
       </c>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
       <c r="O42" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="95"/>
-      <c r="S42" s="95"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="32"/>
-    </row>
-    <row r="43" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B43" s="160"/>
-      <c r="C43" s="277" t="s">
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="31"/>
+    </row>
+    <row r="43" spans="2:23" s="37" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B43" s="210"/>
+      <c r="C43" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="171">
+      <c r="D43" s="119">
         <f>input!I14</f>
         <v>50</v>
       </c>
-      <c r="E43" s="277" t="s">
+      <c r="E43" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="278">
+      <c r="F43" s="133">
         <f>input!D33</f>
         <v>0</v>
       </c>
-      <c r="H43" s="89">
+      <c r="H43" s="88">
         <v>30</v>
       </c>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="94"/>
       <c r="O43" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P43" s="95"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="32"/>
-    </row>
-    <row r="44" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B44" s="160"/>
-      <c r="C44" s="128" t="s">
+      <c r="P43" s="94"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="94"/>
+      <c r="S43" s="94"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="31"/>
+    </row>
+    <row r="44" spans="2:23" s="37" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B44" s="210"/>
+      <c r="C44" s="258" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="128"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="113"/>
-      <c r="H44" s="89">
+      <c r="D44" s="258"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="107"/>
+      <c r="H44" s="88">
         <v>31</v>
       </c>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
       <c r="O44" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="32"/>
-    </row>
-    <row r="45" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B45" s="160"/>
-      <c r="C45" s="102" t="s">
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="31"/>
+    </row>
+    <row r="45" spans="2:23" s="37" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B45" s="210"/>
+      <c r="C45" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="106" t="s">
+      <c r="D45" s="259" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="106" t="s">
+      <c r="E45" s="259" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="27"/>
-      <c r="H45" s="89">
+      <c r="F45" s="118"/>
+      <c r="H45" s="88">
         <v>32</v>
       </c>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="94"/>
       <c r="O45" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P45" s="95"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="95"/>
-      <c r="S45" s="95"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="32"/>
-    </row>
-    <row r="46" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B46" s="160"/>
-      <c r="C46" s="102" t="s">
+      <c r="P45" s="94"/>
+      <c r="Q45" s="94"/>
+      <c r="R45" s="94"/>
+      <c r="S45" s="94"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="31"/>
+    </row>
+    <row r="46" spans="2:23" s="37" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B46" s="210"/>
+      <c r="C46" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="27"/>
-      <c r="H46" s="89">
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="118"/>
+      <c r="H46" s="88">
         <v>33</v>
       </c>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
-      <c r="M46" s="95"/>
-      <c r="N46" s="95"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
+      <c r="K46" s="94"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="94"/>
       <c r="O46" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="95"/>
-      <c r="S46" s="95"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="32"/>
-    </row>
-    <row r="47" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B47" s="160"/>
-      <c r="C47" s="101" t="s">
+      <c r="P46" s="94"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="31"/>
+    </row>
+    <row r="47" spans="2:23" s="37" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B47" s="210"/>
+      <c r="C47" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="112"/>
-      <c r="H47" s="89">
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="121"/>
+      <c r="H47" s="88">
         <v>34</v>
       </c>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
       <c r="O47" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P47" s="95"/>
-      <c r="Q47" s="95"/>
-      <c r="R47" s="95"/>
-      <c r="S47" s="95"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="32"/>
-    </row>
-    <row r="48" spans="2:23" s="38" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B48" s="160"/>
-      <c r="C48" s="127" t="s">
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="94"/>
+      <c r="S47" s="94"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="31"/>
+    </row>
+    <row r="48" spans="2:23" s="37" customFormat="1" ht="35.1" customHeight="1">
+      <c r="B48" s="210"/>
+      <c r="C48" s="147" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="114"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="116"/>
-      <c r="H48" s="89">
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="109"/>
+      <c r="H48" s="88">
         <v>35</v>
       </c>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="95"/>
-      <c r="L48" s="95"/>
-      <c r="M48" s="95"/>
-      <c r="N48" s="95"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="94"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="94"/>
       <c r="O48" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P48" s="95"/>
-      <c r="Q48" s="95"/>
-      <c r="R48" s="95"/>
-      <c r="S48" s="95"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="32"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="94"/>
+      <c r="R48" s="94"/>
+      <c r="S48" s="94"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="31"/>
     </row>
     <row r="49" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B49" s="160"/>
-      <c r="C49" s="129" t="s">
+      <c r="B49" s="210"/>
+      <c r="C49" s="260" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="130" t="s">
+      <c r="D49" s="261" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="130"/>
-      <c r="F49" s="131"/>
-      <c r="H49" s="89">
+      <c r="E49" s="261"/>
+      <c r="F49" s="262"/>
+      <c r="H49" s="88">
         <v>36</v>
       </c>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="95"/>
-      <c r="L49" s="95"/>
-      <c r="M49" s="95"/>
-      <c r="N49" s="95"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="94"/>
+      <c r="L49" s="94"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="94"/>
       <c r="O49" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P49" s="95"/>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="95"/>
-      <c r="S49" s="95"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="32"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="94"/>
+      <c r="R49" s="94"/>
+      <c r="S49" s="94"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="31"/>
     </row>
     <row r="50" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B50" s="160"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="102" t="s">
+      <c r="B50" s="210"/>
+      <c r="C50" s="260"/>
+      <c r="D50" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="E50" s="102" t="s">
+      <c r="E50" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="118" t="s">
+      <c r="F50" s="263" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="89">
+      <c r="H50" s="88">
         <v>37</v>
       </c>
-      <c r="I50" s="95"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="95"/>
-      <c r="L50" s="95"/>
-      <c r="M50" s="95"/>
-      <c r="N50" s="95"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="94"/>
+      <c r="N50" s="94"/>
       <c r="O50" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P50" s="95"/>
-      <c r="Q50" s="95"/>
-      <c r="R50" s="95"/>
-      <c r="S50" s="95"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="32"/>
+      <c r="P50" s="94"/>
+      <c r="Q50" s="94"/>
+      <c r="R50" s="94"/>
+      <c r="S50" s="94"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="31"/>
     </row>
     <row r="51" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B51" s="160"/>
-      <c r="C51" s="102" t="s">
+      <c r="B51" s="210"/>
+      <c r="C51" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="111"/>
-      <c r="H51" s="89">
+      <c r="D51" s="143"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="144"/>
+      <c r="H51" s="88">
         <v>38</v>
       </c>
-      <c r="I51" s="95"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="95"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="95"/>
-      <c r="N51" s="95"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="94"/>
       <c r="O51" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P51" s="95"/>
-      <c r="Q51" s="95"/>
-      <c r="R51" s="95"/>
-      <c r="S51" s="95"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="32"/>
-      <c r="Y51" s="52"/>
+      <c r="P51" s="94"/>
+      <c r="Q51" s="94"/>
+      <c r="R51" s="94"/>
+      <c r="S51" s="94"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="31"/>
+      <c r="Y51" s="51"/>
     </row>
     <row r="52" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B52" s="160"/>
-      <c r="C52" s="102" t="s">
+      <c r="B52" s="210"/>
+      <c r="C52" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="111"/>
-      <c r="H52" s="89">
+      <c r="D52" s="143"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="144"/>
+      <c r="H52" s="88">
         <v>39</v>
       </c>
-      <c r="I52" s="95"/>
-      <c r="J52" s="95"/>
-      <c r="K52" s="95"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="95"/>
-      <c r="N52" s="95"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="94"/>
+      <c r="L52" s="94"/>
+      <c r="M52" s="94"/>
+      <c r="N52" s="94"/>
       <c r="O52" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P52" s="95"/>
-      <c r="Q52" s="95"/>
-      <c r="R52" s="95"/>
-      <c r="S52" s="95"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="32"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="94"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="31"/>
     </row>
     <row r="53" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B53" s="160"/>
-      <c r="C53" s="129" t="s">
+      <c r="B53" s="210"/>
+      <c r="C53" s="260" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="130" t="s">
+      <c r="D53" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="130"/>
-      <c r="F53" s="131"/>
-      <c r="H53" s="89">
+      <c r="E53" s="261"/>
+      <c r="F53" s="262"/>
+      <c r="H53" s="88">
         <v>40</v>
       </c>
-      <c r="I53" s="95"/>
-      <c r="J53" s="95"/>
-      <c r="K53" s="95"/>
-      <c r="L53" s="95"/>
-      <c r="M53" s="95"/>
-      <c r="N53" s="95"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="94"/>
+      <c r="L53" s="94"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="94"/>
       <c r="O53" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P53" s="95"/>
-      <c r="Q53" s="95"/>
-      <c r="R53" s="95"/>
-      <c r="S53" s="95"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="32"/>
+      <c r="P53" s="94"/>
+      <c r="Q53" s="94"/>
+      <c r="R53" s="94"/>
+      <c r="S53" s="94"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="31"/>
     </row>
     <row r="54" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B54" s="160"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="102" t="s">
+      <c r="B54" s="210"/>
+      <c r="C54" s="260"/>
+      <c r="D54" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="102" t="s">
+      <c r="E54" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="F54" s="117" t="s">
+      <c r="F54" s="264" t="s">
         <v>24</v>
       </c>
-      <c r="H54" s="89">
+      <c r="H54" s="88">
         <v>41</v>
       </c>
-      <c r="I54" s="95"/>
-      <c r="J54" s="95"/>
-      <c r="K54" s="95"/>
-      <c r="L54" s="95"/>
-      <c r="M54" s="95"/>
-      <c r="N54" s="95"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="94"/>
+      <c r="M54" s="94"/>
+      <c r="N54" s="94"/>
       <c r="O54" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P54" s="95"/>
-      <c r="Q54" s="95"/>
-      <c r="R54" s="95"/>
-      <c r="S54" s="95"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="32"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="94"/>
+      <c r="S54" s="94"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="31"/>
     </row>
     <row r="55" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B55" s="160"/>
-      <c r="C55" s="102" t="s">
+      <c r="B55" s="210"/>
+      <c r="C55" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="105"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="119"/>
-      <c r="H55" s="89">
+      <c r="D55" s="143"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="265"/>
+      <c r="H55" s="88">
         <v>42</v>
       </c>
-      <c r="I55" s="95"/>
-      <c r="J55" s="95"/>
-      <c r="K55" s="95"/>
-      <c r="L55" s="95"/>
-      <c r="M55" s="95"/>
-      <c r="N55" s="95"/>
+      <c r="I55" s="94"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="94"/>
+      <c r="M55" s="94"/>
+      <c r="N55" s="94"/>
       <c r="O55" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P55" s="95"/>
-      <c r="Q55" s="95"/>
-      <c r="R55" s="95"/>
-      <c r="S55" s="95"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="32"/>
+      <c r="P55" s="94"/>
+      <c r="Q55" s="94"/>
+      <c r="R55" s="94"/>
+      <c r="S55" s="94"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="31"/>
     </row>
     <row r="56" spans="2:25" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B56" s="160"/>
-      <c r="C56" s="101" t="s">
+      <c r="B56" s="210"/>
+      <c r="C56" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="115"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="120"/>
-      <c r="H56" s="89">
+      <c r="D56" s="120"/>
+      <c r="E56" s="120"/>
+      <c r="F56" s="266"/>
+      <c r="H56" s="88">
         <v>43</v>
       </c>
-      <c r="I56" s="95"/>
-      <c r="J56" s="95"/>
-      <c r="K56" s="95"/>
-      <c r="L56" s="95"/>
-      <c r="M56" s="95"/>
-      <c r="N56" s="95"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="94"/>
+      <c r="M56" s="94"/>
+      <c r="N56" s="94"/>
       <c r="O56" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P56" s="95"/>
-      <c r="Q56" s="95"/>
-      <c r="R56" s="95"/>
-      <c r="S56" s="95"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="32"/>
+      <c r="P56" s="94"/>
+      <c r="Q56" s="94"/>
+      <c r="R56" s="94"/>
+      <c r="S56" s="94"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="31"/>
     </row>
     <row r="57" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B57" s="160"/>
-      <c r="C57" s="132" t="s">
+      <c r="B57" s="210"/>
+      <c r="C57" s="174" t="s">
         <v>110</v>
       </c>
-      <c r="D57" s="132"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="142"/>
-      <c r="H57" s="89">
+      <c r="D57" s="174"/>
+      <c r="E57" s="267"/>
+      <c r="F57" s="268"/>
+      <c r="H57" s="88">
         <v>44</v>
       </c>
-      <c r="I57" s="95"/>
-      <c r="J57" s="95"/>
-      <c r="K57" s="95"/>
-      <c r="L57" s="95"/>
-      <c r="M57" s="95"/>
-      <c r="N57" s="95"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="94"/>
+      <c r="M57" s="94"/>
+      <c r="N57" s="94"/>
       <c r="O57" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P57" s="95"/>
-      <c r="Q57" s="95"/>
-      <c r="R57" s="95"/>
-      <c r="S57" s="95"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="32"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="94"/>
+      <c r="R57" s="94"/>
+      <c r="S57" s="94"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="31"/>
     </row>
     <row r="58" spans="2:25" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B58" s="160"/>
-      <c r="C58" s="138" t="s">
+      <c r="B58" s="210"/>
+      <c r="C58" s="176" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="138"/>
-      <c r="E58" s="139"/>
-      <c r="F58" s="140"/>
-      <c r="H58" s="89">
+      <c r="D58" s="176"/>
+      <c r="E58" s="269"/>
+      <c r="F58" s="270"/>
+      <c r="H58" s="88">
         <v>45</v>
       </c>
-      <c r="I58" s="95"/>
-      <c r="J58" s="95"/>
-      <c r="K58" s="95"/>
-      <c r="L58" s="95"/>
-      <c r="M58" s="95"/>
-      <c r="N58" s="95"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="94"/>
+      <c r="K58" s="94"/>
+      <c r="L58" s="94"/>
+      <c r="M58" s="94"/>
+      <c r="N58" s="94"/>
       <c r="O58" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P58" s="95"/>
-      <c r="Q58" s="95"/>
-      <c r="R58" s="95"/>
-      <c r="S58" s="95"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="32"/>
+      <c r="P58" s="94"/>
+      <c r="Q58" s="94"/>
+      <c r="R58" s="94"/>
+      <c r="S58" s="94"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="31"/>
     </row>
     <row r="59" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B59" s="160"/>
-      <c r="C59" s="146" t="s">
+      <c r="B59" s="210"/>
+      <c r="C59" s="244" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="146"/>
-      <c r="E59" s="146"/>
-      <c r="F59" s="147"/>
-      <c r="H59" s="89">
+      <c r="D59" s="244"/>
+      <c r="E59" s="244"/>
+      <c r="F59" s="245"/>
+      <c r="H59" s="88">
         <v>46</v>
       </c>
-      <c r="I59" s="95"/>
-      <c r="J59" s="95"/>
-      <c r="K59" s="95"/>
-      <c r="L59" s="95"/>
-      <c r="M59" s="95"/>
-      <c r="N59" s="95"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="94"/>
+      <c r="K59" s="94"/>
+      <c r="L59" s="94"/>
+      <c r="M59" s="94"/>
+      <c r="N59" s="94"/>
       <c r="O59" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P59" s="95"/>
-      <c r="Q59" s="95"/>
-      <c r="R59" s="95"/>
-      <c r="S59" s="95"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="32"/>
+      <c r="P59" s="94"/>
+      <c r="Q59" s="94"/>
+      <c r="R59" s="94"/>
+      <c r="S59" s="94"/>
+      <c r="T59" s="30"/>
+      <c r="U59" s="31"/>
     </row>
     <row r="60" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B60" s="160"/>
-      <c r="C60" s="148"/>
-      <c r="D60" s="148"/>
-      <c r="E60" s="148"/>
-      <c r="F60" s="149"/>
-      <c r="H60" s="89">
+      <c r="B60" s="210"/>
+      <c r="C60" s="246"/>
+      <c r="D60" s="246"/>
+      <c r="E60" s="246"/>
+      <c r="F60" s="247"/>
+      <c r="H60" s="88">
         <v>47</v>
       </c>
-      <c r="I60" s="95"/>
-      <c r="J60" s="95"/>
-      <c r="K60" s="95"/>
-      <c r="L60" s="95"/>
-      <c r="M60" s="95"/>
-      <c r="N60" s="95"/>
+      <c r="I60" s="94"/>
+      <c r="J60" s="94"/>
+      <c r="K60" s="94"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="94"/>
       <c r="O60" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P60" s="95"/>
-      <c r="Q60" s="95"/>
-      <c r="R60" s="95"/>
-      <c r="S60" s="95"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="32"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="94"/>
+      <c r="R60" s="94"/>
+      <c r="S60" s="94"/>
+      <c r="T60" s="30"/>
+      <c r="U60" s="31"/>
     </row>
     <row r="61" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B61" s="160"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="149"/>
-      <c r="H61" s="89">
+      <c r="B61" s="210"/>
+      <c r="C61" s="246"/>
+      <c r="D61" s="246"/>
+      <c r="E61" s="246"/>
+      <c r="F61" s="247"/>
+      <c r="H61" s="88">
         <v>48</v>
       </c>
-      <c r="I61" s="95"/>
-      <c r="J61" s="95"/>
-      <c r="K61" s="95"/>
-      <c r="L61" s="95"/>
-      <c r="M61" s="95"/>
-      <c r="N61" s="95"/>
+      <c r="I61" s="94"/>
+      <c r="J61" s="94"/>
+      <c r="K61" s="94"/>
+      <c r="L61" s="94"/>
+      <c r="M61" s="94"/>
+      <c r="N61" s="94"/>
       <c r="O61" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P61" s="95"/>
-      <c r="Q61" s="95"/>
-      <c r="R61" s="95"/>
-      <c r="S61" s="95"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="32"/>
+      <c r="P61" s="94"/>
+      <c r="Q61" s="94"/>
+      <c r="R61" s="94"/>
+      <c r="S61" s="94"/>
+      <c r="T61" s="30"/>
+      <c r="U61" s="31"/>
     </row>
     <row r="62" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B62" s="160"/>
-      <c r="C62" s="148"/>
-      <c r="D62" s="148"/>
-      <c r="E62" s="148"/>
-      <c r="F62" s="149"/>
-      <c r="H62" s="89">
+      <c r="B62" s="210"/>
+      <c r="C62" s="246"/>
+      <c r="D62" s="246"/>
+      <c r="E62" s="246"/>
+      <c r="F62" s="247"/>
+      <c r="H62" s="88">
         <v>49</v>
       </c>
-      <c r="I62" s="95"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
-      <c r="M62" s="95"/>
-      <c r="N62" s="95"/>
+      <c r="I62" s="94"/>
+      <c r="J62" s="94"/>
+      <c r="K62" s="94"/>
+      <c r="L62" s="94"/>
+      <c r="M62" s="94"/>
+      <c r="N62" s="94"/>
       <c r="O62" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P62" s="95"/>
-      <c r="Q62" s="95"/>
-      <c r="R62" s="95"/>
-      <c r="S62" s="95"/>
-      <c r="T62" s="31"/>
-      <c r="U62" s="32"/>
+      <c r="P62" s="94"/>
+      <c r="Q62" s="94"/>
+      <c r="R62" s="94"/>
+      <c r="S62" s="94"/>
+      <c r="T62" s="30"/>
+      <c r="U62" s="31"/>
     </row>
     <row r="63" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B63" s="160"/>
-      <c r="C63" s="148"/>
-      <c r="D63" s="148"/>
-      <c r="E63" s="148"/>
-      <c r="F63" s="149"/>
-      <c r="H63" s="89">
+      <c r="B63" s="210"/>
+      <c r="C63" s="246"/>
+      <c r="D63" s="246"/>
+      <c r="E63" s="246"/>
+      <c r="F63" s="247"/>
+      <c r="H63" s="88">
         <v>50</v>
       </c>
-      <c r="I63" s="95"/>
-      <c r="J63" s="95"/>
-      <c r="K63" s="95"/>
-      <c r="L63" s="95"/>
-      <c r="M63" s="95"/>
-      <c r="N63" s="95"/>
+      <c r="I63" s="94"/>
+      <c r="J63" s="94"/>
+      <c r="K63" s="94"/>
+      <c r="L63" s="94"/>
+      <c r="M63" s="94"/>
+      <c r="N63" s="94"/>
       <c r="O63" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P63" s="95"/>
-      <c r="Q63" s="95"/>
-      <c r="R63" s="95"/>
-      <c r="S63" s="95"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="32"/>
+      <c r="P63" s="94"/>
+      <c r="Q63" s="94"/>
+      <c r="R63" s="94"/>
+      <c r="S63" s="94"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="31"/>
     </row>
     <row r="64" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B64" s="160"/>
-      <c r="C64" s="148"/>
-      <c r="D64" s="148"/>
-      <c r="E64" s="148"/>
-      <c r="F64" s="149"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="89">
+      <c r="B64" s="210"/>
+      <c r="C64" s="246"/>
+      <c r="D64" s="246"/>
+      <c r="E64" s="246"/>
+      <c r="F64" s="247"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="88">
         <v>51</v>
       </c>
-      <c r="I64" s="95"/>
-      <c r="J64" s="95"/>
-      <c r="K64" s="95"/>
-      <c r="L64" s="95"/>
-      <c r="M64" s="95"/>
-      <c r="N64" s="95"/>
+      <c r="I64" s="94"/>
+      <c r="J64" s="94"/>
+      <c r="K64" s="94"/>
+      <c r="L64" s="94"/>
+      <c r="M64" s="94"/>
+      <c r="N64" s="94"/>
       <c r="O64" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P64" s="95"/>
-      <c r="Q64" s="95"/>
-      <c r="R64" s="95"/>
-      <c r="S64" s="95"/>
-      <c r="T64" s="31"/>
-      <c r="U64" s="32"/>
+      <c r="P64" s="94"/>
+      <c r="Q64" s="94"/>
+      <c r="R64" s="94"/>
+      <c r="S64" s="94"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="31"/>
     </row>
     <row r="65" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B65" s="160"/>
-      <c r="C65" s="148"/>
-      <c r="D65" s="148"/>
-      <c r="E65" s="148"/>
-      <c r="F65" s="149"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="89">
+      <c r="B65" s="210"/>
+      <c r="C65" s="246"/>
+      <c r="D65" s="246"/>
+      <c r="E65" s="246"/>
+      <c r="F65" s="247"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="88">
         <v>52</v>
       </c>
-      <c r="I65" s="95"/>
-      <c r="J65" s="95"/>
-      <c r="K65" s="95"/>
-      <c r="L65" s="95"/>
-      <c r="M65" s="95"/>
-      <c r="N65" s="95"/>
+      <c r="I65" s="94"/>
+      <c r="J65" s="94"/>
+      <c r="K65" s="94"/>
+      <c r="L65" s="94"/>
+      <c r="M65" s="94"/>
+      <c r="N65" s="94"/>
       <c r="O65" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P65" s="95"/>
-      <c r="Q65" s="95"/>
-      <c r="R65" s="95"/>
-      <c r="S65" s="95"/>
-      <c r="T65" s="31"/>
-      <c r="U65" s="32"/>
+      <c r="P65" s="94"/>
+      <c r="Q65" s="94"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="94"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="31"/>
     </row>
     <row r="66" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B66" s="160"/>
-      <c r="C66" s="148"/>
-      <c r="D66" s="148"/>
-      <c r="E66" s="148"/>
-      <c r="F66" s="149"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="89">
+      <c r="B66" s="210"/>
+      <c r="C66" s="246"/>
+      <c r="D66" s="246"/>
+      <c r="E66" s="246"/>
+      <c r="F66" s="247"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="88">
         <v>53</v>
       </c>
-      <c r="I66" s="95"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="95"/>
-      <c r="L66" s="95"/>
-      <c r="M66" s="95"/>
-      <c r="N66" s="95"/>
+      <c r="I66" s="94"/>
+      <c r="J66" s="94"/>
+      <c r="K66" s="94"/>
+      <c r="L66" s="94"/>
+      <c r="M66" s="94"/>
+      <c r="N66" s="94"/>
       <c r="O66" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P66" s="95"/>
-      <c r="Q66" s="95"/>
-      <c r="R66" s="95"/>
-      <c r="S66" s="95"/>
-      <c r="T66" s="31"/>
-      <c r="U66" s="32"/>
+      <c r="P66" s="94"/>
+      <c r="Q66" s="94"/>
+      <c r="R66" s="94"/>
+      <c r="S66" s="94"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="31"/>
     </row>
     <row r="67" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B67" s="160"/>
-      <c r="C67" s="148"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="148"/>
-      <c r="F67" s="149"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="89">
+      <c r="B67" s="210"/>
+      <c r="C67" s="246"/>
+      <c r="D67" s="246"/>
+      <c r="E67" s="246"/>
+      <c r="F67" s="247"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="88">
         <v>54</v>
       </c>
-      <c r="I67" s="95"/>
-      <c r="J67" s="95"/>
-      <c r="K67" s="95"/>
-      <c r="L67" s="95"/>
-      <c r="M67" s="95"/>
-      <c r="N67" s="95"/>
+      <c r="I67" s="94"/>
+      <c r="J67" s="94"/>
+      <c r="K67" s="94"/>
+      <c r="L67" s="94"/>
+      <c r="M67" s="94"/>
+      <c r="N67" s="94"/>
       <c r="O67" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P67" s="95"/>
-      <c r="Q67" s="95"/>
-      <c r="R67" s="95"/>
-      <c r="S67" s="95"/>
-      <c r="T67" s="31"/>
-      <c r="U67" s="32"/>
+      <c r="P67" s="94"/>
+      <c r="Q67" s="94"/>
+      <c r="R67" s="94"/>
+      <c r="S67" s="94"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="31"/>
     </row>
     <row r="68" spans="2:30" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B68" s="160"/>
-      <c r="C68" s="150"/>
-      <c r="D68" s="150"/>
-      <c r="E68" s="150"/>
-      <c r="F68" s="151"/>
-      <c r="G68" s="137"/>
-      <c r="H68" s="89">
+      <c r="B68" s="210"/>
+      <c r="C68" s="248"/>
+      <c r="D68" s="248"/>
+      <c r="E68" s="248"/>
+      <c r="F68" s="249"/>
+      <c r="G68" s="237"/>
+      <c r="H68" s="88">
         <v>55</v>
       </c>
-      <c r="I68" s="95"/>
-      <c r="J68" s="95"/>
-      <c r="K68" s="95"/>
-      <c r="L68" s="95"/>
-      <c r="M68" s="95"/>
-      <c r="N68" s="95"/>
+      <c r="I68" s="94"/>
+      <c r="J68" s="94"/>
+      <c r="K68" s="94"/>
+      <c r="L68" s="94"/>
+      <c r="M68" s="94"/>
+      <c r="N68" s="94"/>
       <c r="O68" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P68" s="95"/>
-      <c r="Q68" s="95"/>
-      <c r="R68" s="95"/>
-      <c r="S68" s="95"/>
-      <c r="T68" s="31"/>
-      <c r="U68" s="32"/>
+      <c r="P68" s="94"/>
+      <c r="Q68" s="94"/>
+      <c r="R68" s="94"/>
+      <c r="S68" s="94"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="31"/>
     </row>
     <row r="69" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B69" s="160"/>
-      <c r="C69" s="121" t="s">
+      <c r="B69" s="210"/>
+      <c r="C69" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="121" t="s">
+      <c r="D69" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="122" t="s">
+      <c r="E69" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="F69" s="143" t="s">
+      <c r="F69" s="241" t="s">
         <v>136</v>
       </c>
-      <c r="G69" s="137"/>
-      <c r="H69" s="89">
+      <c r="G69" s="237"/>
+      <c r="H69" s="88">
         <v>56</v>
       </c>
-      <c r="I69" s="95"/>
-      <c r="J69" s="95"/>
-      <c r="K69" s="95"/>
-      <c r="L69" s="95"/>
-      <c r="M69" s="95"/>
-      <c r="N69" s="95"/>
+      <c r="I69" s="94"/>
+      <c r="J69" s="94"/>
+      <c r="K69" s="94"/>
+      <c r="L69" s="94"/>
+      <c r="M69" s="94"/>
+      <c r="N69" s="94"/>
       <c r="O69" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P69" s="95"/>
-      <c r="Q69" s="95"/>
-      <c r="R69" s="95"/>
-      <c r="S69" s="95"/>
-      <c r="T69" s="31"/>
-      <c r="U69" s="32"/>
+      <c r="P69" s="94"/>
+      <c r="Q69" s="94"/>
+      <c r="R69" s="94"/>
+      <c r="S69" s="94"/>
+      <c r="T69" s="30"/>
+      <c r="U69" s="31"/>
     </row>
     <row r="70" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B70" s="160"/>
-      <c r="C70" s="30">
+      <c r="B70" s="210"/>
+      <c r="C70" s="29">
         <v>1</v>
       </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="123"/>
-      <c r="F70" s="144"/>
-      <c r="H70" s="89">
+      <c r="D70" s="29"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="242"/>
+      <c r="H70" s="88">
         <v>57</v>
       </c>
-      <c r="I70" s="95"/>
-      <c r="J70" s="95"/>
-      <c r="K70" s="95"/>
-      <c r="L70" s="95"/>
-      <c r="M70" s="95"/>
-      <c r="N70" s="95"/>
+      <c r="I70" s="94"/>
+      <c r="J70" s="94"/>
+      <c r="K70" s="94"/>
+      <c r="L70" s="94"/>
+      <c r="M70" s="94"/>
+      <c r="N70" s="94"/>
       <c r="O70" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P70" s="95"/>
-      <c r="Q70" s="95"/>
-      <c r="R70" s="95"/>
-      <c r="S70" s="95"/>
-      <c r="T70" s="31"/>
-      <c r="U70" s="32"/>
+      <c r="P70" s="94"/>
+      <c r="Q70" s="94"/>
+      <c r="R70" s="94"/>
+      <c r="S70" s="94"/>
+      <c r="T70" s="30"/>
+      <c r="U70" s="31"/>
     </row>
     <row r="71" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B71" s="160"/>
-      <c r="C71" s="78">
+      <c r="B71" s="210"/>
+      <c r="C71" s="77">
         <v>2</v>
       </c>
-      <c r="D71" s="37"/>
-      <c r="E71" s="123"/>
-      <c r="F71" s="144"/>
-      <c r="H71" s="89">
+      <c r="D71" s="36"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="242"/>
+      <c r="H71" s="88">
         <v>58</v>
       </c>
-      <c r="I71" s="95"/>
-      <c r="J71" s="95"/>
-      <c r="K71" s="95"/>
-      <c r="L71" s="95"/>
-      <c r="M71" s="95"/>
-      <c r="N71" s="95"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="94"/>
+      <c r="L71" s="94"/>
+      <c r="M71" s="94"/>
+      <c r="N71" s="94"/>
       <c r="O71" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P71" s="95"/>
-      <c r="Q71" s="95"/>
-      <c r="R71" s="95"/>
-      <c r="S71" s="95"/>
-      <c r="T71" s="31"/>
-      <c r="U71" s="32"/>
+      <c r="P71" s="94"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="94"/>
+      <c r="S71" s="94"/>
+      <c r="T71" s="30"/>
+      <c r="U71" s="31"/>
     </row>
     <row r="72" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B72" s="160"/>
-      <c r="C72" s="78">
+      <c r="B72" s="210"/>
+      <c r="C72" s="77">
         <v>3</v>
       </c>
-      <c r="D72" s="37"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="144"/>
-      <c r="H72" s="89">
+      <c r="D72" s="36"/>
+      <c r="E72" s="112"/>
+      <c r="F72" s="242"/>
+      <c r="H72" s="88">
         <v>59</v>
       </c>
-      <c r="I72" s="95"/>
-      <c r="J72" s="95"/>
-      <c r="K72" s="95"/>
-      <c r="L72" s="95"/>
-      <c r="M72" s="95"/>
-      <c r="N72" s="95"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="94"/>
+      <c r="K72" s="94"/>
+      <c r="L72" s="94"/>
+      <c r="M72" s="94"/>
+      <c r="N72" s="94"/>
       <c r="O72" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P72" s="95"/>
-      <c r="Q72" s="95"/>
-      <c r="R72" s="95"/>
-      <c r="S72" s="95"/>
-      <c r="T72" s="31"/>
-      <c r="U72" s="32"/>
+      <c r="P72" s="94"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="94"/>
+      <c r="T72" s="30"/>
+      <c r="U72" s="31"/>
     </row>
     <row r="73" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B73" s="160"/>
-      <c r="C73" s="78">
+      <c r="B73" s="210"/>
+      <c r="C73" s="77">
         <v>4</v>
       </c>
-      <c r="D73" s="37"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="144"/>
-      <c r="H73" s="89">
+      <c r="D73" s="36"/>
+      <c r="E73" s="112"/>
+      <c r="F73" s="242"/>
+      <c r="H73" s="88">
         <v>60</v>
       </c>
-      <c r="I73" s="95"/>
-      <c r="J73" s="95"/>
-      <c r="K73" s="95"/>
-      <c r="L73" s="95"/>
-      <c r="M73" s="95"/>
-      <c r="N73" s="95"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="94"/>
+      <c r="L73" s="94"/>
+      <c r="M73" s="94"/>
+      <c r="N73" s="94"/>
       <c r="O73" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P73" s="95"/>
-      <c r="Q73" s="95"/>
-      <c r="R73" s="95"/>
-      <c r="S73" s="95"/>
-      <c r="T73" s="31"/>
-      <c r="U73" s="32"/>
+      <c r="P73" s="94"/>
+      <c r="Q73" s="94"/>
+      <c r="R73" s="94"/>
+      <c r="S73" s="94"/>
+      <c r="T73" s="30"/>
+      <c r="U73" s="31"/>
     </row>
     <row r="74" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B74" s="160"/>
-      <c r="C74" s="78">
+      <c r="B74" s="210"/>
+      <c r="C74" s="77">
         <v>5</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="144"/>
-      <c r="H74" s="89">
+      <c r="D74" s="36"/>
+      <c r="E74" s="112"/>
+      <c r="F74" s="242"/>
+      <c r="H74" s="88">
         <v>61</v>
       </c>
-      <c r="I74" s="95"/>
-      <c r="J74" s="95"/>
-      <c r="K74" s="95"/>
-      <c r="L74" s="95"/>
-      <c r="M74" s="95"/>
-      <c r="N74" s="95"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="94"/>
+      <c r="K74" s="94"/>
+      <c r="L74" s="94"/>
+      <c r="M74" s="94"/>
+      <c r="N74" s="94"/>
       <c r="O74" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P74" s="95"/>
-      <c r="Q74" s="95"/>
-      <c r="R74" s="95"/>
-      <c r="S74" s="95"/>
-      <c r="T74" s="31"/>
-      <c r="U74" s="32"/>
+      <c r="P74" s="94"/>
+      <c r="Q74" s="94"/>
+      <c r="R74" s="94"/>
+      <c r="S74" s="94"/>
+      <c r="T74" s="30"/>
+      <c r="U74" s="31"/>
     </row>
     <row r="75" spans="2:30" ht="35.1" customHeight="1">
-      <c r="B75" s="160"/>
-      <c r="C75" s="78">
+      <c r="B75" s="210"/>
+      <c r="C75" s="77">
         <v>6</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="123"/>
-      <c r="F75" s="144"/>
-      <c r="H75" s="89">
+      <c r="D75" s="36"/>
+      <c r="E75" s="112"/>
+      <c r="F75" s="242"/>
+      <c r="H75" s="88">
         <v>62</v>
       </c>
-      <c r="I75" s="95"/>
-      <c r="J75" s="95"/>
-      <c r="K75" s="95"/>
-      <c r="L75" s="95"/>
-      <c r="M75" s="95"/>
-      <c r="N75" s="95"/>
+      <c r="I75" s="94"/>
+      <c r="J75" s="94"/>
+      <c r="K75" s="94"/>
+      <c r="L75" s="94"/>
+      <c r="M75" s="94"/>
+      <c r="N75" s="94"/>
       <c r="O75" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="P75" s="95"/>
-      <c r="Q75" s="95"/>
-      <c r="R75" s="95"/>
-      <c r="S75" s="95"/>
-      <c r="T75" s="31"/>
-      <c r="U75" s="32"/>
+      <c r="P75" s="94"/>
+      <c r="Q75" s="94"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="94"/>
+      <c r="T75" s="30"/>
+      <c r="U75" s="31"/>
     </row>
     <row r="76" spans="2:30" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B76" s="160"/>
-      <c r="C76" s="78">
+      <c r="B76" s="210"/>
+      <c r="C76" s="77">
         <v>7</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="123"/>
-      <c r="F76" s="144"/>
-      <c r="H76" s="89">
+      <c r="D76" s="36"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="242"/>
+      <c r="H76" s="88">
         <v>63</v>
       </c>
-      <c r="I76" s="96"/>
-      <c r="J76" s="96"/>
-      <c r="K76" s="96"/>
-      <c r="L76" s="96"/>
-      <c r="M76" s="96"/>
-      <c r="N76" s="96"/>
-      <c r="O76" s="110" t="s">
+      <c r="I76" s="95"/>
+      <c r="J76" s="95"/>
+      <c r="K76" s="95"/>
+      <c r="L76" s="95"/>
+      <c r="M76" s="95"/>
+      <c r="N76" s="95"/>
+      <c r="O76" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="P76" s="96"/>
-      <c r="Q76" s="96"/>
-      <c r="R76" s="96"/>
-      <c r="S76" s="96"/>
-      <c r="T76" s="98"/>
-      <c r="U76" s="99"/>
+      <c r="P76" s="95"/>
+      <c r="Q76" s="95"/>
+      <c r="R76" s="95"/>
+      <c r="S76" s="95"/>
+      <c r="T76" s="97"/>
+      <c r="U76" s="98"/>
     </row>
     <row r="77" spans="2:30" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B77" s="160"/>
-      <c r="C77" s="78">
+      <c r="B77" s="210"/>
+      <c r="C77" s="77">
         <v>8</v>
       </c>
-      <c r="D77" s="37"/>
-      <c r="E77" s="123"/>
-      <c r="F77" s="144"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="89">
+      <c r="D77" s="36"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="242"/>
+      <c r="G77" s="103"/>
+      <c r="H77" s="88">
         <v>64</v>
       </c>
-      <c r="I77" s="96"/>
-      <c r="J77" s="96"/>
-      <c r="K77" s="96"/>
-      <c r="L77" s="96"/>
-      <c r="M77" s="96"/>
-      <c r="N77" s="96"/>
-      <c r="O77" s="110" t="s">
+      <c r="I77" s="95"/>
+      <c r="J77" s="95"/>
+      <c r="K77" s="95"/>
+      <c r="L77" s="95"/>
+      <c r="M77" s="95"/>
+      <c r="N77" s="95"/>
+      <c r="O77" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="P77" s="96"/>
-      <c r="Q77" s="96"/>
-      <c r="R77" s="96"/>
-      <c r="S77" s="96"/>
-      <c r="T77" s="98"/>
-      <c r="U77" s="99"/>
+      <c r="P77" s="95"/>
+      <c r="Q77" s="95"/>
+      <c r="R77" s="95"/>
+      <c r="S77" s="95"/>
+      <c r="T77" s="97"/>
+      <c r="U77" s="98"/>
     </row>
     <row r="78" spans="2:30" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B78" s="160"/>
-      <c r="C78" s="78">
+      <c r="B78" s="210"/>
+      <c r="C78" s="77">
         <v>9</v>
       </c>
-      <c r="D78" s="107"/>
-      <c r="E78" s="124"/>
-      <c r="F78" s="144"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="89">
+      <c r="D78" s="103"/>
+      <c r="E78" s="113"/>
+      <c r="F78" s="242"/>
+      <c r="G78" s="103"/>
+      <c r="H78" s="88">
         <v>65</v>
       </c>
-      <c r="I78" s="96"/>
-      <c r="J78" s="96"/>
-      <c r="K78" s="96"/>
-      <c r="L78" s="96"/>
-      <c r="M78" s="96"/>
-      <c r="N78" s="96"/>
-      <c r="O78" s="110" t="s">
+      <c r="I78" s="95"/>
+      <c r="J78" s="95"/>
+      <c r="K78" s="95"/>
+      <c r="L78" s="95"/>
+      <c r="M78" s="95"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="P78" s="96"/>
-      <c r="Q78" s="96"/>
-      <c r="R78" s="96"/>
-      <c r="S78" s="96"/>
-      <c r="T78" s="98"/>
-      <c r="U78" s="99"/>
+      <c r="P78" s="95"/>
+      <c r="Q78" s="95"/>
+      <c r="R78" s="95"/>
+      <c r="S78" s="95"/>
+      <c r="T78" s="97"/>
+      <c r="U78" s="98"/>
     </row>
     <row r="79" spans="2:30" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B79" s="161"/>
-      <c r="C79" s="108">
+      <c r="B79" s="211"/>
+      <c r="C79" s="104">
         <v>10</v>
       </c>
-      <c r="D79" s="109"/>
-      <c r="E79" s="125"/>
-      <c r="F79" s="145"/>
-      <c r="G79" s="100"/>
-      <c r="H79" s="89">
+      <c r="D79" s="105"/>
+      <c r="E79" s="114"/>
+      <c r="F79" s="243"/>
+      <c r="G79" s="99"/>
+      <c r="H79" s="88">
         <v>66</v>
       </c>
-      <c r="I79" s="96"/>
-      <c r="J79" s="96"/>
-      <c r="K79" s="96"/>
-      <c r="L79" s="96"/>
-      <c r="M79" s="96"/>
-      <c r="N79" s="96"/>
-      <c r="O79" s="110" t="s">
+      <c r="I79" s="95"/>
+      <c r="J79" s="95"/>
+      <c r="K79" s="95"/>
+      <c r="L79" s="95"/>
+      <c r="M79" s="95"/>
+      <c r="N79" s="95"/>
+      <c r="O79" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="P79" s="96"/>
-      <c r="Q79" s="96"/>
-      <c r="R79" s="96"/>
-      <c r="S79" s="96"/>
-      <c r="T79" s="98"/>
-      <c r="U79" s="99"/>
+      <c r="P79" s="95"/>
+      <c r="Q79" s="95"/>
+      <c r="R79" s="95"/>
+      <c r="S79" s="95"/>
+      <c r="T79" s="97"/>
+      <c r="U79" s="98"/>
     </row>
     <row r="80" spans="2:30" ht="30" customHeight="1">
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="O80" s="40"/>
-      <c r="AC80" s="94"/>
-      <c r="AD80" s="94"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="O80" s="39"/>
+      <c r="AC80" s="93"/>
+      <c r="AD80" s="93"/>
     </row>
     <row r="81" spans="3:31" ht="30" customHeight="1">
       <c r="C81"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="O81" s="40"/>
-      <c r="AC81" s="94"/>
-      <c r="AD81" s="94"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="O81" s="39"/>
+      <c r="AC81" s="93"/>
+      <c r="AD81" s="93"/>
     </row>
     <row r="82" spans="3:31" ht="30" customHeight="1">
-      <c r="O82" s="40"/>
-      <c r="AC82" s="94"/>
-      <c r="AD82" s="94"/>
+      <c r="O82" s="39"/>
+      <c r="AC82" s="93"/>
+      <c r="AD82" s="93"/>
     </row>
     <row r="83" spans="3:31" ht="30" customHeight="1">
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
       <c r="M83" s="25"/>
-      <c r="AC83" s="94"/>
-      <c r="AD83" s="94"/>
+      <c r="AC83" s="93"/>
+      <c r="AD83" s="93"/>
     </row>
     <row r="84" spans="3:31" ht="20.25" customHeight="1">
-      <c r="O84" s="40"/>
-      <c r="AC84" s="94"/>
-      <c r="AD84" s="94"/>
+      <c r="O84" s="39"/>
+      <c r="AC84" s="93"/>
+      <c r="AD84" s="93"/>
     </row>
     <row r="85" spans="3:31">
-      <c r="O85" s="40"/>
-      <c r="AC85" s="94"/>
-      <c r="AD85" s="94"/>
+      <c r="O85" s="39"/>
+      <c r="AC85" s="93"/>
+      <c r="AD85" s="93"/>
     </row>
     <row r="86" spans="3:31" ht="45.75" customHeight="1">
-      <c r="D86" s="30"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="47"/>
-      <c r="K86" s="30"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="30"/>
-      <c r="N86" s="44"/>
-      <c r="O86" s="40"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="39"/>
     </row>
     <row r="87" spans="3:31" ht="25.5" customHeight="1">
-      <c r="D87" s="41"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="43"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
-      <c r="O87" s="48"/>
+      <c r="D87" s="40"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="42"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="O87" s="47"/>
     </row>
     <row r="88" spans="3:31" ht="25.5" customHeight="1">
-      <c r="D88" s="41"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="30"/>
-      <c r="M88" s="30"/>
-      <c r="N88" s="51"/>
+      <c r="D88" s="40"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="50"/>
     </row>
     <row r="89" spans="3:31" ht="45" customHeight="1">
-      <c r="C89" s="30"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="30"/>
-      <c r="N89" s="54"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="52"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="53"/>
     </row>
     <row r="90" spans="3:31" ht="30.75" customHeight="1">
       <c r="G90" s="25"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="53"/>
-      <c r="L90" s="30"/>
-      <c r="M90" s="30"/>
-      <c r="N90" s="55"/>
-      <c r="T90" s="56"/>
-      <c r="U90" s="56"/>
-      <c r="W90" s="49"/>
-      <c r="X90" s="49"/>
-      <c r="Y90" s="49"/>
-      <c r="Z90" s="49"/>
-      <c r="AA90" s="49"/>
-      <c r="AB90" s="49"/>
-      <c r="AC90" s="50"/>
-      <c r="AD90" s="50"/>
-      <c r="AE90" s="50"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="52"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="54"/>
+      <c r="T90" s="55"/>
+      <c r="U90" s="55"/>
+      <c r="W90" s="48"/>
+      <c r="X90" s="48"/>
+      <c r="Y90" s="48"/>
+      <c r="Z90" s="48"/>
+      <c r="AA90" s="48"/>
+      <c r="AB90" s="48"/>
+      <c r="AC90" s="49"/>
+      <c r="AD90" s="49"/>
+      <c r="AE90" s="49"/>
     </row>
     <row r="91" spans="3:31" ht="24.95" customHeight="1">
-      <c r="H91" s="30"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="53"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="30"/>
-      <c r="N91" s="40"/>
-      <c r="T91" s="56"/>
-      <c r="U91" s="56"/>
-      <c r="W91" s="49"/>
-      <c r="X91" s="49"/>
-      <c r="Y91" s="49"/>
-      <c r="Z91" s="49"/>
-      <c r="AA91" s="49"/>
-      <c r="AB91" s="49"/>
-      <c r="AC91" s="52"/>
-      <c r="AD91" s="52"/>
-      <c r="AE91" s="52"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="52"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="39"/>
+      <c r="T91" s="55"/>
+      <c r="U91" s="55"/>
+      <c r="W91" s="48"/>
+      <c r="X91" s="48"/>
+      <c r="Y91" s="48"/>
+      <c r="Z91" s="48"/>
+      <c r="AA91" s="48"/>
+      <c r="AB91" s="48"/>
+      <c r="AC91" s="51"/>
+      <c r="AD91" s="51"/>
+      <c r="AE91" s="51"/>
     </row>
     <row r="92" spans="3:31" ht="24.95" customHeight="1"/>
     <row r="93" spans="3:31" ht="24.95" customHeight="1">
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="58"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="58"/>
-      <c r="N93" s="58"/>
-      <c r="O93" s="58"/>
-      <c r="T93" s="57"/>
-      <c r="V93" s="56"/>
-      <c r="W93" s="57"/>
-      <c r="X93" s="57"/>
-      <c r="Y93" s="57"/>
-      <c r="Z93" s="33"/>
-      <c r="AA93" s="33"/>
-      <c r="AB93" s="33"/>
-      <c r="AC93" s="33"/>
-      <c r="AD93" s="33"/>
-      <c r="AE93" s="33"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="57"/>
+      <c r="L93" s="57"/>
+      <c r="M93" s="57"/>
+      <c r="N93" s="57"/>
+      <c r="O93" s="57"/>
+      <c r="T93" s="56"/>
+      <c r="V93" s="55"/>
+      <c r="W93" s="56"/>
+      <c r="X93" s="56"/>
+      <c r="Y93" s="56"/>
+      <c r="Z93" s="32"/>
+      <c r="AA93" s="32"/>
+      <c r="AB93" s="32"/>
+      <c r="AC93" s="32"/>
+      <c r="AD93" s="32"/>
+      <c r="AE93" s="32"/>
     </row>
     <row r="94" spans="3:31" ht="24.95" customHeight="1">
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="58"/>
-      <c r="O94" s="58"/>
-      <c r="T94" s="57"/>
-      <c r="V94" s="56"/>
-      <c r="W94" s="57"/>
-      <c r="X94" s="57"/>
-      <c r="Y94" s="57"/>
-      <c r="Z94" s="33"/>
-      <c r="AA94" s="33"/>
-      <c r="AB94" s="33"/>
-      <c r="AC94" s="33"/>
-      <c r="AD94" s="33"/>
-      <c r="AE94" s="33"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="57"/>
+      <c r="K94" s="57"/>
+      <c r="L94" s="57"/>
+      <c r="M94" s="57"/>
+      <c r="N94" s="57"/>
+      <c r="O94" s="57"/>
+      <c r="T94" s="56"/>
+      <c r="V94" s="55"/>
+      <c r="W94" s="56"/>
+      <c r="X94" s="56"/>
+      <c r="Y94" s="56"/>
+      <c r="Z94" s="32"/>
+      <c r="AA94" s="32"/>
+      <c r="AB94" s="32"/>
+      <c r="AC94" s="32"/>
+      <c r="AD94" s="32"/>
+      <c r="AE94" s="32"/>
     </row>
     <row r="95" spans="3:31" ht="24.95" customHeight="1">
-      <c r="K95" s="30"/>
-      <c r="N95" s="30"/>
-      <c r="T95" s="57"/>
+      <c r="K95" s="29"/>
+      <c r="N95" s="29"/>
+      <c r="T95" s="56"/>
     </row>
     <row r="96" spans="3:31" ht="60" customHeight="1">
-      <c r="D96" s="30"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="46"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="30"/>
-      <c r="M96" s="30"/>
-      <c r="N96" s="30"/>
-      <c r="O96" s="30"/>
-      <c r="T96" s="57"/>
-      <c r="AB96" s="33"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="45"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="29"/>
+      <c r="O96" s="29"/>
+      <c r="T96" s="56"/>
+      <c r="AB96" s="32"/>
     </row>
     <row r="97" spans="3:31" ht="60" customHeight="1">
-      <c r="C97" s="59"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="58"/>
-      <c r="O97" s="30"/>
-      <c r="T97" s="57"/>
-      <c r="U97" s="52"/>
+      <c r="C97" s="58"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
+      <c r="O97" s="29"/>
+      <c r="T97" s="56"/>
+      <c r="U97" s="51"/>
     </row>
     <row r="98" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C98" s="39"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="60"/>
-      <c r="O98" s="30"/>
-      <c r="T98" s="57"/>
-      <c r="U98" s="52"/>
-      <c r="W98" s="43"/>
-      <c r="X98" s="43"/>
-      <c r="Y98" s="43"/>
+      <c r="C98" s="38"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="O98" s="29"/>
+      <c r="T98" s="56"/>
+      <c r="U98" s="51"/>
+      <c r="W98" s="42"/>
+      <c r="X98" s="42"/>
+      <c r="Y98" s="42"/>
     </row>
     <row r="99" spans="3:31" ht="30.6" customHeight="1">
-      <c r="C99" s="28"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60"/>
-      <c r="T99" s="57"/>
-      <c r="U99" s="66"/>
-      <c r="W99" s="46"/>
-      <c r="X99" s="46"/>
-      <c r="Y99" s="46"/>
-      <c r="Z99" s="30"/>
-      <c r="AA99" s="30"/>
-      <c r="AB99" s="30"/>
-      <c r="AC99" s="30"/>
-      <c r="AD99" s="30"/>
-      <c r="AE99" s="30"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="59"/>
+      <c r="T99" s="56"/>
+      <c r="U99" s="65"/>
+      <c r="W99" s="45"/>
+      <c r="X99" s="45"/>
+      <c r="Y99" s="45"/>
+      <c r="Z99" s="29"/>
+      <c r="AA99" s="29"/>
+      <c r="AB99" s="29"/>
+      <c r="AC99" s="29"/>
+      <c r="AD99" s="29"/>
+      <c r="AE99" s="29"/>
     </row>
     <row r="100" spans="3:31" ht="24.95" customHeight="1">
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="28"/>
-      <c r="T100" s="33"/>
-      <c r="U100" s="33"/>
-      <c r="V100" s="52"/>
-      <c r="W100" s="33"/>
-      <c r="X100" s="33"/>
-      <c r="Y100" s="61"/>
-      <c r="Z100" s="61"/>
-      <c r="AA100" s="61"/>
-      <c r="AB100" s="61"/>
-      <c r="AC100" s="61"/>
-      <c r="AD100" s="61"/>
-      <c r="AE100" s="61"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="27"/>
+      <c r="T100" s="32"/>
+      <c r="U100" s="32"/>
+      <c r="V100" s="51"/>
+      <c r="W100" s="32"/>
+      <c r="X100" s="32"/>
+      <c r="Y100" s="60"/>
+      <c r="Z100" s="60"/>
+      <c r="AA100" s="60"/>
+      <c r="AB100" s="60"/>
+      <c r="AC100" s="60"/>
+      <c r="AD100" s="60"/>
+      <c r="AE100" s="60"/>
     </row>
     <row r="101" spans="3:31" ht="24.95" customHeight="1">
-      <c r="D101" s="62"/>
-      <c r="E101" s="60"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="28"/>
-      <c r="O101" s="30"/>
-      <c r="T101" s="63"/>
-      <c r="U101" s="70"/>
-      <c r="V101" s="52"/>
-      <c r="W101" s="63"/>
-      <c r="X101" s="52"/>
-      <c r="Y101" s="64"/>
-      <c r="Z101" s="64"/>
-      <c r="AA101" s="64"/>
-      <c r="AB101" s="64"/>
-      <c r="AC101" s="65"/>
-      <c r="AD101" s="64"/>
-      <c r="AE101" s="64"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="27"/>
+      <c r="O101" s="29"/>
+      <c r="T101" s="62"/>
+      <c r="U101" s="69"/>
+      <c r="V101" s="51"/>
+      <c r="W101" s="62"/>
+      <c r="X101" s="51"/>
+      <c r="Y101" s="63"/>
+      <c r="Z101" s="63"/>
+      <c r="AA101" s="63"/>
+      <c r="AB101" s="63"/>
+      <c r="AC101" s="64"/>
+      <c r="AD101" s="63"/>
+      <c r="AE101" s="63"/>
     </row>
     <row r="102" spans="3:31" ht="24.95" customHeight="1">
-      <c r="D102" s="62"/>
-      <c r="E102" s="60"/>
-      <c r="G102" s="28"/>
-      <c r="O102" s="30"/>
-      <c r="T102" s="33"/>
-      <c r="U102" s="33"/>
-      <c r="V102" s="66"/>
-      <c r="W102" s="33"/>
-      <c r="X102" s="52"/>
-      <c r="Y102" s="64"/>
-      <c r="Z102" s="64"/>
-      <c r="AA102" s="64"/>
-      <c r="AB102" s="64"/>
-      <c r="AC102" s="67"/>
-      <c r="AD102" s="64"/>
-      <c r="AE102" s="64"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="59"/>
+      <c r="G102" s="27"/>
+      <c r="O102" s="29"/>
+      <c r="T102" s="32"/>
+      <c r="U102" s="32"/>
+      <c r="V102" s="65"/>
+      <c r="W102" s="32"/>
+      <c r="X102" s="51"/>
+      <c r="Y102" s="63"/>
+      <c r="Z102" s="63"/>
+      <c r="AA102" s="63"/>
+      <c r="AB102" s="63"/>
+      <c r="AC102" s="66"/>
+      <c r="AD102" s="63"/>
+      <c r="AE102" s="63"/>
     </row>
     <row r="103" spans="3:31" ht="24.95" customHeight="1">
-      <c r="E103" s="60"/>
-      <c r="G103" s="28"/>
-      <c r="O103" s="30"/>
-      <c r="T103" s="33"/>
-      <c r="U103" s="33"/>
-      <c r="V103" s="57"/>
-      <c r="W103" s="33"/>
-      <c r="X103" s="52"/>
-      <c r="Y103" s="52"/>
-      <c r="Z103" s="68"/>
-      <c r="AA103" s="68"/>
-      <c r="AB103" s="69"/>
-      <c r="AC103" s="52"/>
-      <c r="AD103" s="69"/>
-      <c r="AE103" s="69"/>
+      <c r="E103" s="59"/>
+      <c r="G103" s="27"/>
+      <c r="O103" s="29"/>
+      <c r="T103" s="32"/>
+      <c r="U103" s="32"/>
+      <c r="V103" s="56"/>
+      <c r="W103" s="32"/>
+      <c r="X103" s="51"/>
+      <c r="Y103" s="51"/>
+      <c r="Z103" s="67"/>
+      <c r="AA103" s="67"/>
+      <c r="AB103" s="68"/>
+      <c r="AC103" s="51"/>
+      <c r="AD103" s="68"/>
+      <c r="AE103" s="68"/>
     </row>
     <row r="104" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C104" s="28"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="28"/>
-      <c r="O104" s="30"/>
-      <c r="T104" s="33"/>
-      <c r="U104" s="33"/>
-      <c r="V104" s="63"/>
-      <c r="W104" s="33"/>
-      <c r="X104" s="52"/>
-      <c r="Y104" s="52"/>
-      <c r="Z104" s="68"/>
-      <c r="AA104" s="68"/>
-      <c r="AB104" s="69"/>
-      <c r="AC104" s="69"/>
-      <c r="AD104" s="71"/>
-      <c r="AE104" s="71"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="27"/>
+      <c r="O104" s="29"/>
+      <c r="T104" s="32"/>
+      <c r="U104" s="32"/>
+      <c r="V104" s="62"/>
+      <c r="W104" s="32"/>
+      <c r="X104" s="51"/>
+      <c r="Y104" s="51"/>
+      <c r="Z104" s="67"/>
+      <c r="AA104" s="67"/>
+      <c r="AB104" s="68"/>
+      <c r="AC104" s="68"/>
+      <c r="AD104" s="70"/>
+      <c r="AE104" s="70"/>
     </row>
     <row r="105" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C105" s="28"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="62"/>
-      <c r="G105" s="28"/>
-      <c r="O105" s="30"/>
-      <c r="T105" s="33"/>
-      <c r="U105" s="33"/>
-      <c r="V105" s="33"/>
-      <c r="W105" s="33"/>
-      <c r="X105" s="52"/>
-      <c r="Y105" s="52"/>
-      <c r="Z105" s="68"/>
-      <c r="AA105" s="68"/>
-      <c r="AB105" s="69"/>
-      <c r="AC105" s="69"/>
-      <c r="AD105" s="52"/>
-      <c r="AE105" s="52"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="27"/>
+      <c r="O105" s="29"/>
+      <c r="T105" s="32"/>
+      <c r="U105" s="32"/>
+      <c r="V105" s="32"/>
+      <c r="W105" s="32"/>
+      <c r="X105" s="51"/>
+      <c r="Y105" s="51"/>
+      <c r="Z105" s="67"/>
+      <c r="AA105" s="67"/>
+      <c r="AB105" s="68"/>
+      <c r="AC105" s="68"/>
+      <c r="AD105" s="51"/>
+      <c r="AE105" s="51"/>
     </row>
     <row r="106" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C106" s="28"/>
-      <c r="D106" s="62"/>
-      <c r="G106" s="28"/>
-      <c r="O106" s="30"/>
-      <c r="T106" s="33"/>
-      <c r="U106" s="33"/>
-      <c r="V106" s="33"/>
-      <c r="W106" s="33"/>
-      <c r="X106" s="52"/>
-      <c r="Y106" s="52"/>
-      <c r="Z106" s="68"/>
-      <c r="AA106" s="68"/>
-      <c r="AB106" s="69"/>
-      <c r="AC106" s="69"/>
-      <c r="AD106" s="69"/>
-      <c r="AE106" s="52"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="61"/>
+      <c r="G106" s="27"/>
+      <c r="O106" s="29"/>
+      <c r="T106" s="32"/>
+      <c r="U106" s="32"/>
+      <c r="V106" s="32"/>
+      <c r="W106" s="32"/>
+      <c r="X106" s="51"/>
+      <c r="Y106" s="51"/>
+      <c r="Z106" s="67"/>
+      <c r="AA106" s="67"/>
+      <c r="AB106" s="68"/>
+      <c r="AC106" s="68"/>
+      <c r="AD106" s="68"/>
+      <c r="AE106" s="51"/>
     </row>
     <row r="107" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C107" s="72"/>
-      <c r="D107" s="72"/>
-      <c r="E107" s="72"/>
-      <c r="F107" s="72"/>
-      <c r="G107" s="28"/>
-      <c r="O107" s="30"/>
-      <c r="T107" s="33"/>
-      <c r="U107" s="33"/>
-      <c r="V107" s="33"/>
-      <c r="W107" s="33"/>
-      <c r="X107" s="52"/>
-      <c r="Y107" s="52"/>
-      <c r="Z107" s="68"/>
-      <c r="AA107" s="68"/>
-      <c r="AB107" s="69"/>
-      <c r="AC107" s="69"/>
-      <c r="AD107" s="52"/>
-      <c r="AE107" s="52"/>
+      <c r="C107" s="71"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="27"/>
+      <c r="O107" s="29"/>
+      <c r="T107" s="32"/>
+      <c r="U107" s="32"/>
+      <c r="V107" s="32"/>
+      <c r="W107" s="32"/>
+      <c r="X107" s="51"/>
+      <c r="Y107" s="51"/>
+      <c r="Z107" s="67"/>
+      <c r="AA107" s="67"/>
+      <c r="AB107" s="68"/>
+      <c r="AC107" s="68"/>
+      <c r="AD107" s="51"/>
+      <c r="AE107" s="51"/>
     </row>
     <row r="108" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C108" s="73"/>
-      <c r="D108" s="73"/>
-      <c r="E108" s="73"/>
-      <c r="F108" s="73"/>
-      <c r="G108" s="28"/>
-      <c r="O108" s="30"/>
-      <c r="T108" s="33"/>
-      <c r="U108" s="33"/>
-      <c r="V108" s="33"/>
-      <c r="W108" s="33"/>
-      <c r="X108" s="52"/>
-      <c r="Y108" s="52"/>
-      <c r="Z108" s="68"/>
-      <c r="AA108" s="68"/>
-      <c r="AB108" s="69"/>
-      <c r="AC108" s="69"/>
-      <c r="AD108" s="52"/>
-      <c r="AE108" s="52"/>
+      <c r="C108" s="72"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
+      <c r="F108" s="72"/>
+      <c r="G108" s="27"/>
+      <c r="O108" s="29"/>
+      <c r="T108" s="32"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="32"/>
+      <c r="W108" s="32"/>
+      <c r="X108" s="51"/>
+      <c r="Y108" s="51"/>
+      <c r="Z108" s="67"/>
+      <c r="AA108" s="67"/>
+      <c r="AB108" s="68"/>
+      <c r="AC108" s="68"/>
+      <c r="AD108" s="51"/>
+      <c r="AE108" s="51"/>
     </row>
     <row r="109" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C109" s="73"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="73"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="28"/>
-      <c r="O109" s="30"/>
-      <c r="T109" s="63"/>
-      <c r="U109" s="70"/>
-      <c r="V109" s="33"/>
-      <c r="W109" s="70"/>
-      <c r="X109" s="52"/>
-      <c r="Y109" s="64"/>
-      <c r="Z109" s="64"/>
-      <c r="AA109" s="64"/>
-      <c r="AB109" s="52"/>
-      <c r="AC109" s="52"/>
-      <c r="AD109" s="52"/>
-      <c r="AE109" s="52"/>
+      <c r="C109" s="72"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="73"/>
+      <c r="G109" s="27"/>
+      <c r="O109" s="29"/>
+      <c r="T109" s="62"/>
+      <c r="U109" s="69"/>
+      <c r="V109" s="32"/>
+      <c r="W109" s="69"/>
+      <c r="X109" s="51"/>
+      <c r="Y109" s="63"/>
+      <c r="Z109" s="63"/>
+      <c r="AA109" s="63"/>
+      <c r="AB109" s="51"/>
+      <c r="AC109" s="51"/>
+      <c r="AD109" s="51"/>
+      <c r="AE109" s="51"/>
     </row>
     <row r="110" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C110" s="75"/>
-      <c r="E110" s="76"/>
-      <c r="G110" s="28"/>
-      <c r="O110" s="30"/>
-      <c r="T110" s="57"/>
-      <c r="U110" s="66"/>
-      <c r="V110" s="33"/>
-      <c r="W110" s="46"/>
-      <c r="X110" s="46"/>
-      <c r="Y110" s="46"/>
-      <c r="Z110" s="30"/>
-      <c r="AA110" s="30"/>
-      <c r="AB110" s="30"/>
-      <c r="AC110" s="30"/>
-      <c r="AD110" s="30"/>
-      <c r="AE110" s="30"/>
+      <c r="C110" s="74"/>
+      <c r="E110" s="75"/>
+      <c r="G110" s="27"/>
+      <c r="O110" s="29"/>
+      <c r="T110" s="56"/>
+      <c r="U110" s="65"/>
+      <c r="V110" s="32"/>
+      <c r="W110" s="45"/>
+      <c r="X110" s="45"/>
+      <c r="Y110" s="45"/>
+      <c r="Z110" s="29"/>
+      <c r="AA110" s="29"/>
+      <c r="AB110" s="29"/>
+      <c r="AC110" s="29"/>
+      <c r="AD110" s="29"/>
+      <c r="AE110" s="29"/>
     </row>
     <row r="111" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C111" s="75"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="76"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="28"/>
-      <c r="O111" s="30"/>
-      <c r="T111" s="30"/>
-      <c r="U111" s="30"/>
-      <c r="V111" s="33"/>
+      <c r="C111" s="74"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="75"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="27"/>
+      <c r="O111" s="29"/>
+      <c r="T111" s="29"/>
+      <c r="U111" s="29"/>
+      <c r="V111" s="32"/>
     </row>
     <row r="112" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C112" s="75"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="28"/>
-      <c r="O112" s="30"/>
-      <c r="T112" s="30"/>
-      <c r="U112" s="30"/>
-      <c r="V112" s="70"/>
-      <c r="W112" s="30"/>
-      <c r="X112" s="30"/>
-      <c r="Y112" s="30"/>
-      <c r="Z112" s="30"/>
-      <c r="AA112" s="63"/>
-      <c r="AB112" s="63"/>
-      <c r="AC112" s="63"/>
-      <c r="AD112" s="63"/>
-      <c r="AE112" s="63"/>
+      <c r="C112" s="74"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="75"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="27"/>
+      <c r="O112" s="29"/>
+      <c r="T112" s="29"/>
+      <c r="U112" s="29"/>
+      <c r="V112" s="69"/>
+      <c r="W112" s="29"/>
+      <c r="X112" s="29"/>
+      <c r="Y112" s="29"/>
+      <c r="Z112" s="29"/>
+      <c r="AA112" s="62"/>
+      <c r="AB112" s="62"/>
+      <c r="AC112" s="62"/>
+      <c r="AD112" s="62"/>
+      <c r="AE112" s="62"/>
     </row>
     <row r="113" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C113" s="75"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="76"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="28"/>
-      <c r="O113" s="30"/>
-      <c r="T113" s="78"/>
-      <c r="U113" s="37"/>
-      <c r="V113" s="66"/>
-      <c r="W113" s="30"/>
-      <c r="X113" s="30"/>
-      <c r="Y113" s="30"/>
-      <c r="Z113" s="30"/>
-      <c r="AC113" s="30"/>
-      <c r="AD113" s="52"/>
-      <c r="AE113" s="52"/>
+      <c r="C113" s="74"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="75"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="27"/>
+      <c r="O113" s="29"/>
+      <c r="T113" s="77"/>
+      <c r="U113" s="36"/>
+      <c r="V113" s="65"/>
+      <c r="W113" s="29"/>
+      <c r="X113" s="29"/>
+      <c r="Y113" s="29"/>
+      <c r="Z113" s="29"/>
+      <c r="AC113" s="29"/>
+      <c r="AD113" s="51"/>
+      <c r="AE113" s="51"/>
     </row>
     <row r="114" spans="3:31" ht="24.95" customHeight="1">
-      <c r="D114" s="77"/>
-      <c r="E114" s="76"/>
-      <c r="F114" s="77"/>
-      <c r="G114" s="28"/>
-      <c r="O114" s="30"/>
-      <c r="T114" s="78"/>
-      <c r="U114" s="37"/>
-      <c r="W114" s="30"/>
-      <c r="X114" s="30"/>
-      <c r="Y114" s="30"/>
-      <c r="Z114" s="30"/>
-      <c r="AC114" s="30"/>
-      <c r="AD114" s="52"/>
-      <c r="AE114" s="52"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="75"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="27"/>
+      <c r="O114" s="29"/>
+      <c r="T114" s="77"/>
+      <c r="U114" s="36"/>
+      <c r="W114" s="29"/>
+      <c r="X114" s="29"/>
+      <c r="Y114" s="29"/>
+      <c r="Z114" s="29"/>
+      <c r="AC114" s="29"/>
+      <c r="AD114" s="51"/>
+      <c r="AE114" s="51"/>
     </row>
     <row r="115" spans="3:31" ht="24.95" customHeight="1">
-      <c r="D115" s="77"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="77"/>
-      <c r="G115" s="28"/>
-      <c r="O115" s="30"/>
-      <c r="T115" s="78"/>
-      <c r="U115" s="37"/>
-      <c r="V115" s="30"/>
-      <c r="W115" s="30"/>
-      <c r="X115" s="30"/>
-      <c r="Y115" s="30"/>
-      <c r="Z115" s="30"/>
-      <c r="AC115" s="30"/>
-      <c r="AD115" s="52"/>
-      <c r="AE115" s="52"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="27"/>
+      <c r="O115" s="29"/>
+      <c r="T115" s="77"/>
+      <c r="U115" s="36"/>
+      <c r="V115" s="29"/>
+      <c r="W115" s="29"/>
+      <c r="X115" s="29"/>
+      <c r="Y115" s="29"/>
+      <c r="Z115" s="29"/>
+      <c r="AC115" s="29"/>
+      <c r="AD115" s="51"/>
+      <c r="AE115" s="51"/>
     </row>
     <row r="116" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C116" s="73"/>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
-      <c r="F116" s="74"/>
-      <c r="G116" s="28"/>
-      <c r="O116" s="30"/>
-      <c r="T116" s="78"/>
-      <c r="U116" s="37"/>
-      <c r="W116" s="30"/>
-      <c r="X116" s="30"/>
-      <c r="Y116" s="30"/>
-      <c r="Z116" s="30"/>
-      <c r="AC116" s="30"/>
-      <c r="AD116" s="52"/>
-      <c r="AE116" s="52"/>
+      <c r="C116" s="72"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="73"/>
+      <c r="G116" s="27"/>
+      <c r="O116" s="29"/>
+      <c r="T116" s="77"/>
+      <c r="U116" s="36"/>
+      <c r="W116" s="29"/>
+      <c r="X116" s="29"/>
+      <c r="Y116" s="29"/>
+      <c r="Z116" s="29"/>
+      <c r="AC116" s="29"/>
+      <c r="AD116" s="51"/>
+      <c r="AE116" s="51"/>
     </row>
     <row r="117" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C117" s="74"/>
-      <c r="D117" s="74"/>
-      <c r="E117" s="74"/>
-      <c r="F117" s="74"/>
-      <c r="G117" s="28"/>
-      <c r="O117" s="30"/>
-      <c r="T117" s="78"/>
-      <c r="U117" s="37"/>
-      <c r="W117" s="30"/>
-      <c r="X117" s="30"/>
-      <c r="Y117" s="30"/>
-      <c r="Z117" s="30"/>
-      <c r="AC117" s="30"/>
-      <c r="AD117" s="52"/>
-      <c r="AE117" s="52"/>
+      <c r="C117" s="73"/>
+      <c r="D117" s="73"/>
+      <c r="E117" s="73"/>
+      <c r="F117" s="73"/>
+      <c r="G117" s="27"/>
+      <c r="O117" s="29"/>
+      <c r="T117" s="77"/>
+      <c r="U117" s="36"/>
+      <c r="W117" s="29"/>
+      <c r="X117" s="29"/>
+      <c r="Y117" s="29"/>
+      <c r="Z117" s="29"/>
+      <c r="AC117" s="29"/>
+      <c r="AD117" s="51"/>
+      <c r="AE117" s="51"/>
     </row>
     <row r="118" spans="3:31" ht="24.95" customHeight="1">
-      <c r="G118" s="28"/>
-      <c r="O118" s="30"/>
-      <c r="T118" s="78"/>
-      <c r="U118" s="37"/>
-      <c r="W118" s="30"/>
-      <c r="X118" s="30"/>
-      <c r="Y118" s="30"/>
-      <c r="Z118" s="30"/>
-      <c r="AC118" s="30"/>
-      <c r="AD118" s="52"/>
-      <c r="AE118" s="52"/>
+      <c r="G118" s="27"/>
+      <c r="O118" s="29"/>
+      <c r="T118" s="77"/>
+      <c r="U118" s="36"/>
+      <c r="W118" s="29"/>
+      <c r="X118" s="29"/>
+      <c r="Y118" s="29"/>
+      <c r="Z118" s="29"/>
+      <c r="AC118" s="29"/>
+      <c r="AD118" s="51"/>
+      <c r="AE118" s="51"/>
     </row>
     <row r="119" spans="3:31" ht="24.95" customHeight="1">
-      <c r="G119" s="28"/>
-      <c r="O119" s="30"/>
-      <c r="T119" s="78"/>
-      <c r="U119" s="37"/>
-      <c r="W119" s="30"/>
-      <c r="X119" s="30"/>
-      <c r="Y119" s="30"/>
-      <c r="Z119" s="28"/>
-      <c r="AC119" s="30"/>
-      <c r="AD119" s="52"/>
-      <c r="AE119" s="52"/>
+      <c r="G119" s="27"/>
+      <c r="O119" s="29"/>
+      <c r="T119" s="77"/>
+      <c r="U119" s="36"/>
+      <c r="W119" s="29"/>
+      <c r="X119" s="29"/>
+      <c r="Y119" s="29"/>
+      <c r="Z119" s="27"/>
+      <c r="AC119" s="29"/>
+      <c r="AD119" s="51"/>
+      <c r="AE119" s="51"/>
     </row>
     <row r="120" spans="3:31" ht="24.95" customHeight="1">
-      <c r="G120" s="28"/>
-      <c r="O120" s="30"/>
-      <c r="T120" s="78"/>
-      <c r="U120" s="37"/>
-      <c r="W120" s="30"/>
-      <c r="AD120" s="52"/>
-      <c r="AE120" s="52"/>
+      <c r="G120" s="27"/>
+      <c r="O120" s="29"/>
+      <c r="T120" s="77"/>
+      <c r="U120" s="36"/>
+      <c r="W120" s="29"/>
+      <c r="AD120" s="51"/>
+      <c r="AE120" s="51"/>
     </row>
     <row r="121" spans="3:31" ht="24.95" customHeight="1">
-      <c r="G121" s="28"/>
-      <c r="O121" s="30"/>
-      <c r="T121" s="78"/>
-      <c r="U121" s="37"/>
-      <c r="W121" s="30"/>
-      <c r="X121" s="30"/>
-      <c r="Y121" s="30"/>
-      <c r="Z121" s="30"/>
-      <c r="AC121" s="30"/>
-      <c r="AD121" s="52"/>
-      <c r="AE121" s="52"/>
+      <c r="G121" s="27"/>
+      <c r="O121" s="29"/>
+      <c r="T121" s="77"/>
+      <c r="U121" s="36"/>
+      <c r="W121" s="29"/>
+      <c r="X121" s="29"/>
+      <c r="Y121" s="29"/>
+      <c r="Z121" s="29"/>
+      <c r="AC121" s="29"/>
+      <c r="AD121" s="51"/>
+      <c r="AE121" s="51"/>
     </row>
     <row r="122" spans="3:31" ht="24.95" customHeight="1">
-      <c r="G122" s="28"/>
-      <c r="O122" s="30"/>
-      <c r="T122" s="78"/>
-      <c r="U122" s="37"/>
-      <c r="W122" s="30"/>
-      <c r="X122" s="30"/>
-      <c r="Y122" s="30"/>
-      <c r="Z122" s="28"/>
-      <c r="AC122" s="30"/>
-      <c r="AD122" s="52"/>
-      <c r="AE122" s="52"/>
+      <c r="G122" s="27"/>
+      <c r="O122" s="29"/>
+      <c r="T122" s="77"/>
+      <c r="U122" s="36"/>
+      <c r="W122" s="29"/>
+      <c r="X122" s="29"/>
+      <c r="Y122" s="29"/>
+      <c r="Z122" s="27"/>
+      <c r="AC122" s="29"/>
+      <c r="AD122" s="51"/>
+      <c r="AE122" s="51"/>
     </row>
     <row r="123" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="O123" s="30"/>
-      <c r="T123" s="78"/>
-      <c r="U123" s="37"/>
-      <c r="W123" s="30"/>
-      <c r="AD123" s="52"/>
-      <c r="AE123" s="52"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="O123" s="29"/>
+      <c r="T123" s="77"/>
+      <c r="U123" s="36"/>
+      <c r="W123" s="29"/>
+      <c r="AD123" s="51"/>
+      <c r="AE123" s="51"/>
     </row>
     <row r="124" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-      <c r="O124" s="30"/>
-      <c r="T124" s="78"/>
-      <c r="U124" s="37"/>
-      <c r="W124" s="30"/>
-      <c r="AD124" s="52"/>
-      <c r="AE124" s="52"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="O124" s="29"/>
+      <c r="T124" s="77"/>
+      <c r="U124" s="36"/>
+      <c r="W124" s="29"/>
+      <c r="AD124" s="51"/>
+      <c r="AE124" s="51"/>
     </row>
     <row r="125" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C125" s="72"/>
-      <c r="D125" s="72"/>
-      <c r="E125" s="72"/>
-      <c r="F125" s="72"/>
-      <c r="G125" s="28"/>
-      <c r="O125" s="30"/>
-      <c r="T125" s="78"/>
-      <c r="U125" s="37"/>
-      <c r="W125" s="30"/>
-      <c r="AD125" s="52"/>
-      <c r="AE125" s="52"/>
+      <c r="C125" s="71"/>
+      <c r="D125" s="71"/>
+      <c r="E125" s="71"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="27"/>
+      <c r="O125" s="29"/>
+      <c r="T125" s="77"/>
+      <c r="U125" s="36"/>
+      <c r="W125" s="29"/>
+      <c r="AD125" s="51"/>
+      <c r="AE125" s="51"/>
     </row>
     <row r="126" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C126" s="73"/>
-      <c r="D126" s="73"/>
-      <c r="E126" s="73"/>
-      <c r="F126" s="73"/>
-      <c r="G126" s="28"/>
-      <c r="O126" s="30"/>
-      <c r="T126" s="78"/>
-      <c r="U126" s="37"/>
-      <c r="W126" s="30"/>
-      <c r="AD126" s="52"/>
-      <c r="AE126" s="52"/>
+      <c r="C126" s="72"/>
+      <c r="D126" s="72"/>
+      <c r="E126" s="72"/>
+      <c r="F126" s="72"/>
+      <c r="G126" s="27"/>
+      <c r="O126" s="29"/>
+      <c r="T126" s="77"/>
+      <c r="U126" s="36"/>
+      <c r="W126" s="29"/>
+      <c r="AD126" s="51"/>
+      <c r="AE126" s="51"/>
     </row>
     <row r="127" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C127" s="73"/>
-      <c r="D127" s="74"/>
-      <c r="E127" s="73"/>
-      <c r="F127" s="74"/>
-      <c r="G127" s="28"/>
-      <c r="O127" s="30"/>
-      <c r="T127" s="78"/>
-      <c r="U127" s="36"/>
-      <c r="W127" s="30"/>
-      <c r="AD127" s="52"/>
-      <c r="AE127" s="52"/>
+      <c r="C127" s="72"/>
+      <c r="D127" s="73"/>
+      <c r="E127" s="72"/>
+      <c r="F127" s="73"/>
+      <c r="G127" s="27"/>
+      <c r="O127" s="29"/>
+      <c r="T127" s="77"/>
+      <c r="U127" s="35"/>
+      <c r="W127" s="29"/>
+      <c r="AD127" s="51"/>
+      <c r="AE127" s="51"/>
     </row>
     <row r="128" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C128" s="75"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="74"/>
-      <c r="G128" s="28"/>
-      <c r="O128" s="30"/>
-      <c r="T128" s="78"/>
-      <c r="W128" s="30"/>
-      <c r="AD128" s="52"/>
-      <c r="AE128" s="52"/>
+      <c r="C128" s="74"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="73"/>
+      <c r="G128" s="27"/>
+      <c r="O128" s="29"/>
+      <c r="T128" s="77"/>
+      <c r="W128" s="29"/>
+      <c r="AD128" s="51"/>
+      <c r="AE128" s="51"/>
     </row>
     <row r="129" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C129" s="75"/>
-      <c r="E129" s="75"/>
-      <c r="F129" s="74"/>
-      <c r="G129" s="28"/>
-      <c r="O129" s="30"/>
-      <c r="T129" s="78"/>
-      <c r="U129" s="30"/>
-      <c r="W129" s="30"/>
-      <c r="AD129" s="52"/>
-      <c r="AE129" s="52"/>
+      <c r="C129" s="74"/>
+      <c r="E129" s="74"/>
+      <c r="F129" s="73"/>
+      <c r="G129" s="27"/>
+      <c r="O129" s="29"/>
+      <c r="T129" s="77"/>
+      <c r="U129" s="29"/>
+      <c r="W129" s="29"/>
+      <c r="AD129" s="51"/>
+      <c r="AE129" s="51"/>
     </row>
     <row r="130" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C130" s="75"/>
-      <c r="E130" s="74"/>
-      <c r="F130" s="74"/>
-      <c r="G130" s="28"/>
-      <c r="O130" s="30"/>
-      <c r="T130" s="78"/>
-      <c r="U130" s="30"/>
-      <c r="W130" s="30"/>
-      <c r="AD130" s="52"/>
-      <c r="AE130" s="52"/>
+      <c r="C130" s="74"/>
+      <c r="E130" s="73"/>
+      <c r="F130" s="73"/>
+      <c r="G130" s="27"/>
+      <c r="O130" s="29"/>
+      <c r="T130" s="77"/>
+      <c r="U130" s="29"/>
+      <c r="W130" s="29"/>
+      <c r="AD130" s="51"/>
+      <c r="AE130" s="51"/>
     </row>
     <row r="131" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C131" s="75"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="74"/>
-      <c r="F131" s="74"/>
-      <c r="G131" s="28"/>
-      <c r="O131" s="30"/>
-      <c r="T131" s="78"/>
-      <c r="U131" s="79"/>
-      <c r="W131" s="30"/>
-      <c r="AD131" s="52"/>
-      <c r="AE131" s="52"/>
+      <c r="C131" s="74"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="73"/>
+      <c r="F131" s="73"/>
+      <c r="G131" s="27"/>
+      <c r="O131" s="29"/>
+      <c r="T131" s="77"/>
+      <c r="U131" s="78"/>
+      <c r="W131" s="29"/>
+      <c r="AD131" s="51"/>
+      <c r="AE131" s="51"/>
     </row>
     <row r="132" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C132" s="75"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="74"/>
-      <c r="F132" s="74"/>
-      <c r="G132" s="28"/>
-      <c r="O132" s="30"/>
-      <c r="T132" s="78"/>
-      <c r="U132" s="79"/>
-      <c r="W132" s="30"/>
-      <c r="AD132" s="52"/>
-      <c r="AE132" s="52"/>
+      <c r="C132" s="74"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="73"/>
+      <c r="F132" s="73"/>
+      <c r="G132" s="27"/>
+      <c r="O132" s="29"/>
+      <c r="T132" s="77"/>
+      <c r="U132" s="78"/>
+      <c r="W132" s="29"/>
+      <c r="AD132" s="51"/>
+      <c r="AE132" s="51"/>
     </row>
     <row r="133" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C133" s="75"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="74"/>
-      <c r="F133" s="74"/>
-      <c r="G133" s="28"/>
-      <c r="O133" s="30"/>
-      <c r="T133" s="78"/>
-      <c r="U133" s="52"/>
-      <c r="W133" s="30"/>
-      <c r="AD133" s="52"/>
-      <c r="AE133" s="52"/>
+      <c r="C133" s="74"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="73"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="27"/>
+      <c r="O133" s="29"/>
+      <c r="T133" s="77"/>
+      <c r="U133" s="51"/>
+      <c r="W133" s="29"/>
+      <c r="AD133" s="51"/>
+      <c r="AE133" s="51"/>
     </row>
     <row r="134" spans="3:31" ht="24.95" customHeight="1">
-      <c r="G134" s="28"/>
-      <c r="O134" s="30"/>
-      <c r="T134" s="80"/>
-      <c r="U134" s="80"/>
-      <c r="W134" s="30"/>
-      <c r="AD134" s="52"/>
-      <c r="AE134" s="52"/>
+      <c r="G134" s="27"/>
+      <c r="O134" s="29"/>
+      <c r="T134" s="79"/>
+      <c r="U134" s="79"/>
+      <c r="W134" s="29"/>
+      <c r="AD134" s="51"/>
+      <c r="AE134" s="51"/>
     </row>
     <row r="135" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C135" s="73"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="28"/>
-      <c r="O135" s="30"/>
-      <c r="T135" s="80"/>
-      <c r="U135" s="80"/>
-      <c r="W135" s="30"/>
-      <c r="AD135" s="52"/>
-      <c r="AE135" s="52"/>
+      <c r="C135" s="72"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="27"/>
+      <c r="O135" s="29"/>
+      <c r="T135" s="79"/>
+      <c r="U135" s="79"/>
+      <c r="W135" s="29"/>
+      <c r="AD135" s="51"/>
+      <c r="AE135" s="51"/>
     </row>
     <row r="136" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C136" s="38"/>
-      <c r="D136" s="38"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="38"/>
-      <c r="G136" s="28"/>
-      <c r="O136" s="30"/>
-      <c r="T136" s="80"/>
-      <c r="U136" s="80"/>
-      <c r="V136" s="38"/>
-      <c r="W136" s="30"/>
-      <c r="AD136" s="52"/>
-      <c r="AE136" s="52"/>
+      <c r="C136" s="37"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="27"/>
+      <c r="O136" s="29"/>
+      <c r="T136" s="79"/>
+      <c r="U136" s="79"/>
+      <c r="V136" s="37"/>
+      <c r="W136" s="29"/>
+      <c r="AD136" s="51"/>
+      <c r="AE136" s="51"/>
     </row>
     <row r="137" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C137" s="38"/>
-      <c r="D137" s="38"/>
-      <c r="E137" s="38"/>
-      <c r="F137" s="38"/>
-      <c r="G137" s="28"/>
-      <c r="O137" s="30"/>
-      <c r="T137" s="80"/>
-      <c r="U137" s="80"/>
-      <c r="V137" s="38"/>
-      <c r="W137" s="30"/>
-      <c r="AD137" s="52"/>
-      <c r="AE137" s="52"/>
+      <c r="C137" s="37"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="37"/>
+      <c r="F137" s="37"/>
+      <c r="G137" s="27"/>
+      <c r="O137" s="29"/>
+      <c r="T137" s="79"/>
+      <c r="U137" s="79"/>
+      <c r="V137" s="37"/>
+      <c r="W137" s="29"/>
+      <c r="AD137" s="51"/>
+      <c r="AE137" s="51"/>
     </row>
     <row r="138" spans="3:31" ht="24.95" customHeight="1">
-      <c r="E138" s="74"/>
-      <c r="F138" s="74"/>
-      <c r="G138" s="28"/>
-      <c r="O138" s="30"/>
-      <c r="T138" s="80"/>
-      <c r="U138" s="80"/>
-      <c r="W138" s="30"/>
-      <c r="AD138" s="52"/>
-      <c r="AE138" s="52"/>
+      <c r="E138" s="73"/>
+      <c r="F138" s="73"/>
+      <c r="G138" s="27"/>
+      <c r="O138" s="29"/>
+      <c r="T138" s="79"/>
+      <c r="U138" s="79"/>
+      <c r="W138" s="29"/>
+      <c r="AD138" s="51"/>
+      <c r="AE138" s="51"/>
     </row>
     <row r="139" spans="3:31" ht="24.95" customHeight="1">
-      <c r="D139" s="74"/>
-      <c r="E139" s="74"/>
-      <c r="F139" s="74"/>
-      <c r="G139" s="28"/>
-      <c r="I139" s="39"/>
-      <c r="L139" s="44"/>
-      <c r="M139" s="44"/>
-      <c r="N139" s="39"/>
-      <c r="T139" s="80"/>
-      <c r="U139" s="80"/>
-      <c r="W139" s="30"/>
-      <c r="AD139" s="52"/>
-      <c r="AE139" s="52"/>
+      <c r="D139" s="73"/>
+      <c r="E139" s="73"/>
+      <c r="F139" s="73"/>
+      <c r="G139" s="27"/>
+      <c r="I139" s="38"/>
+      <c r="L139" s="43"/>
+      <c r="M139" s="43"/>
+      <c r="N139" s="38"/>
+      <c r="T139" s="79"/>
+      <c r="U139" s="79"/>
+      <c r="W139" s="29"/>
+      <c r="AD139" s="51"/>
+      <c r="AE139" s="51"/>
     </row>
     <row r="140" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C140" s="73"/>
-      <c r="D140" s="74"/>
-      <c r="E140" s="74"/>
-      <c r="F140" s="74"/>
-      <c r="G140" s="28"/>
-      <c r="I140" s="39"/>
-      <c r="L140" s="30"/>
-      <c r="N140" s="39"/>
-      <c r="T140" s="80"/>
-      <c r="U140" s="80"/>
-      <c r="W140" s="30"/>
-      <c r="AD140" s="52"/>
-      <c r="AE140" s="52"/>
+      <c r="C140" s="72"/>
+      <c r="D140" s="73"/>
+      <c r="E140" s="73"/>
+      <c r="F140" s="73"/>
+      <c r="G140" s="27"/>
+      <c r="I140" s="38"/>
+      <c r="L140" s="29"/>
+      <c r="N140" s="38"/>
+      <c r="T140" s="79"/>
+      <c r="U140" s="79"/>
+      <c r="W140" s="29"/>
+      <c r="AD140" s="51"/>
+      <c r="AE140" s="51"/>
     </row>
     <row r="141" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C141" s="36"/>
-      <c r="D141" s="36"/>
-      <c r="E141" s="36"/>
-      <c r="F141" s="36"/>
-      <c r="G141" s="28"/>
-      <c r="I141" s="39"/>
-      <c r="L141" s="44"/>
-      <c r="M141" s="44"/>
-      <c r="N141" s="39"/>
-      <c r="T141" s="80"/>
-      <c r="U141" s="80"/>
-      <c r="W141" s="30"/>
-      <c r="AD141" s="52"/>
-      <c r="AE141" s="52"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="35"/>
+      <c r="G141" s="27"/>
+      <c r="I141" s="38"/>
+      <c r="L141" s="43"/>
+      <c r="M141" s="43"/>
+      <c r="N141" s="38"/>
+      <c r="T141" s="79"/>
+      <c r="U141" s="79"/>
+      <c r="W141" s="29"/>
+      <c r="AD141" s="51"/>
+      <c r="AE141" s="51"/>
     </row>
     <row r="142" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C142" s="39"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39"/>
-      <c r="F142" s="39"/>
-      <c r="G142" s="39"/>
-      <c r="I142" s="39"/>
-      <c r="L142" s="30"/>
-      <c r="N142" s="39"/>
-      <c r="T142" s="80"/>
-      <c r="U142" s="80"/>
-      <c r="W142" s="30"/>
-      <c r="AD142" s="52"/>
-      <c r="AE142" s="52"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
+      <c r="E142" s="38"/>
+      <c r="F142" s="38"/>
+      <c r="G142" s="38"/>
+      <c r="I142" s="38"/>
+      <c r="L142" s="29"/>
+      <c r="N142" s="38"/>
+      <c r="T142" s="79"/>
+      <c r="U142" s="79"/>
+      <c r="W142" s="29"/>
+      <c r="AD142" s="51"/>
+      <c r="AE142" s="51"/>
     </row>
     <row r="143" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C143" s="39"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39"/>
-      <c r="F143" s="39"/>
-      <c r="G143" s="39"/>
-      <c r="N143" s="46"/>
-      <c r="O143" s="30"/>
-      <c r="V143" s="30"/>
-      <c r="W143" s="30"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="38"/>
+      <c r="E143" s="38"/>
+      <c r="F143" s="38"/>
+      <c r="G143" s="38"/>
+      <c r="N143" s="45"/>
+      <c r="O143" s="29"/>
+      <c r="V143" s="29"/>
+      <c r="W143" s="29"/>
     </row>
     <row r="144" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C144" s="39"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
-      <c r="F144" s="39"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="83"/>
-      <c r="L144" s="36"/>
-      <c r="M144" s="36"/>
-      <c r="N144" s="36"/>
-      <c r="O144" s="36"/>
-      <c r="T144" s="69"/>
-      <c r="U144" s="69"/>
-      <c r="V144" s="30"/>
-      <c r="W144" s="52"/>
-      <c r="X144" s="52"/>
-      <c r="Y144" s="52"/>
-      <c r="Z144" s="52"/>
-      <c r="AA144" s="52"/>
-      <c r="AB144" s="52"/>
-      <c r="AC144" s="52"/>
-      <c r="AD144" s="52"/>
-      <c r="AE144" s="52"/>
+      <c r="C144" s="38"/>
+      <c r="D144" s="38"/>
+      <c r="E144" s="38"/>
+      <c r="F144" s="38"/>
+      <c r="G144" s="38"/>
+      <c r="H144" s="82"/>
+      <c r="L144" s="35"/>
+      <c r="M144" s="35"/>
+      <c r="N144" s="35"/>
+      <c r="O144" s="35"/>
+      <c r="T144" s="68"/>
+      <c r="U144" s="68"/>
+      <c r="V144" s="29"/>
+      <c r="W144" s="51"/>
+      <c r="X144" s="51"/>
+      <c r="Y144" s="51"/>
+      <c r="Z144" s="51"/>
+      <c r="AA144" s="51"/>
+      <c r="AB144" s="51"/>
+      <c r="AC144" s="51"/>
+      <c r="AD144" s="51"/>
+      <c r="AE144" s="51"/>
     </row>
     <row r="145" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C145" s="39"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39"/>
-      <c r="F145" s="39"/>
-      <c r="G145" s="39"/>
-      <c r="L145" s="43"/>
-      <c r="M145" s="43"/>
-      <c r="N145" s="46"/>
-      <c r="O145" s="43"/>
-      <c r="T145" s="84"/>
-      <c r="U145" s="85"/>
-      <c r="W145" s="81"/>
-      <c r="X145" s="52"/>
-      <c r="Y145" s="82"/>
-      <c r="Z145" s="82"/>
-      <c r="AA145" s="82"/>
-      <c r="AB145" s="82"/>
-      <c r="AC145" s="82"/>
-      <c r="AD145" s="82"/>
-      <c r="AE145" s="82"/>
+      <c r="C145" s="38"/>
+      <c r="D145" s="38"/>
+      <c r="E145" s="38"/>
+      <c r="F145" s="38"/>
+      <c r="G145" s="38"/>
+      <c r="L145" s="42"/>
+      <c r="M145" s="42"/>
+      <c r="N145" s="45"/>
+      <c r="O145" s="42"/>
+      <c r="T145" s="83"/>
+      <c r="U145" s="84"/>
+      <c r="W145" s="80"/>
+      <c r="X145" s="51"/>
+      <c r="Y145" s="81"/>
+      <c r="Z145" s="81"/>
+      <c r="AA145" s="81"/>
+      <c r="AB145" s="81"/>
+      <c r="AC145" s="81"/>
+      <c r="AD145" s="81"/>
+      <c r="AE145" s="81"/>
     </row>
     <row r="146" spans="3:31">
-      <c r="C146" s="39"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="39"/>
-      <c r="F146" s="39"/>
-      <c r="G146" s="30"/>
-      <c r="L146" s="43"/>
-      <c r="M146" s="43"/>
-      <c r="N146" s="46"/>
-      <c r="O146" s="43"/>
-      <c r="T146" s="85"/>
-      <c r="U146" s="85"/>
-      <c r="W146" s="81"/>
-      <c r="X146" s="52"/>
-      <c r="Y146" s="82"/>
-      <c r="Z146" s="82"/>
-      <c r="AA146" s="82"/>
-      <c r="AB146" s="82"/>
-      <c r="AC146" s="82"/>
-      <c r="AD146" s="82"/>
-      <c r="AE146" s="82"/>
+      <c r="C146" s="38"/>
+      <c r="D146" s="38"/>
+      <c r="E146" s="38"/>
+      <c r="F146" s="38"/>
+      <c r="G146" s="29"/>
+      <c r="L146" s="42"/>
+      <c r="M146" s="42"/>
+      <c r="N146" s="45"/>
+      <c r="O146" s="42"/>
+      <c r="T146" s="84"/>
+      <c r="U146" s="84"/>
+      <c r="W146" s="80"/>
+      <c r="X146" s="51"/>
+      <c r="Y146" s="81"/>
+      <c r="Z146" s="81"/>
+      <c r="AA146" s="81"/>
+      <c r="AB146" s="81"/>
+      <c r="AC146" s="81"/>
+      <c r="AD146" s="81"/>
+      <c r="AE146" s="81"/>
     </row>
     <row r="147" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C147" s="39"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="39"/>
-      <c r="F147" s="39"/>
-      <c r="G147" s="83"/>
-      <c r="L147" s="43"/>
-      <c r="M147" s="43"/>
-      <c r="N147" s="46"/>
-      <c r="O147" s="43"/>
-      <c r="T147" s="85"/>
-      <c r="U147" s="85"/>
-      <c r="V147" s="52"/>
-      <c r="W147" s="81"/>
-      <c r="X147" s="52"/>
-      <c r="Y147" s="82"/>
-      <c r="Z147" s="82"/>
-      <c r="AA147" s="82"/>
-      <c r="AB147" s="82"/>
-      <c r="AC147" s="82"/>
-      <c r="AD147" s="82"/>
-      <c r="AE147" s="82"/>
+      <c r="C147" s="38"/>
+      <c r="D147" s="38"/>
+      <c r="E147" s="38"/>
+      <c r="F147" s="38"/>
+      <c r="G147" s="82"/>
+      <c r="L147" s="42"/>
+      <c r="M147" s="42"/>
+      <c r="N147" s="45"/>
+      <c r="O147" s="42"/>
+      <c r="T147" s="84"/>
+      <c r="U147" s="84"/>
+      <c r="V147" s="51"/>
+      <c r="W147" s="80"/>
+      <c r="X147" s="51"/>
+      <c r="Y147" s="81"/>
+      <c r="Z147" s="81"/>
+      <c r="AA147" s="81"/>
+      <c r="AB147" s="81"/>
+      <c r="AC147" s="81"/>
+      <c r="AD147" s="81"/>
+      <c r="AE147" s="81"/>
     </row>
     <row r="148" spans="3:31" ht="24.95" customHeight="1">
-      <c r="D148" s="73"/>
-      <c r="E148" s="30"/>
-      <c r="L148" s="43"/>
-      <c r="M148" s="43"/>
-      <c r="N148" s="46"/>
-      <c r="O148" s="43"/>
-      <c r="V148" s="85"/>
+      <c r="D148" s="72"/>
+      <c r="E148" s="29"/>
+      <c r="L148" s="42"/>
+      <c r="M148" s="42"/>
+      <c r="N148" s="45"/>
+      <c r="O148" s="42"/>
+      <c r="V148" s="84"/>
     </row>
     <row r="149" spans="3:31" ht="24.95" customHeight="1">
-      <c r="E149" s="30"/>
-      <c r="L149" s="43"/>
-      <c r="M149" s="43"/>
-      <c r="N149" s="46"/>
-      <c r="O149" s="43"/>
-      <c r="V149" s="85"/>
+      <c r="E149" s="29"/>
+      <c r="L149" s="42"/>
+      <c r="M149" s="42"/>
+      <c r="N149" s="45"/>
+      <c r="O149" s="42"/>
+      <c r="V149" s="84"/>
     </row>
     <row r="150" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C150" s="72"/>
-      <c r="D150" s="72"/>
-      <c r="E150" s="72"/>
-      <c r="F150" s="72"/>
-      <c r="L150" s="43"/>
-      <c r="M150" s="43"/>
-      <c r="N150" s="46"/>
-      <c r="O150" s="43"/>
-      <c r="V150" s="85"/>
+      <c r="C150" s="71"/>
+      <c r="D150" s="71"/>
+      <c r="E150" s="71"/>
+      <c r="F150" s="71"/>
+      <c r="L150" s="42"/>
+      <c r="M150" s="42"/>
+      <c r="N150" s="45"/>
+      <c r="O150" s="42"/>
+      <c r="V150" s="84"/>
     </row>
     <row r="151" spans="3:31" ht="24.95" customHeight="1">
-      <c r="L151" s="43"/>
-      <c r="M151" s="43"/>
-      <c r="N151" s="46"/>
-      <c r="O151" s="43"/>
+      <c r="L151" s="42"/>
+      <c r="M151" s="42"/>
+      <c r="N151" s="45"/>
+      <c r="O151" s="42"/>
     </row>
     <row r="152" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C152" s="74"/>
-      <c r="D152" s="74"/>
-      <c r="E152" s="74"/>
-      <c r="F152" s="74"/>
-      <c r="N152" s="46"/>
-      <c r="O152" s="43"/>
+      <c r="C152" s="73"/>
+      <c r="D152" s="73"/>
+      <c r="E152" s="73"/>
+      <c r="F152" s="73"/>
+      <c r="N152" s="45"/>
+      <c r="O152" s="42"/>
     </row>
     <row r="153" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C153" s="72"/>
-      <c r="D153" s="72"/>
-      <c r="E153" s="72"/>
-      <c r="F153" s="72"/>
-      <c r="M153" s="43"/>
-      <c r="N153" s="46"/>
-      <c r="O153" s="46"/>
+      <c r="C153" s="71"/>
+      <c r="D153" s="71"/>
+      <c r="E153" s="71"/>
+      <c r="F153" s="71"/>
+      <c r="M153" s="42"/>
+      <c r="N153" s="45"/>
+      <c r="O153" s="45"/>
     </row>
     <row r="154" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C154" s="74"/>
-      <c r="D154" s="74"/>
-      <c r="E154" s="74"/>
-      <c r="F154" s="74"/>
-      <c r="L154" s="43"/>
-      <c r="M154" s="43"/>
-      <c r="N154" s="46"/>
-      <c r="O154" s="46"/>
+      <c r="C154" s="73"/>
+      <c r="D154" s="73"/>
+      <c r="E154" s="73"/>
+      <c r="F154" s="73"/>
+      <c r="L154" s="42"/>
+      <c r="M154" s="42"/>
+      <c r="N154" s="45"/>
+      <c r="O154" s="45"/>
     </row>
     <row r="155" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C155" s="74"/>
-      <c r="D155" s="74"/>
-      <c r="E155" s="74"/>
-      <c r="F155" s="74"/>
+      <c r="C155" s="73"/>
+      <c r="D155" s="73"/>
+      <c r="E155" s="73"/>
+      <c r="F155" s="73"/>
     </row>
     <row r="156" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C156" s="74"/>
-      <c r="D156" s="74"/>
-      <c r="E156" s="74"/>
-      <c r="F156" s="74"/>
+      <c r="C156" s="73"/>
+      <c r="D156" s="73"/>
+      <c r="E156" s="73"/>
+      <c r="F156" s="73"/>
     </row>
     <row r="157" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C157" s="74"/>
-      <c r="D157" s="74"/>
-      <c r="E157" s="74"/>
-      <c r="F157" s="74"/>
+      <c r="C157" s="73"/>
+      <c r="D157" s="73"/>
+      <c r="E157" s="73"/>
+      <c r="F157" s="73"/>
     </row>
     <row r="158" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C158" s="74"/>
-      <c r="D158" s="74"/>
-      <c r="E158" s="74"/>
-      <c r="F158" s="74"/>
-      <c r="Q158" s="30"/>
-      <c r="R158" s="30"/>
-      <c r="S158" s="30"/>
-      <c r="T158" s="30"/>
+      <c r="C158" s="73"/>
+      <c r="D158" s="73"/>
+      <c r="E158" s="73"/>
+      <c r="F158" s="73"/>
+      <c r="Q158" s="29"/>
+      <c r="R158" s="29"/>
+      <c r="S158" s="29"/>
+      <c r="T158" s="29"/>
     </row>
     <row r="159" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C159" s="74"/>
-      <c r="D159" s="74"/>
-      <c r="E159" s="74"/>
-      <c r="F159" s="74"/>
+      <c r="C159" s="73"/>
+      <c r="D159" s="73"/>
+      <c r="E159" s="73"/>
+      <c r="F159" s="73"/>
     </row>
     <row r="160" spans="3:31" ht="24.95" customHeight="1">
-      <c r="C160" s="74"/>
-      <c r="D160" s="74"/>
-      <c r="E160" s="74"/>
-      <c r="F160" s="74"/>
+      <c r="C160" s="73"/>
+      <c r="D160" s="73"/>
+      <c r="E160" s="73"/>
+      <c r="F160" s="73"/>
     </row>
     <row r="161" spans="3:15" ht="24.95" customHeight="1">
-      <c r="C161" s="36"/>
-      <c r="D161" s="36"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="35"/>
     </row>
     <row r="162" spans="3:15" ht="24.95" customHeight="1">
-      <c r="H162" s="86"/>
-      <c r="I162" s="86"/>
-      <c r="J162" s="86"/>
-      <c r="K162" s="86"/>
-      <c r="L162" s="86"/>
-      <c r="M162" s="86"/>
-      <c r="N162" s="86"/>
-      <c r="O162" s="86"/>
+      <c r="H162" s="85"/>
+      <c r="I162" s="85"/>
+      <c r="J162" s="85"/>
+      <c r="K162" s="85"/>
+      <c r="L162" s="85"/>
+      <c r="M162" s="85"/>
+      <c r="N162" s="85"/>
+      <c r="O162" s="85"/>
     </row>
     <row r="163" spans="3:15" ht="24.95" customHeight="1">
-      <c r="C163" s="30"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="30"/>
-      <c r="F163" s="30"/>
-      <c r="H163" s="28"/>
-      <c r="I163" s="28"/>
-      <c r="J163" s="28"/>
-      <c r="K163" s="28"/>
-      <c r="L163" s="28"/>
-      <c r="M163" s="28"/>
-      <c r="N163" s="40"/>
-      <c r="O163" s="30"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="29"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
+      <c r="J163" s="27"/>
+      <c r="K163" s="27"/>
+      <c r="L163" s="27"/>
+      <c r="M163" s="27"/>
+      <c r="N163" s="39"/>
+      <c r="O163" s="29"/>
     </row>
     <row r="164" spans="3:15" ht="24.95" customHeight="1">
-      <c r="C164" s="30"/>
-      <c r="D164" s="30"/>
-      <c r="E164" s="30"/>
-      <c r="F164" s="30"/>
-      <c r="J164" s="40"/>
+      <c r="C164" s="29"/>
+      <c r="D164" s="29"/>
+      <c r="E164" s="29"/>
+      <c r="F164" s="29"/>
+      <c r="J164" s="39"/>
     </row>
     <row r="165" spans="3:15" ht="24.95" customHeight="1">
-      <c r="C165" s="30"/>
-      <c r="D165" s="30"/>
-      <c r="E165" s="30"/>
-      <c r="F165" s="30"/>
-      <c r="G165" s="86"/>
-      <c r="J165" s="40"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
+      <c r="F165" s="29"/>
+      <c r="G165" s="85"/>
+      <c r="J165" s="39"/>
     </row>
     <row r="166" spans="3:15" ht="24.95" customHeight="1">
-      <c r="C166" s="30"/>
-      <c r="D166" s="30"/>
-      <c r="E166" s="30"/>
-      <c r="F166" s="30"/>
-      <c r="J166" s="40"/>
+      <c r="C166" s="29"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
+      <c r="F166" s="29"/>
+      <c r="J166" s="39"/>
     </row>
     <row r="167" spans="3:15" ht="24.95" customHeight="1">
-      <c r="C167" s="30"/>
-      <c r="D167" s="30"/>
-      <c r="E167" s="30"/>
-      <c r="F167" s="30"/>
-      <c r="G167" s="28"/>
-      <c r="J167" s="40"/>
+      <c r="C167" s="29"/>
+      <c r="D167" s="29"/>
+      <c r="E167" s="29"/>
+      <c r="F167" s="29"/>
+      <c r="G167" s="27"/>
+      <c r="J167" s="39"/>
     </row>
     <row r="168" spans="3:15" ht="24.95" customHeight="1">
-      <c r="G168" s="28"/>
+      <c r="G168" s="27"/>
     </row>
     <row r="169" spans="3:15" ht="24.95" customHeight="1">
-      <c r="G169" s="28"/>
+      <c r="G169" s="27"/>
     </row>
     <row r="170" spans="3:15" ht="24.95" customHeight="1">
-      <c r="G170" s="28"/>
+      <c r="G170" s="27"/>
     </row>
     <row r="171" spans="3:15" ht="24.75" customHeight="1">
-      <c r="C171" s="73"/>
-      <c r="D171" s="73"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="73"/>
-      <c r="G171" s="28"/>
+      <c r="C171" s="72"/>
+      <c r="D171" s="72"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="72"/>
+      <c r="G171" s="27"/>
     </row>
     <row r="172" spans="3:15" ht="21.75" customHeight="1">
-      <c r="E172" s="28"/>
+      <c r="E172" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="S7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:R6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="H9:U10"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D13:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="Z21:AA22"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="F69:F79"/>
+    <mergeCell ref="C59:F68"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C53:C54"/>
     <mergeCell ref="C2:U2"/>
     <mergeCell ref="B1:B79"/>
     <mergeCell ref="C1:U1"/>
@@ -6208,40 +6189,38 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="Z21:AA22"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="F69:F79"/>
-    <mergeCell ref="C59:F68"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D13:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:R6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="S7:T8"/>
+    <mergeCell ref="H9:U10"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6277,41 +6256,41 @@
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="92" customWidth="1"/>
+    <col min="7" max="7" width="10" style="91" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="F1" s="90"/>
-      <c r="G1" s="91">
+      <c r="F1" s="89"/>
+      <c r="G1" s="90">
         <v>12.34</v>
       </c>
-      <c r="H1" s="90">
+      <c r="H1" s="89">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="F2" s="90"/>
-      <c r="G2" s="91">
+      <c r="F2" s="89"/>
+      <c r="G2" s="90">
         <v>7.28</v>
       </c>
-      <c r="H2" s="90">
+      <c r="H2" s="89">
         <v>90</v>
       </c>
-      <c r="J2" s="92"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="90">
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="89">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="18" customHeight="1" thickBot="1">
-      <c r="F4" s="90"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="90">
+      <c r="F4" s="89"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="89">
         <v>90</v>
       </c>
     </row>
@@ -6328,9 +6307,9 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="90">
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="89">
         <v>90</v>
       </c>
     </row>
@@ -6341,9 +6320,9 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="90">
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="89">
         <v>90</v>
       </c>
     </row>
@@ -6354,9 +6333,9 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="90">
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="89">
         <v>90</v>
       </c>
     </row>
@@ -6367,9 +6346,9 @@
       <c r="C8" s="9"/>
       <c r="D8" s="21"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="90">
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="89">
         <v>90</v>
       </c>
     </row>
@@ -6380,9 +6359,9 @@
       <c r="C9" s="9"/>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="90">
+      <c r="F9" s="89"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="89">
         <v>90</v>
       </c>
     </row>
@@ -6395,9 +6374,9 @@
       <c r="E10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="90">
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="89">
         <v>90</v>
       </c>
     </row>
@@ -6410,9 +6389,9 @@
       <c r="E11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="90">
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="89">
         <v>90</v>
       </c>
       <c r="I11" s="12" t="str">
@@ -6433,9 +6412,9 @@
       <c r="E12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="90">
+      <c r="F12" s="89"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="89">
         <v>90</v>
       </c>
       <c r="I12" s="13" t="str">
@@ -6455,11 +6434,11 @@
       <c r="E13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91">
+      <c r="F13" s="89"/>
+      <c r="G13" s="90">
         <v>4.66</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="89">
         <v>90</v>
       </c>
       <c r="I13" s="12" t="str">
@@ -6472,13 +6451,13 @@
         <v>44</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="97"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91">
+      <c r="F14" s="89"/>
+      <c r="G14" s="90">
         <v>4.4400000000000004</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H14" s="89">
         <v>70</v>
       </c>
       <c r="I14" s="12">
@@ -6493,9 +6472,9 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="90">
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6506,9 +6485,9 @@
       <c r="C16" s="9"/>
       <c r="D16" s="14"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="90">
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6519,9 +6498,9 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="90">
+      <c r="F17" s="89"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6532,9 +6511,9 @@
       <c r="C18" s="9"/>
       <c r="D18" s="21"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="90">
+      <c r="F18" s="89"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6547,9 +6526,9 @@
       <c r="E19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="90">
+      <c r="F19" s="89"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6562,9 +6541,9 @@
       <c r="E20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="90">
+      <c r="F20" s="89"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6577,9 +6556,9 @@
       <c r="E21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="90">
+      <c r="F21" s="89"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6592,9 +6571,9 @@
       <c r="E22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="90">
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6607,9 +6586,9 @@
       <c r="E23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="90">
+      <c r="F23" s="89"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6622,9 +6601,9 @@
       <c r="E24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="90">
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6637,9 +6616,9 @@
       <c r="E25" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="90">
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6652,9 +6631,9 @@
       <c r="E26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="90"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="90">
+      <c r="F26" s="89"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6667,9 +6646,9 @@
       <c r="E27" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="90">
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6682,9 +6661,9 @@
       <c r="E28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="90"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="90">
+      <c r="F28" s="89"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6693,13 +6672,13 @@
         <v>67</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="93"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="90"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="90">
+      <c r="F29" s="89"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6710,9 +6689,9 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="90">
+      <c r="F30" s="89"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6725,11 +6704,11 @@
       <c r="E31" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91">
+      <c r="F31" s="89"/>
+      <c r="G31" s="90">
         <v>2.95</v>
       </c>
-      <c r="H31" s="90">
+      <c r="H31" s="89">
         <v>70</v>
       </c>
     </row>
@@ -6740,11 +6719,11 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="91">
+      <c r="F32" s="89"/>
+      <c r="G32" s="90">
         <v>2.64</v>
       </c>
-      <c r="H32" s="90">
+      <c r="H32" s="89">
         <v>50</v>
       </c>
     </row>
@@ -6755,9 +6734,9 @@
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="90">
+      <c r="F33" s="89"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="89">
         <v>50</v>
       </c>
     </row>
@@ -6768,9 +6747,9 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="90">
+      <c r="F34" s="89"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="89">
         <v>50</v>
       </c>
     </row>
@@ -6783,9 +6762,9 @@
       <c r="E35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="90"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="90">
+      <c r="F35" s="89"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="89">
         <v>50</v>
       </c>
     </row>
@@ -6796,9 +6775,9 @@
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="90">
+      <c r="F36" s="89"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="89">
         <v>50</v>
       </c>
     </row>
@@ -6809,92 +6788,92 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="90">
+      <c r="F37" s="89"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="89">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="F38" s="90"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="90">
+      <c r="F38" s="89"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="89">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="F39" s="90"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="90">
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="89">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="F40" s="90"/>
-      <c r="G40" s="91">
+      <c r="F40" s="89"/>
+      <c r="G40" s="90">
         <v>1.5</v>
       </c>
-      <c r="H40" s="90">
+      <c r="H40" s="89">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="F41" s="90"/>
-      <c r="G41" s="91">
+      <c r="F41" s="89"/>
+      <c r="G41" s="90">
         <v>1.4</v>
       </c>
-      <c r="H41" s="90">
+      <c r="H41" s="89">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="F42" s="90"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="90">
+      <c r="F42" s="89"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="89">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="F43" s="90"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="90">
+      <c r="F43" s="89"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="89">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="F44" s="90"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="90">
+      <c r="F44" s="89"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="89">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="F45" s="90"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="90">
+      <c r="F45" s="89"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="89">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="F46" s="90"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="90">
+      <c r="F46" s="89"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="89">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="F47" s="90"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="90">
+      <c r="F47" s="89"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="89">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="F48" s="90"/>
-      <c r="G48" s="91">
+      <c r="F48" s="89"/>
+      <c r="G48" s="90">
         <v>0.44</v>
       </c>
-      <c r="H48" s="90">
+      <c r="H48" s="89">
         <v>40</v>
       </c>
     </row>
